--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="465" windowWidth="21255" windowHeight="22020" tabRatio="785"/>
+    <workbookView xWindow="18135" yWindow="465" windowWidth="21255" windowHeight="22020" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
-    <sheet name="HVAC" sheetId="1" r:id="rId2"/>
-    <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId3"/>
-    <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId4"/>
+    <sheet name="SUPPLY" sheetId="8" r:id="rId2"/>
+    <sheet name="HVAC" sheetId="1" r:id="rId3"/>
+    <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
+    <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5751" uniqueCount="78">
   <si>
     <t>Code</t>
   </si>
@@ -261,6 +262,9 @@
   </si>
   <si>
     <t>void_deck</t>
+  </si>
+  <si>
+    <t>type_el</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12135,6 +12139,5698 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="3" t="str">
+        <f>G98</f>
+        <v>T0</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="3" t="str">
+        <f t="shared" ref="G183:G193" si="0">G99</f>
+        <v>T3</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G186" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E188" s="3" t="str">
+        <f t="shared" ref="E188:E193" si="1">E92</f>
+        <v>T1</v>
+      </c>
+      <c r="F188" s="3" t="str">
+        <f>F92</f>
+        <v>T1</v>
+      </c>
+      <c r="G188" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E189" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>T1</v>
+      </c>
+      <c r="F189" s="3" t="str">
+        <f>F93</f>
+        <v>T1</v>
+      </c>
+      <c r="G189" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E190" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>T1</v>
+      </c>
+      <c r="F190" s="3" t="str">
+        <f>F94</f>
+        <v>T1</v>
+      </c>
+      <c r="G190" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E191" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>T1</v>
+      </c>
+      <c r="F191" s="3" t="str">
+        <f>F95</f>
+        <v>T1</v>
+      </c>
+      <c r="G191" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E192" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>T3</v>
+      </c>
+      <c r="F192" s="3" t="str">
+        <f>F96</f>
+        <v>T3</v>
+      </c>
+      <c r="G192" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E193" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>T3</v>
+      </c>
+      <c r="F193" s="3" t="str">
+        <f>F97</f>
+        <v>T3</v>
+      </c>
+      <c r="G193" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>T3</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I217"/>
   <sheetViews>
@@ -18541,7 +24237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -18948,7 +24644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\CEAforArcGIS\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="465" windowWidth="21255" windowHeight="22020" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="18135" yWindow="465" windowWidth="21255" windowHeight="22020" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5751" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="80">
   <si>
     <t>Code</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>type_el</t>
+  </si>
+  <si>
+    <t>rhum_min_pc</t>
+  </si>
+  <si>
+    <t>rhum_max_pc</t>
   </si>
 </sst>
 </file>
@@ -12142,7 +12148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -17045,7 +17051,7 @@
         <v>T1</v>
       </c>
       <c r="F188" s="3" t="str">
-        <f>F92</f>
+        <f t="shared" ref="F188:F193" si="2">F92</f>
         <v>T1</v>
       </c>
       <c r="G188" s="3" t="str">
@@ -17074,7 +17080,7 @@
         <v>T1</v>
       </c>
       <c r="F189" s="3" t="str">
-        <f>F93</f>
+        <f t="shared" si="2"/>
         <v>T1</v>
       </c>
       <c r="G189" s="3" t="str">
@@ -17103,7 +17109,7 @@
         <v>T1</v>
       </c>
       <c r="F190" s="3" t="str">
-        <f>F94</f>
+        <f t="shared" si="2"/>
         <v>T1</v>
       </c>
       <c r="G190" s="3" t="str">
@@ -17132,7 +17138,7 @@
         <v>T1</v>
       </c>
       <c r="F191" s="3" t="str">
-        <f>F95</f>
+        <f t="shared" si="2"/>
         <v>T1</v>
       </c>
       <c r="G191" s="3" t="str">
@@ -17161,7 +17167,7 @@
         <v>T3</v>
       </c>
       <c r="F192" s="3" t="str">
-        <f>F96</f>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="G192" s="3" t="str">
@@ -17190,7 +17196,7 @@
         <v>T3</v>
       </c>
       <c r="F193" s="3" t="str">
-        <f>F97</f>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="G193" s="3" t="str">
@@ -24239,10 +24245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24256,7 +24262,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -24275,8 +24281,14 @@
       <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -24295,8 +24307,14 @@
       <c r="F2" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="6">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -24315,8 +24333,14 @@
       <c r="F3" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -24332,11 +24356,17 @@
       <c r="E4" s="5">
         <v>21</v>
       </c>
-      <c r="F4" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -24352,11 +24382,17 @@
       <c r="E5" s="5">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -24372,11 +24408,17 @@
       <c r="E6" s="5">
         <v>12</v>
       </c>
-      <c r="F6" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -24392,11 +24434,17 @@
       <c r="E7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -24412,12 +24460,18 @@
       <c r="E8" s="5">
         <v>12</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <f t="shared" ref="F8" si="0">111*0.15+10*0.85</f>
         <v>25.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -24433,11 +24487,17 @@
       <c r="E9" s="5">
         <v>12</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -24453,11 +24513,17 @@
       <c r="E10" s="5">
         <v>12</v>
       </c>
-      <c r="F10" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="6">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -24473,11 +24539,17 @@
       <c r="E11" s="5">
         <v>21</v>
       </c>
-      <c r="F11" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -24493,11 +24565,17 @@
       <c r="E12" s="5">
         <v>12</v>
       </c>
-      <c r="F12" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -24513,11 +24591,17 @@
       <c r="E13" s="5">
         <v>12</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -24533,11 +24617,17 @@
       <c r="E14" s="5">
         <v>12</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="6">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -24553,11 +24643,17 @@
       <c r="E15" s="5">
         <v>12</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>30</v>
+      </c>
+      <c r="H15" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -24573,11 +24669,17 @@
       <c r="E16" s="5">
         <v>-5</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>30</v>
+      </c>
+      <c r="H16" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -24593,12 +24695,18 @@
       <c r="E17" s="5">
         <v>12</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <f>F9</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6">
+        <v>30</v>
+      </c>
+      <c r="H17" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
@@ -24614,11 +24722,17 @@
       <c r="E18" s="5">
         <v>12</v>
       </c>
-      <c r="F18" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>30</v>
+      </c>
+      <c r="H18" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -24634,8 +24748,14 @@
       <c r="E19" s="5">
         <v>12</v>
       </c>
-      <c r="F19" s="9">
-        <v>10</v>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>30</v>
+      </c>
+      <c r="H19" s="6">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/C/Users/User/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="26805" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1169,25 +1169,25 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>65</v>
       </c>
       <c r="E158" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>65</v>
       </c>
       <c r="E159" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>65</v>
       </c>
       <c r="E160" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>65</v>
       </c>
       <c r="E161" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -10207,7 +10207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>65</v>
       </c>
       <c r="E162" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>65</v>
       </c>
       <c r="E163" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -10319,7 +10319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>66</v>
       </c>
       <c r="E164" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>66</v>
       </c>
       <c r="E165" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>66</v>
       </c>
       <c r="E166" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -10487,7 +10487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>66</v>
       </c>
       <c r="E167" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
@@ -10543,7 +10543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>66</v>
       </c>
       <c r="E168" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>66</v>
       </c>
       <c r="E169" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>65</v>
       </c>
       <c r="E170" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
@@ -10711,7 +10711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>65</v>
       </c>
       <c r="E171" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
@@ -10767,7 +10767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>65</v>
       </c>
       <c r="E172" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>65</v>
       </c>
       <c r="E173" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>65</v>
       </c>
       <c r="E174" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
@@ -10935,7 +10935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>65</v>
       </c>
       <c r="E175" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>66</v>
       </c>
       <c r="E176" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>66</v>
       </c>
       <c r="E177" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>66</v>
       </c>
       <c r="E178" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>66</v>
       </c>
       <c r="E179" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>66</v>
       </c>
       <c r="E180" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
@@ -11271,7 +11271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>66</v>
       </c>
       <c r="E181" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -13504,20 +13504,20 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -19199,20 +19199,20 @@
       <selection pane="bottomRight" activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4"/>
-    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -19241,7 +19241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -19531,7 +19531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -20227,7 +20227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -21010,7 +21010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -21242,7 +21242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -21822,7 +21822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -21938,7 +21938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -21996,7 +21996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -22257,7 +22257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -22489,7 +22489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -22547,7 +22547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -22663,7 +22663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -23011,7 +23011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -23272,7 +23272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -23533,7 +23533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -23591,7 +23591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -23823,7 +23823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -23852,7 +23852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -23881,7 +23881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -23968,7 +23968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -24026,7 +24026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -24055,7 +24055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -24084,7 +24084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -24200,7 +24200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -24461,7 +24461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -24597,7 +24597,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -24631,7 +24631,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -24699,7 +24699,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -24733,7 +24733,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -24801,7 +24801,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>T0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -24962,7 +24962,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -24993,7 +24993,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -25055,7 +25055,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -25086,7 +25086,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -25117,7 +25117,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -25148,7 +25148,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -25210,7 +25210,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -25270,7 +25270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -25328,7 +25328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -25502,7 +25502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -25531,7 +25531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -25603,18 +25603,18 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -25666,7 +25666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -25770,7 +25770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -25901,7 +25901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -25927,7 +25927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -26124,21 +26124,21 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -26208,7 +26208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -26280,7 +26280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -26315,7 +26315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -26352,7 +26352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -26457,7 +26457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -26492,7 +26492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -26527,7 +26527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -26597,7 +26597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -26667,7 +26667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -26702,7 +26702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED0CB15F-01E6-EF48-A699-06847947620C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="26805" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5754" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6078" uniqueCount="83">
   <si>
     <t>Code</t>
   </si>
@@ -275,15 +276,21 @@
   <si>
     <t>Es</t>
   </si>
+  <si>
+    <t>UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERISTY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,32 +1169,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S217"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
+      <selection pane="bottomRight" activeCell="A218" sqref="A218:A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1307,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1364,7 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1421,7 @@
       </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1478,7 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1639,7 +1646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1919,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2031,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -2143,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2199,7 +2206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -2367,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -2535,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -2647,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2815,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -2927,7 +2934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -2983,7 +2990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -3095,7 +3102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -3151,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -3207,7 +3214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3263,7 +3270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -3375,7 +3382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -3431,7 +3438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -3487,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -3543,7 +3550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -3655,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -3711,7 +3718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3767,7 +3774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -3823,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -3879,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -3935,7 +3942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4047,7 +4054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -4159,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -4271,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -4327,7 +4334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -4383,7 +4390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -4495,7 +4502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -4551,7 +4558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -4663,7 +4670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -4719,7 +4726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -4831,7 +4838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -4887,7 +4894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -4943,7 +4950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -4999,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -5279,7 +5286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -5335,7 +5342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -5447,7 +5454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -5615,7 +5622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -5671,7 +5678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -5839,7 +5846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -5895,7 +5902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -5951,7 +5958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -6007,7 +6014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -6175,7 +6182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -6231,7 +6238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -6287,7 +6294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -6343,7 +6350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -6399,7 +6406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -6455,7 +6462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -6511,7 +6518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -6567,7 +6574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -6623,7 +6630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -6679,7 +6686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -6735,7 +6742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -6791,7 +6798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -6903,7 +6910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -6959,7 +6966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -7015,7 +7022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -7071,7 +7078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -7127,7 +7134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -7183,7 +7190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -7239,7 +7246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -7295,7 +7302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -7351,7 +7358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -7407,7 +7414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -7463,7 +7470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -7519,7 +7526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -7575,7 +7582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -7631,7 +7638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -7687,7 +7694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -7743,7 +7750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -7799,7 +7806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -7855,7 +7862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -7911,7 +7918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -7967,7 +7974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -8023,7 +8030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -8079,7 +8086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -8135,7 +8142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -8191,7 +8198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -8247,7 +8254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -8359,7 +8366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -8415,7 +8422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -8471,7 +8478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -8527,7 +8534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -8583,7 +8590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -8639,7 +8646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -8695,7 +8702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -8751,7 +8758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -8807,7 +8814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -8863,7 +8870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -8919,7 +8926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -8975,7 +8982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -9031,7 +9038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -9087,7 +9094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -9143,7 +9150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -9199,7 +9206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -9255,7 +9262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -9311,7 +9318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -9367,7 +9374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -9423,7 +9430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -9479,7 +9486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -9535,7 +9542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -9591,7 +9598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -9647,7 +9654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -9703,7 +9710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -9759,7 +9766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -9815,7 +9822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -9871,7 +9878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -9927,7 +9934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -9983,7 +9990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -10039,7 +10046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -10095,7 +10102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -10151,7 +10158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -10207,7 +10214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -10263,7 +10270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -10319,7 +10326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -10375,7 +10382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -10431,7 +10438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -10487,7 +10494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -10543,7 +10550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -10599,7 +10606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -10655,7 +10662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -10711,7 +10718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -10767,7 +10774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -10823,7 +10830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -10879,7 +10886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -10935,7 +10942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -10991,7 +10998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -11047,7 +11054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -11103,7 +11110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -11159,7 +11166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -11215,7 +11222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -11271,7 +11278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -11327,7 +11334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -11391,7 +11398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -11455,7 +11462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -11519,7 +11526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -11583,7 +11590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -11647,7 +11654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -11711,7 +11718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -11775,7 +11782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -11839,7 +11846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -11903,7 +11910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -11967,7 +11974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -12031,7 +12038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -12095,7 +12102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -12155,7 +12162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -12215,7 +12222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -12275,7 +12282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -12335,7 +12342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -12395,7 +12402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -12455,7 +12462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -12515,7 +12522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -12575,7 +12582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -12635,7 +12642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -12695,7 +12702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -12755,7 +12762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -12815,7 +12822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -12871,7 +12878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -12927,7 +12934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -12983,7 +12990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -13039,7 +13046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -13095,7 +13102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -13151,7 +13158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -13207,7 +13214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -13263,7 +13270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -13319,7 +13326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -13375,7 +13382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -13431,7 +13438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -13484,6 +13491,678 @@
         <v>43</v>
       </c>
       <c r="R217" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
+      <c r="A218" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B218" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F218" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H218" s="14">
+        <v>0</v>
+      </c>
+      <c r="I218" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J218" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K218" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L218" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R218" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
+      <c r="A219" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H219" s="14">
+        <v>0</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J219" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K219" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L219" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q219" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R219" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
+      <c r="A220" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F220" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H220" s="14">
+        <v>0</v>
+      </c>
+      <c r="I220" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J220" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K220" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L220" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q220" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R220" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
+      <c r="A221" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F221" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H221" s="14">
+        <v>0</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J221" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L221" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q221" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R221" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
+      <c r="A222" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F222" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H222" s="14">
+        <v>0</v>
+      </c>
+      <c r="I222" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J222" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K222" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L222" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q222" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R222" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H223" s="14">
+        <v>0</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L223" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P223" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q223" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R223" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
+      <c r="A224" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B224" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F224" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H224" s="14">
+        <v>0</v>
+      </c>
+      <c r="I224" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J224" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L224" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R224" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="A225" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H225" s="14">
+        <v>0</v>
+      </c>
+      <c r="I225" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J225" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K225" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L225" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q225" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R225" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
+      <c r="A226" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H226" s="14">
+        <v>0</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J226" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L226" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P226" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R226" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
+      <c r="A227" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H227" s="14">
+        <v>0</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J227" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K227" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L227" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q227" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R227" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
+      <c r="A228" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H228" s="14">
+        <v>0</v>
+      </c>
+      <c r="I228" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J228" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K228" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L228" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P228" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q228" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R228" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
+      <c r="A229" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F229" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G229" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H229" s="14">
+        <v>0</v>
+      </c>
+      <c r="I229" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J229" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="K229" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="L229" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P229" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R229" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13497,27 +14176,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M217"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -13543,7 +14222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -13569,7 +14248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -13595,7 +14274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -13621,7 +14300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -13647,7 +14326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -13673,7 +14352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -13699,7 +14378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -13725,7 +14404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -13751,7 +14430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -13777,7 +14456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -13803,7 +14482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -13829,7 +14508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -13855,7 +14534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -13881,7 +14560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -13907,7 +14586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -13933,7 +14612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -13959,7 +14638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -13985,7 +14664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -14011,7 +14690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -14037,7 +14716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -14063,7 +14742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -14089,7 +14768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -14115,7 +14794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -14141,7 +14820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -14167,7 +14846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -14193,7 +14872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -14219,7 +14898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -14245,7 +14924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -14271,7 +14950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -14297,7 +14976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -14323,7 +15002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -14349,7 +15028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -14375,7 +15054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -14401,7 +15080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -14427,7 +15106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -14453,7 +15132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -14479,7 +15158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -14505,7 +15184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -14531,7 +15210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -14557,7 +15236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -14583,7 +15262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -14609,7 +15288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -14635,7 +15314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -14661,7 +15340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -14687,7 +15366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -14713,7 +15392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -14739,7 +15418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -14765,7 +15444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -14791,7 +15470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -14817,7 +15496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -14843,7 +15522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -14869,7 +15548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -14895,7 +15574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -14921,7 +15600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -14947,7 +15626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -14973,7 +15652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -14999,7 +15678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -15025,7 +15704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -15051,7 +15730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -15077,7 +15756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -15103,7 +15782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -15129,7 +15808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -15155,7 +15834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -15181,7 +15860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -15207,7 +15886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -15233,7 +15912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -15259,7 +15938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -15285,7 +15964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -15311,7 +15990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -15337,7 +16016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -15363,7 +16042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -15389,7 +16068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -15415,7 +16094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -15441,7 +16120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -15467,7 +16146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -15493,7 +16172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -15519,7 +16198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -15545,7 +16224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -15571,7 +16250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -15597,7 +16276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -15623,7 +16302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -15649,7 +16328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -15675,7 +16354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -15701,7 +16380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -15727,7 +16406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -15753,7 +16432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -15779,7 +16458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -15805,7 +16484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -15831,7 +16510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -15857,7 +16536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -15883,7 +16562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -15909,7 +16588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -15935,7 +16614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -15961,7 +16640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -15987,7 +16666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -16013,7 +16692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -16039,7 +16718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -16065,7 +16744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -16091,7 +16770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -16117,7 +16796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -16143,7 +16822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -16169,7 +16848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -16195,7 +16874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -16221,7 +16900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -16247,7 +16926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -16273,7 +16952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -16299,7 +16978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -16325,7 +17004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -16351,7 +17030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -16377,7 +17056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -16403,7 +17082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -16429,7 +17108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -16455,7 +17134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -16481,7 +17160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -16507,7 +17186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -16533,7 +17212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -16559,7 +17238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -16585,7 +17264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -16611,7 +17290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -16637,7 +17316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -16663,7 +17342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -16689,7 +17368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -16715,7 +17394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -16741,7 +17420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -16767,7 +17446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -16793,7 +17472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -16819,7 +17498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -16845,7 +17524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -16871,7 +17550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -16897,7 +17576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -16923,7 +17602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -16949,7 +17628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -16975,7 +17654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -17001,7 +17680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -17027,7 +17706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -17053,7 +17732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -17079,7 +17758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -17105,7 +17784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -17131,7 +17810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -17157,7 +17836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -17183,7 +17862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -17209,7 +17888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -17235,7 +17914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -17261,7 +17940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -17287,7 +17966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -17313,7 +17992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -17339,7 +18018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -17365,7 +18044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -17391,7 +18070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -17417,7 +18096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -17443,7 +18122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -17469,7 +18148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -17495,7 +18174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -17521,7 +18200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -17547,7 +18226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -17573,7 +18252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -17599,7 +18278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -17625,7 +18304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -17651,7 +18330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -17677,7 +18356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -17703,7 +18382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -17729,7 +18408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -17755,7 +18434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -17781,7 +18460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -17807,7 +18486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -17833,7 +18512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -17859,7 +18538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -17885,7 +18564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -17911,7 +18590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -17937,7 +18616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -17963,7 +18642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -17989,7 +18668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -18015,7 +18694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -18041,7 +18720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -18067,7 +18746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -18093,7 +18772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -18119,7 +18798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -18145,7 +18824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -18171,7 +18850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -18197,7 +18876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -18223,7 +18902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -18250,7 +18929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -18277,7 +18956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -18304,7 +18983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -18331,7 +19010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -18358,7 +19037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -18385,7 +19064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -18414,7 +19093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -18443,7 +19122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -18472,7 +19151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -18501,7 +19180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -18530,7 +19209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -18559,7 +19238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -18585,7 +19264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -18611,7 +19290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -18637,7 +19316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -18663,7 +19342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -18689,7 +19368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -18715,7 +19394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -18741,7 +19420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -18767,7 +19446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -18793,7 +19472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -18819,7 +19498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -18845,7 +19524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -18871,7 +19550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -18897,7 +19576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -18923,7 +19602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -18949,7 +19628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -18975,7 +19654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -19001,7 +19680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -19027,7 +19706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -19053,7 +19732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -19079,7 +19758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -19105,7 +19784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -19131,7 +19810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -19157,7 +19836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -19180,6 +19859,318 @@
         <v>7</v>
       </c>
       <c r="H217" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H229" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19189,30 +20180,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I217"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H158" sqref="H158"/>
+      <selection pane="bottomRight" activeCell="A217" sqref="A50:XFD217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.1640625" style="4"/>
+    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -19241,7 +20232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -19270,7 +20261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -19299,7 +20290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -19328,7 +20319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -19357,7 +20348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -19386,7 +20377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -19415,7 +20406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -19444,7 +20435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -19473,7 +20464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -19502,7 +20493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -19531,7 +20522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -19560,7 +20551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -19589,7 +20580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -19618,7 +20609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -19647,7 +20638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -19676,7 +20667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -19705,7 +20696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -19734,7 +20725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -19763,7 +20754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -19792,7 +20783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -19821,7 +20812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -19850,7 +20841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -19879,7 +20870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -19908,7 +20899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -19937,7 +20928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -19966,7 +20957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -19995,7 +20986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -20024,7 +21015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -20053,7 +21044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -20082,7 +21073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -20111,7 +21102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -20140,7 +21131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -20169,7 +21160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -20198,7 +21189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -20227,7 +21218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -20256,7 +21247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -20285,7 +21276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -20314,7 +21305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -20343,7 +21334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -20372,7 +21363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -20401,7 +21392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -20430,7 +21421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -20459,7 +21450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -20488,7 +21479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -20517,7 +21508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -20546,7 +21537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -20575,7 +21566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -20604,7 +21595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -20633,7 +21624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -20662,7 +21653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -20691,7 +21682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -20720,7 +21711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -20749,7 +21740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -20778,7 +21769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -20807,7 +21798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -20836,7 +21827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -20865,7 +21856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -20894,7 +21885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -20923,7 +21914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -20952,7 +21943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -20981,7 +21972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -21010,7 +22001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -21039,7 +22030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -21068,7 +22059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -21097,7 +22088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -21126,7 +22117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -21155,7 +22146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -21184,7 +22175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -21213,7 +22204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -21242,7 +22233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -21271,7 +22262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -21300,7 +22291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -21329,7 +22320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -21358,7 +22349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -21387,7 +22378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -21416,7 +22407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -21445,7 +22436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -21474,7 +22465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -21503,7 +22494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -21532,7 +22523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -21561,7 +22552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -21590,7 +22581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -21619,7 +22610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -21648,7 +22639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -21677,7 +22668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -21706,7 +22697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -21735,7 +22726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -21764,7 +22755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -21793,7 +22784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -21822,7 +22813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -21851,7 +22842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -21880,7 +22871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -21909,7 +22900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -21938,7 +22929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -21967,7 +22958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -21996,7 +22987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -22025,7 +23016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -22054,7 +23045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -22083,7 +23074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -22112,7 +23103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -22141,7 +23132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -22170,7 +23161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -22199,7 +23190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -22228,7 +23219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -22257,7 +23248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -22286,7 +23277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -22315,7 +23306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -22344,7 +23335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -22373,7 +23364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -22402,7 +23393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -22431,7 +23422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -22460,7 +23451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -22489,7 +23480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -22518,7 +23509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -22547,7 +23538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -22576,7 +23567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -22605,7 +23596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -22634,7 +23625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -22663,7 +23654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -22692,7 +23683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -22721,7 +23712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -22750,7 +23741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -22779,7 +23770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -22808,7 +23799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -22837,7 +23828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -22866,7 +23857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -22895,7 +23886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -22924,7 +23915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -22953,7 +23944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -22982,7 +23973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -23011,7 +24002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -23040,7 +24031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -23069,7 +24060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -23098,7 +24089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -23127,7 +24118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -23156,7 +24147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -23185,7 +24176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -23214,7 +24205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -23243,7 +24234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -23272,7 +24263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -23301,7 +24292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -23330,7 +24321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -23359,7 +24350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -23388,7 +24379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -23417,7 +24408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -23446,7 +24437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -23475,7 +24466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -23504,7 +24495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -23533,7 +24524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -23562,7 +24553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -23591,7 +24582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -23620,7 +24611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -23649,7 +24640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -23678,7 +24669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -23707,7 +24698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -23736,7 +24727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -23765,7 +24756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -23794,7 +24785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -23823,7 +24814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -23852,7 +24843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -23881,7 +24872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -23910,7 +24901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -23939,7 +24930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -23968,7 +24959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -23997,7 +24988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -24026,7 +25017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -24055,7 +25046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -24084,7 +25075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -24113,7 +25104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -24142,7 +25133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -24171,7 +25162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -24200,7 +25191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -24229,7 +25220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -24258,7 +25249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -24287,7 +25278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -24316,7 +25307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -24345,7 +25336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -24374,7 +25365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -24403,7 +25394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -24432,7 +25423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -24461,7 +25452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -24495,7 +25486,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -24529,7 +25520,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -24563,7 +25554,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -24597,7 +25588,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -24631,7 +25622,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -24665,7 +25656,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -24699,7 +25690,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -24733,7 +25724,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -24767,7 +25758,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -24801,7 +25792,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -24835,7 +25826,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -24869,7 +25860,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -24900,7 +25891,7 @@
         <v>T0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -24931,7 +25922,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -24962,7 +25953,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -24993,7 +25984,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -25024,7 +26015,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -25055,7 +26046,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -25086,7 +26077,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -25117,7 +26108,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -25148,7 +26139,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -25179,7 +26170,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -25210,7 +26201,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -25241,7 +26232,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -25270,7 +26261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -25299,7 +26290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -25328,7 +26319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -25357,7 +26348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -25386,7 +26377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -25415,7 +26406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -25444,7 +26435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -25473,7 +26464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -25502,7 +26493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -25531,7 +26522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -25560,7 +26551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -25586,6 +26577,354 @@
         <v>7</v>
       </c>
       <c r="I217" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I229" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -25596,25 +26935,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -25640,14 +26979,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>26</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>22</v>
       </c>
       <c r="D2" s="3">
@@ -25666,14 +27005,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>26</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>22</v>
       </c>
       <c r="D3" s="3">
@@ -25692,14 +27031,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="3">
         <v>26</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>21</v>
       </c>
       <c r="D4" s="3">
@@ -25718,14 +27057,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="3">
         <v>24</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>22</v>
       </c>
       <c r="D5" s="3">
@@ -25744,14 +27083,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="3">
         <v>26</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>20</v>
       </c>
       <c r="D6" s="3">
@@ -25770,14 +27109,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="3">
         <v>22</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>22</v>
       </c>
       <c r="D7" s="3">
@@ -25796,14 +27135,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="3">
         <v>27</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>21</v>
       </c>
       <c r="D8" s="3">
@@ -25823,14 +27162,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="3">
         <v>24</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>21</v>
       </c>
       <c r="D9" s="3">
@@ -25849,14 +27188,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="3">
         <v>26</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>21</v>
       </c>
       <c r="D10" s="3">
@@ -25875,14 +27214,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="3">
         <v>26</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>22</v>
       </c>
       <c r="D11" s="3">
@@ -25901,14 +27240,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="3">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>18</v>
       </c>
       <c r="D12" s="3">
@@ -25927,14 +27266,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="3">
         <v>24</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>24</v>
       </c>
       <c r="D13" s="3">
@@ -25953,14 +27292,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="3">
         <v>26</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>26</v>
       </c>
       <c r="D14" s="3">
@@ -25979,14 +27318,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="3">
         <v>28</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>18</v>
       </c>
       <c r="D15" s="3">
@@ -26005,14 +27344,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="3">
         <v>-5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>-5</v>
       </c>
       <c r="D16" s="3">
@@ -26031,14 +27370,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="3">
         <v>26</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>21</v>
       </c>
       <c r="D17" s="3">
@@ -26058,14 +27397,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="3">
         <v>26</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>21</v>
       </c>
       <c r="D18" s="3">
@@ -26084,14 +27423,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="3">
         <v>26</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>21</v>
       </c>
       <c r="D19" s="3">
@@ -26107,6 +27446,33 @@
         <v>30</v>
       </c>
       <c r="H19" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>28</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6">
+        <f>30/3600*1000</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G20" s="6">
+        <v>30</v>
+      </c>
+      <c r="H20" s="6">
         <v>70</v>
       </c>
     </row>
@@ -26117,28 +27483,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -26173,7 +27539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -26208,7 +27574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -26245,7 +27611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -26280,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -26315,7 +27681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -26352,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -26387,7 +27753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -26422,7 +27788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -26457,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -26492,7 +27858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -26527,7 +27893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -26562,7 +27928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -26597,7 +27963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -26632,7 +27998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -26667,7 +28033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -26702,7 +28068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -26742,7 +28108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -26779,7 +28145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -26811,6 +28177,41 @@
         <v>0</v>
       </c>
       <c r="K19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="9">
+        <v>70</v>
+      </c>
+      <c r="C20" s="9">
+        <v>80</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>4</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
         <v>0</v>
       </c>
     </row>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darthoma\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED0CB15F-01E6-EF48-A699-06847947620C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="26805" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6078" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6078" uniqueCount="82">
   <si>
     <t>Code</t>
   </si>
@@ -279,18 +278,15 @@
   <si>
     <t>UNIVERSITY</t>
   </si>
-  <si>
-    <t>UNIVERISTY</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,32 +1165,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E159" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A218" sqref="A218:A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -1250,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1303,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1360,7 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1417,7 @@
       </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1474,7 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1534,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1590,7 +1586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1646,7 +1642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1870,7 +1866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1926,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1982,7 +1978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2094,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2206,7 +2202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -2262,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -2318,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -2374,7 +2370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2598,7 +2594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2710,7 +2706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2766,7 +2762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2822,7 +2818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -2878,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -2934,7 +2930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -2990,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -3046,7 +3042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -3102,7 +3098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -3158,7 +3154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -3214,7 +3210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3270,7 +3266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3326,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -3382,7 +3378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -3438,7 +3434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -3494,7 +3490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -3606,7 +3602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -3662,7 +3658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -3718,7 +3714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3774,7 +3770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -3830,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -3886,7 +3882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -3942,7 +3938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -3998,7 +3994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4054,7 +4050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -4110,7 +4106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -4166,7 +4162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -4278,7 +4274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -4334,7 +4330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -4390,7 +4386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -4446,7 +4442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -4502,7 +4498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -4558,7 +4554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -4614,7 +4610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -4726,7 +4722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -4838,7 +4834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -4894,7 +4890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -4950,7 +4946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -5062,7 +5058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -5118,7 +5114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -5174,7 +5170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -5230,7 +5226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -5286,7 +5282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -5342,7 +5338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -5454,7 +5450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -5510,7 +5506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -5622,7 +5618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -5678,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -5734,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -5790,7 +5786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -5846,7 +5842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -5902,7 +5898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -5958,7 +5954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -6014,7 +6010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -6070,7 +6066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -6126,7 +6122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -6182,7 +6178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -6238,7 +6234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -6294,7 +6290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -6350,7 +6346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -6406,7 +6402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -6462,7 +6458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -6518,7 +6514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -6574,7 +6570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -6630,7 +6626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -6742,7 +6738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -6798,7 +6794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -6854,7 +6850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -6966,7 +6962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -7022,7 +7018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -7078,7 +7074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -7134,7 +7130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -7246,7 +7242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -7302,7 +7298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -7358,7 +7354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -7414,7 +7410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -7470,7 +7466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -7526,7 +7522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -7582,7 +7578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -7638,7 +7634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -7694,7 +7690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -7750,7 +7746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -7862,7 +7858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -7918,7 +7914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -7974,7 +7970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -8030,7 +8026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -8086,7 +8082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -8142,7 +8138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -8198,7 +8194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -8254,7 +8250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -8310,7 +8306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -8366,7 +8362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -8534,7 +8530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -8590,7 +8586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -8646,7 +8642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -8870,7 +8866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -8926,7 +8922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -9150,7 +9146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -9206,7 +9202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -9262,7 +9258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -9318,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -9374,7 +9370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -9430,7 +9426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -9486,7 +9482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -9598,7 +9594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -9654,7 +9650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -9766,7 +9762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -9878,7 +9874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -9934,7 +9930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -9990,7 +9986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -10102,7 +10098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -10158,7 +10154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -10270,7 +10266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -10326,7 +10322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -10382,7 +10378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -10438,7 +10434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -10494,7 +10490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -10550,7 +10546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -10606,7 +10602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -10662,7 +10658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -10718,7 +10714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -10774,7 +10770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -10830,7 +10826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -10886,7 +10882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -10942,7 +10938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -10998,7 +10994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -11054,7 +11050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -11110,7 +11106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -11166,7 +11162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -11278,7 +11274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -11334,7 +11330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -11398,7 +11394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -11462,7 +11458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -11526,7 +11522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -11590,7 +11586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -11654,7 +11650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -11718,7 +11714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -11782,7 +11778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -11846,7 +11842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -11910,7 +11906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -11974,7 +11970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -12038,7 +12034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -12102,7 +12098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -12162,7 +12158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -12222,7 +12218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -12282,7 +12278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -12342,7 +12338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -12402,7 +12398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -12462,7 +12458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -12522,7 +12518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -12582,7 +12578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -12642,7 +12638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -12702,7 +12698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -12762,7 +12758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -12822,7 +12818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -12878,7 +12874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -12934,7 +12930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -12990,7 +12986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -13046,7 +13042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -13102,7 +13098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -13158,7 +13154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -13214,7 +13210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -13270,7 +13266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -13326,7 +13322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -13382,7 +13378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -13438,7 +13434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -13494,7 +13490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>81</v>
       </c>
@@ -13550,7 +13546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>81</v>
       </c>
@@ -13606,7 +13602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>81</v>
       </c>
@@ -13662,7 +13658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>81</v>
       </c>
@@ -13718,7 +13714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>81</v>
       </c>
@@ -13774,7 +13770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>81</v>
       </c>
@@ -13830,7 +13826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>81</v>
       </c>
@@ -13886,7 +13882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>81</v>
       </c>
@@ -13942,7 +13938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>81</v>
       </c>
@@ -13998,7 +13994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>81</v>
       </c>
@@ -14054,7 +14050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>81</v>
       </c>
@@ -14110,7 +14106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>81</v>
       </c>
@@ -14176,27 +14172,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
+    <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -14222,7 +14218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -14248,7 +14244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -14274,7 +14270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -14300,7 +14296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -14326,7 +14322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -14352,7 +14348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -14378,7 +14374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -14404,7 +14400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -14430,7 +14426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -14456,7 +14452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -14482,7 +14478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -14508,7 +14504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -14534,7 +14530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -14560,7 +14556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -14586,7 +14582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -14612,7 +14608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -14638,7 +14634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -14664,7 +14660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -14690,7 +14686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -14716,7 +14712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -14742,7 +14738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -14768,7 +14764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -14794,7 +14790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -14820,7 +14816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -14846,7 +14842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -14872,7 +14868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -14898,7 +14894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -14950,7 +14946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -14976,7 +14972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -15002,7 +14998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -15028,7 +15024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -15054,7 +15050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -15080,7 +15076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -15106,7 +15102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -15132,7 +15128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -15158,7 +15154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -15184,7 +15180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -15210,7 +15206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -15236,7 +15232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -15262,7 +15258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -15288,7 +15284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -15314,7 +15310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -15340,7 +15336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -15366,7 +15362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -15392,7 +15388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -15418,7 +15414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -15444,7 +15440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -15470,7 +15466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -15496,7 +15492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -15522,7 +15518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -15548,7 +15544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -15574,7 +15570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -15600,7 +15596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -15626,7 +15622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -15652,7 +15648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -15678,7 +15674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -15704,7 +15700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -15730,7 +15726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -15756,7 +15752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -15782,7 +15778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -15808,7 +15804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -15834,7 +15830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -15860,7 +15856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -15886,7 +15882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -15912,7 +15908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -15938,7 +15934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -15964,7 +15960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -15990,7 +15986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -16016,7 +16012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -16042,7 +16038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -16068,7 +16064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -16094,7 +16090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -16120,7 +16116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -16146,7 +16142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -16172,7 +16168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -16198,7 +16194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -16224,7 +16220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -16250,7 +16246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -16276,7 +16272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -16302,7 +16298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -16328,7 +16324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -16354,7 +16350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -16380,7 +16376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -16406,7 +16402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -16432,7 +16428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -16458,7 +16454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -16484,7 +16480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -16510,7 +16506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -16536,7 +16532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -16562,7 +16558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -16588,7 +16584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -16614,7 +16610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -16640,7 +16636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -16666,7 +16662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -16692,7 +16688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -16718,7 +16714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -16744,7 +16740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -16770,7 +16766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -16796,7 +16792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -16822,7 +16818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -16848,7 +16844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -16874,7 +16870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -16900,7 +16896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -16926,7 +16922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -16952,7 +16948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -16978,7 +16974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -17004,7 +17000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -17030,7 +17026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -17056,7 +17052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -17082,7 +17078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -17108,7 +17104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -17134,7 +17130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -17160,7 +17156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -17186,7 +17182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -17212,7 +17208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -17238,7 +17234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -17264,7 +17260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -17290,7 +17286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -17316,7 +17312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -17342,7 +17338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -17368,7 +17364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -17394,7 +17390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -17420,7 +17416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -17446,7 +17442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -17472,7 +17468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -17498,7 +17494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -17524,7 +17520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -17550,7 +17546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -17576,7 +17572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -17602,7 +17598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -17628,7 +17624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -17654,7 +17650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -17680,7 +17676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -17706,7 +17702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -17732,7 +17728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -17758,7 +17754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -17784,7 +17780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -17810,7 +17806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -17836,7 +17832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -17862,7 +17858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -17888,7 +17884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -17914,7 +17910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -17940,7 +17936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -17966,7 +17962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -17992,7 +17988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -18018,7 +18014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -18044,7 +18040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -18070,7 +18066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -18096,7 +18092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -18122,7 +18118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -18148,7 +18144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -18174,7 +18170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -18200,7 +18196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -18226,7 +18222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -18252,7 +18248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -18278,7 +18274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -18304,7 +18300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -18330,7 +18326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -18356,7 +18352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -18382,7 +18378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -18408,7 +18404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -18434,7 +18430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -18460,7 +18456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -18486,7 +18482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -18512,7 +18508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -18538,7 +18534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -18564,7 +18560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -18590,7 +18586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -18616,7 +18612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -18642,7 +18638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -18668,7 +18664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -18694,7 +18690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -18720,7 +18716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -18746,7 +18742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -18772,7 +18768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -18798,7 +18794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -18824,7 +18820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -18850,7 +18846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -18876,7 +18872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -18902,7 +18898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -18929,7 +18925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -18956,7 +18952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -18983,7 +18979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -19010,7 +19006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -19037,7 +19033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -19064,7 +19060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -19093,7 +19089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -19122,7 +19118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -19151,7 +19147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -19180,7 +19176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -19209,7 +19205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -19238,7 +19234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -19264,7 +19260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -19290,7 +19286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -19316,7 +19312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -19342,7 +19338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -19368,7 +19364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -19394,7 +19390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -19420,7 +19416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -19446,7 +19442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -19472,7 +19468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -19498,7 +19494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -19524,7 +19520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -19550,7 +19546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -19576,7 +19572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -19602,7 +19598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -19628,7 +19624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -19654,7 +19650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -19680,7 +19676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -19706,7 +19702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -19732,7 +19728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -19758,7 +19754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -19784,7 +19780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -19810,7 +19806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -19836,7 +19832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -19862,7 +19858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>81</v>
       </c>
@@ -19888,7 +19884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>81</v>
       </c>
@@ -19914,7 +19910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>81</v>
       </c>
@@ -19940,7 +19936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>81</v>
       </c>
@@ -19966,7 +19962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>81</v>
       </c>
@@ -19992,7 +19988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>81</v>
       </c>
@@ -20018,7 +20014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>81</v>
       </c>
@@ -20044,7 +20040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>81</v>
       </c>
@@ -20070,7 +20066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>81</v>
       </c>
@@ -20096,7 +20092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>81</v>
       </c>
@@ -20122,7 +20118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>81</v>
       </c>
@@ -20148,7 +20144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>81</v>
       </c>
@@ -20180,30 +20176,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A217" sqref="A50:XFD217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4"/>
-    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -20232,7 +20228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -20261,7 +20257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -20290,7 +20286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -20319,7 +20315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -20348,7 +20344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -20377,7 +20373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -20406,7 +20402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -20435,7 +20431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -20464,7 +20460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -20493,7 +20489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -20522,7 +20518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -20551,7 +20547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -20580,7 +20576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -20609,7 +20605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -20638,7 +20634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -20667,7 +20663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -20696,7 +20692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -20725,7 +20721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -20754,7 +20750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -20783,7 +20779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -20812,7 +20808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -20841,7 +20837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -20870,7 +20866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -20899,7 +20895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -20928,7 +20924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -20957,7 +20953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -20986,7 +20982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -21015,7 +21011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -21044,7 +21040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -21073,7 +21069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -21102,7 +21098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -21131,7 +21127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -21160,7 +21156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -21189,7 +21185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -21218,7 +21214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -21247,7 +21243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -21276,7 +21272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -21305,7 +21301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -21334,7 +21330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -21363,7 +21359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -21392,7 +21388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -21421,7 +21417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -21450,7 +21446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -21479,7 +21475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -21508,7 +21504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -21537,7 +21533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -21566,7 +21562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -21595,7 +21591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -21624,7 +21620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -21653,7 +21649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -21682,7 +21678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -21711,7 +21707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -21740,7 +21736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -21769,7 +21765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -21798,7 +21794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -21827,7 +21823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -21856,7 +21852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -21885,7 +21881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -21914,7 +21910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -21943,7 +21939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -21972,7 +21968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -22001,7 +21997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -22030,7 +22026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -22059,7 +22055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -22088,7 +22084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -22117,7 +22113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -22146,7 +22142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -22175,7 +22171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -22204,7 +22200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -22233,7 +22229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -22262,7 +22258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -22291,7 +22287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -22320,7 +22316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -22349,7 +22345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -22378,7 +22374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -22407,7 +22403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -22436,7 +22432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -22465,7 +22461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -22494,7 +22490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -22523,7 +22519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -22552,7 +22548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -22581,7 +22577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -22610,7 +22606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -22639,7 +22635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -22668,7 +22664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -22697,7 +22693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -22726,7 +22722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -22755,7 +22751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -22784,7 +22780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -22813,7 +22809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -22842,7 +22838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -22871,7 +22867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -22900,7 +22896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -22929,7 +22925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -22958,7 +22954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -22987,7 +22983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -23016,7 +23012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -23045,7 +23041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -23074,7 +23070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -23103,7 +23099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -23132,7 +23128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -23161,7 +23157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -23190,7 +23186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -23219,7 +23215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -23248,7 +23244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -23277,7 +23273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -23306,7 +23302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -23335,7 +23331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -23364,7 +23360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -23393,7 +23389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -23422,7 +23418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -23451,7 +23447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -23480,7 +23476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -23509,7 +23505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -23538,7 +23534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -23567,7 +23563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -23596,7 +23592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -23625,7 +23621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -23654,7 +23650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -23683,7 +23679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -23712,7 +23708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -23741,7 +23737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -23770,7 +23766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -23799,7 +23795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -23828,7 +23824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -23857,7 +23853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -23886,7 +23882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -23915,7 +23911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -23944,7 +23940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -23973,7 +23969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -24002,7 +23998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -24031,7 +24027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -24060,7 +24056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -24089,7 +24085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -24118,7 +24114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -24147,7 +24143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -24176,7 +24172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -24205,7 +24201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -24234,7 +24230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -24263,7 +24259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -24292,7 +24288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -24321,7 +24317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -24350,7 +24346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -24379,7 +24375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -24408,7 +24404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -24437,7 +24433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -24466,7 +24462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -24495,7 +24491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -24524,7 +24520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -24553,7 +24549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -24582,7 +24578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -24611,7 +24607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -24640,7 +24636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -24669,7 +24665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -24698,7 +24694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -24727,7 +24723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -24756,7 +24752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -24785,7 +24781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -24814,7 +24810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -24843,7 +24839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -24872,7 +24868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -24901,7 +24897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -24930,7 +24926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -24959,7 +24955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -24988,7 +24984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -25017,7 +25013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -25046,7 +25042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -25075,7 +25071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -25104,7 +25100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -25133,7 +25129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -25162,7 +25158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -25191,7 +25187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -25220,7 +25216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -25249,7 +25245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -25278,7 +25274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -25307,7 +25303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -25336,7 +25332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -25365,7 +25361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -25394,7 +25390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -25423,7 +25419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -25452,7 +25448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -25486,7 +25482,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -25520,7 +25516,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -25554,7 +25550,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -25588,7 +25584,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -25622,7 +25618,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -25656,7 +25652,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -25690,7 +25686,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -25724,7 +25720,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -25758,7 +25754,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -25792,7 +25788,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -25826,7 +25822,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -25860,7 +25856,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -25891,7 +25887,7 @@
         <v>T0</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -25922,7 +25918,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -25953,7 +25949,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -25984,7 +25980,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -26015,7 +26011,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -26046,7 +26042,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -26077,7 +26073,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -26108,7 +26104,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -26139,7 +26135,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -26170,7 +26166,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -26201,7 +26197,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -26232,7 +26228,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -26261,7 +26257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -26290,7 +26286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -26319,7 +26315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -26348,7 +26344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -26377,7 +26373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -26406,7 +26402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -26435,7 +26431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -26464,7 +26460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -26493,7 +26489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -26522,7 +26518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -26551,7 +26547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -26580,7 +26576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>81</v>
       </c>
@@ -26609,7 +26605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>81</v>
       </c>
@@ -26638,7 +26634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>81</v>
       </c>
@@ -26667,7 +26663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>81</v>
       </c>
@@ -26696,7 +26692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>81</v>
       </c>
@@ -26725,7 +26721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>81</v>
       </c>
@@ -26754,7 +26750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>81</v>
       </c>
@@ -26783,7 +26779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>81</v>
       </c>
@@ -26812,7 +26808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>81</v>
       </c>
@@ -26841,7 +26837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>81</v>
       </c>
@@ -26870,7 +26866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>81</v>
       </c>
@@ -26899,7 +26895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>81</v>
       </c>
@@ -26935,25 +26931,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -26979,7 +26975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -27005,7 +27001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -27031,7 +27027,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -27057,7 +27053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -27083,7 +27079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -27109,7 +27105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -27135,7 +27131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -27162,7 +27158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -27188,7 +27184,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -27214,7 +27210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -27240,7 +27236,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -27266,7 +27262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -27292,7 +27288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -27318,7 +27314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -27344,7 +27340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -27370,7 +27366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -27397,7 +27393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -27423,7 +27419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -27449,9 +27445,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3">
         <v>26</v>
@@ -27483,28 +27479,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -27539,7 +27535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -27574,7 +27570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -27611,7 +27607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -27646,7 +27642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -27681,7 +27677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -27718,7 +27714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -27753,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -27788,7 +27784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -27823,7 +27819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -27858,7 +27854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -27893,7 +27889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -27928,7 +27924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -27963,7 +27959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -27998,7 +27994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -28033,7 +28029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -28068,7 +28064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -28108,7 +28104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -28145,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -28180,7 +28176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darthoma\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B9E51F-6C79-434A-BAE0-92228C348C9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="26805" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6078" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6079" uniqueCount="83">
   <si>
     <t>Code</t>
   </si>
@@ -278,15 +279,18 @@
   <si>
     <t>UNIVERSITY</t>
   </si>
+  <si>
+    <t>Qcpro_Wm2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,32 +1169,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A218" sqref="A218:A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1303,7 +1307,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1364,7 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1417,7 +1421,7 @@
       </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1478,7 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -2986,7 +2990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -3042,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3266,7 +3270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -3602,7 +3606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3770,7 +3774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -4442,7 +4446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -4722,7 +4726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -4834,7 +4838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -5002,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -5898,7 +5902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -5954,7 +5958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -6066,7 +6070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -6346,7 +6350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -6402,7 +6406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -6458,7 +6462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -6626,7 +6630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -6738,7 +6742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -6906,7 +6910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -7074,7 +7078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -7130,7 +7134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -7242,7 +7246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -7354,7 +7358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -7522,7 +7526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -7578,7 +7582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -7746,7 +7750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -7914,7 +7918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -7970,7 +7974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -8082,7 +8086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -8530,7 +8534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -8698,7 +8702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -8810,7 +8814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -8866,7 +8870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -8922,7 +8926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -9034,7 +9038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -9146,7 +9150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -9314,7 +9318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -9594,7 +9598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -9650,7 +9654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -9762,7 +9766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -9986,7 +9990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -10042,7 +10046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -10154,7 +10158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -10378,7 +10382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -10434,7 +10438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -10546,7 +10550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -10602,7 +10606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -10658,7 +10662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -10770,7 +10774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -10826,7 +10830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -10882,7 +10886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -10938,7 +10942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -10994,7 +10998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -11106,7 +11110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -11162,7 +11166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -11218,7 +11222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -11274,7 +11278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -11330,7 +11334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -11394,7 +11398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -11458,7 +11462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -11522,7 +11526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -11586,7 +11590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -11778,7 +11782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -11842,7 +11846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -11906,7 +11910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -11970,7 +11974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -12218,7 +12222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -12278,7 +12282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -12398,7 +12402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -12458,7 +12462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -12518,7 +12522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -12638,7 +12642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -12874,7 +12878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -12930,7 +12934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -12986,7 +12990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -13042,7 +13046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -13098,7 +13102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -13266,7 +13270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -13378,7 +13382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -13434,7 +13438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -13490,7 +13494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18">
       <c r="A218" s="7" t="s">
         <v>81</v>
       </c>
@@ -13546,7 +13550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18">
       <c r="A219" s="7" t="s">
         <v>81</v>
       </c>
@@ -13602,7 +13606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18">
       <c r="A220" s="7" t="s">
         <v>81</v>
       </c>
@@ -13658,7 +13662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18">
       <c r="A221" s="7" t="s">
         <v>81</v>
       </c>
@@ -13714,7 +13718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18">
       <c r="A222" s="7" t="s">
         <v>81</v>
       </c>
@@ -13770,7 +13774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18">
       <c r="A223" s="7" t="s">
         <v>81</v>
       </c>
@@ -13826,7 +13830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18">
       <c r="A224" s="7" t="s">
         <v>81</v>
       </c>
@@ -13882,7 +13886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18">
       <c r="A225" s="7" t="s">
         <v>81</v>
       </c>
@@ -13938,7 +13942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18">
       <c r="A226" s="7" t="s">
         <v>81</v>
       </c>
@@ -13994,7 +13998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18">
       <c r="A227" s="7" t="s">
         <v>81</v>
       </c>
@@ -14050,7 +14054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18">
       <c r="A228" s="7" t="s">
         <v>81</v>
       </c>
@@ -14106,7 +14110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18">
       <c r="A229" s="7" t="s">
         <v>81</v>
       </c>
@@ -14172,27 +14176,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -14218,7 +14222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -14244,7 +14248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -14270,7 +14274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -14296,7 +14300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -14322,7 +14326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -14348,7 +14352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -14374,7 +14378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -14426,7 +14430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -14452,7 +14456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -14478,7 +14482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -14504,7 +14508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -14530,7 +14534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -14556,7 +14560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -14582,7 +14586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -14608,7 +14612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -14634,7 +14638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -14660,7 +14664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -14686,7 +14690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -14712,7 +14716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -14738,7 +14742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -14764,7 +14768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -14790,7 +14794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -14816,7 +14820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -14842,7 +14846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -14868,7 +14872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -14894,7 +14898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -14946,7 +14950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -14972,7 +14976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -14998,7 +15002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -15024,7 +15028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -15050,7 +15054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -15076,7 +15080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -15102,7 +15106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -15128,7 +15132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -15154,7 +15158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -15180,7 +15184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -15206,7 +15210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -15232,7 +15236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -15258,7 +15262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -15284,7 +15288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -15310,7 +15314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -15336,7 +15340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -15362,7 +15366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -15388,7 +15392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -15414,7 +15418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -15440,7 +15444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -15466,7 +15470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -15492,7 +15496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -15518,7 +15522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -15544,7 +15548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -15596,7 +15600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -15622,7 +15626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -15648,7 +15652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -15674,7 +15678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -15700,7 +15704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -15726,7 +15730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -15752,7 +15756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -15778,7 +15782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -15804,7 +15808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -15830,7 +15834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -15856,7 +15860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -15882,7 +15886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -15908,7 +15912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -15934,7 +15938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -15960,7 +15964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -15986,7 +15990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -16012,7 +16016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -16038,7 +16042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -16064,7 +16068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -16090,7 +16094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -16116,7 +16120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -16142,7 +16146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -16168,7 +16172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -16194,7 +16198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -16220,7 +16224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -16246,7 +16250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -16272,7 +16276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -16324,7 +16328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -16350,7 +16354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -16376,7 +16380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -16402,7 +16406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -16428,7 +16432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -16454,7 +16458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -16480,7 +16484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -16506,7 +16510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -16532,7 +16536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -16558,7 +16562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -16584,7 +16588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -16610,7 +16614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -16636,7 +16640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -16662,7 +16666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -16714,7 +16718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -16740,7 +16744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -16766,7 +16770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -16792,7 +16796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -16818,7 +16822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -16844,7 +16848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -16870,7 +16874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -16896,7 +16900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -16922,7 +16926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -16974,7 +16978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -17026,7 +17030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -17052,7 +17056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -17078,7 +17082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -17104,7 +17108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -17130,7 +17134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -17156,7 +17160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -17182,7 +17186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -17208,7 +17212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -17234,7 +17238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -17260,7 +17264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -17286,7 +17290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -17312,7 +17316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -17338,7 +17342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -17364,7 +17368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -17390,7 +17394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -17416,7 +17420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -17442,7 +17446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -17468,7 +17472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -17494,7 +17498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -17520,7 +17524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -17546,7 +17550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -17572,7 +17576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -17598,7 +17602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -17624,7 +17628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -17650,7 +17654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -17676,7 +17680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -17702,7 +17706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -17728,7 +17732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -17754,7 +17758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -17780,7 +17784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -17806,7 +17810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -17832,7 +17836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -17858,7 +17862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -17884,7 +17888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -17910,7 +17914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -17936,7 +17940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -17962,7 +17966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -17988,7 +17992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -18014,7 +18018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -18040,7 +18044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -18066,7 +18070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -18092,7 +18096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -18118,7 +18122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -18144,7 +18148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -18170,7 +18174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -18196,7 +18200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -18222,7 +18226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -18248,7 +18252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -18274,7 +18278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -18300,7 +18304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -18352,7 +18356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -18378,7 +18382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -18404,7 +18408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -18430,7 +18434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -18456,7 +18460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -18482,7 +18486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -18508,7 +18512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -18560,7 +18564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -18586,7 +18590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -18612,7 +18616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -18638,7 +18642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -18664,7 +18668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -18690,7 +18694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -18716,7 +18720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -18742,7 +18746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -18768,7 +18772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -18794,7 +18798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -18820,7 +18824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -18846,7 +18850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -18872,7 +18876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -18898,7 +18902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -18925,7 +18929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -18952,7 +18956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -18979,7 +18983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -19006,7 +19010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -19033,7 +19037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -19089,7 +19093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -19118,7 +19122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -19147,7 +19151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -19176,7 +19180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -19205,7 +19209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -19234,7 +19238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -19260,7 +19264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -19286,7 +19290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -19312,7 +19316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -19338,7 +19342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -19364,7 +19368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -19390,7 +19394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -19416,7 +19420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -19442,7 +19446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -19468,7 +19472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -19494,7 +19498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -19520,7 +19524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -19546,7 +19550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -19572,7 +19576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -19598,7 +19602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -19624,7 +19628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -19650,7 +19654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -19676,7 +19680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -19702,7 +19706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -19728,7 +19732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -19754,7 +19758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -19780,7 +19784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -19806,7 +19810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -19832,7 +19836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -19858,7 +19862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="7" t="s">
         <v>81</v>
       </c>
@@ -19884,7 +19888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="7" t="s">
         <v>81</v>
       </c>
@@ -19910,7 +19914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="7" t="s">
         <v>81</v>
       </c>
@@ -19936,7 +19940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="7" t="s">
         <v>81</v>
       </c>
@@ -19962,7 +19966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="7" t="s">
         <v>81</v>
       </c>
@@ -19988,7 +19992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="7" t="s">
         <v>81</v>
       </c>
@@ -20014,7 +20018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="7" t="s">
         <v>81</v>
       </c>
@@ -20040,7 +20044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="7" t="s">
         <v>81</v>
       </c>
@@ -20066,7 +20070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="7" t="s">
         <v>81</v>
       </c>
@@ -20092,7 +20096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="7" t="s">
         <v>81</v>
       </c>
@@ -20118,7 +20122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="7" t="s">
         <v>81</v>
       </c>
@@ -20144,7 +20148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="7" t="s">
         <v>81</v>
       </c>
@@ -20176,7 +20180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -20186,20 +20190,20 @@
       <selection pane="bottomRight" activeCell="A217" sqref="A50:XFD217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.1640625" style="4"/>
+    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
@@ -20228,7 +20232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -20257,7 +20261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -20286,7 +20290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -20315,7 +20319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -20344,7 +20348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -20373,7 +20377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -20402,7 +20406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -20431,7 +20435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -20460,7 +20464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -20489,7 +20493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -20518,7 +20522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -20547,7 +20551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -20576,7 +20580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -20605,7 +20609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -20634,7 +20638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -20663,7 +20667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -20692,7 +20696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -20721,7 +20725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -20750,7 +20754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -20779,7 +20783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -20808,7 +20812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -20837,7 +20841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -20866,7 +20870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -20895,7 +20899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -20924,7 +20928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -20953,7 +20957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
@@ -20982,7 +20986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -21011,7 +21015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -21040,7 +21044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
@@ -21069,7 +21073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
@@ -21098,7 +21102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>24</v>
       </c>
@@ -21127,7 +21131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
@@ -21156,7 +21160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
@@ -21185,7 +21189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
         <v>24</v>
       </c>
@@ -21214,7 +21218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>24</v>
       </c>
@@ -21243,7 +21247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -21272,7 +21276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -21301,7 +21305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>25</v>
       </c>
@@ -21330,7 +21334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
@@ -21359,7 +21363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
@@ -21388,7 +21392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
@@ -21417,7 +21421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -21446,7 +21450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
@@ -21475,7 +21479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -21504,7 +21508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>25</v>
       </c>
@@ -21533,7 +21537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
@@ -21562,7 +21566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -21591,7 +21595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -21620,7 +21624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -21649,7 +21653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -21678,7 +21682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -21707,7 +21711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -21736,7 +21740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -21765,7 +21769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -21794,7 +21798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
         <v>26</v>
       </c>
@@ -21823,7 +21827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -21852,7 +21856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -21881,7 +21885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -21910,7 +21914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -21939,7 +21943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
         <v>26</v>
       </c>
@@ -21968,7 +21972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
         <v>36</v>
       </c>
@@ -21997,7 +22001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
         <v>36</v>
       </c>
@@ -22026,7 +22030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -22055,7 +22059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
         <v>36</v>
       </c>
@@ -22084,7 +22088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
         <v>36</v>
       </c>
@@ -22113,7 +22117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>36</v>
       </c>
@@ -22142,7 +22146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
         <v>36</v>
       </c>
@@ -22171,7 +22175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="7" t="s">
         <v>36</v>
       </c>
@@ -22200,7 +22204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="7" t="s">
         <v>36</v>
       </c>
@@ -22229,7 +22233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -22258,7 +22262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="7" t="s">
         <v>36</v>
       </c>
@@ -22287,7 +22291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
         <v>36</v>
       </c>
@@ -22316,7 +22320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
         <v>27</v>
       </c>
@@ -22345,7 +22349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
         <v>27</v>
       </c>
@@ -22374,7 +22378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -22403,7 +22407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
         <v>27</v>
       </c>
@@ -22432,7 +22436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
@@ -22461,7 +22465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
         <v>27</v>
       </c>
@@ -22490,7 +22494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
         <v>27</v>
       </c>
@@ -22519,7 +22523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
         <v>27</v>
       </c>
@@ -22548,7 +22552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -22577,7 +22581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
         <v>27</v>
       </c>
@@ -22606,7 +22610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
         <v>27</v>
       </c>
@@ -22635,7 +22639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
         <v>27</v>
       </c>
@@ -22664,7 +22668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
         <v>28</v>
       </c>
@@ -22693,7 +22697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
         <v>28</v>
       </c>
@@ -22722,7 +22726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
         <v>28</v>
       </c>
@@ -22751,7 +22755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
         <v>28</v>
       </c>
@@ -22780,7 +22784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
         <v>28</v>
       </c>
@@ -22809,7 +22813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
         <v>28</v>
       </c>
@@ -22838,7 +22842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
         <v>28</v>
       </c>
@@ -22867,7 +22871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
         <v>28</v>
       </c>
@@ -22896,7 +22900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -22925,7 +22929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
         <v>28</v>
       </c>
@@ -22954,7 +22958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
         <v>28</v>
       </c>
@@ -22983,7 +22987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="7" t="s">
         <v>28</v>
       </c>
@@ -23012,7 +23016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
         <v>29</v>
       </c>
@@ -23041,7 +23045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
         <v>29</v>
       </c>
@@ -23070,7 +23074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
         <v>29</v>
       </c>
@@ -23099,7 +23103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
         <v>29</v>
       </c>
@@ -23128,7 +23132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
         <v>29</v>
       </c>
@@ -23157,7 +23161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
         <v>29</v>
       </c>
@@ -23186,7 +23190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
         <v>29</v>
       </c>
@@ -23215,7 +23219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
         <v>29</v>
       </c>
@@ -23244,7 +23248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
         <v>29</v>
       </c>
@@ -23273,7 +23277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
         <v>29</v>
       </c>
@@ -23302,7 +23306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
         <v>29</v>
       </c>
@@ -23331,7 +23335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
         <v>29</v>
       </c>
@@ -23360,7 +23364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
         <v>30</v>
       </c>
@@ -23389,7 +23393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -23418,7 +23422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
         <v>30</v>
       </c>
@@ -23447,7 +23451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
         <v>30</v>
       </c>
@@ -23476,7 +23480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
         <v>30</v>
       </c>
@@ -23505,7 +23509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
         <v>30</v>
       </c>
@@ -23534,7 +23538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
         <v>30</v>
       </c>
@@ -23563,7 +23567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
         <v>30</v>
       </c>
@@ -23592,7 +23596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
         <v>30</v>
       </c>
@@ -23621,7 +23625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -23650,7 +23654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
         <v>30</v>
       </c>
@@ -23679,7 +23683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
         <v>30</v>
       </c>
@@ -23708,7 +23712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
         <v>31</v>
       </c>
@@ -23737,7 +23741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
         <v>31</v>
       </c>
@@ -23766,7 +23770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
         <v>31</v>
       </c>
@@ -23795,7 +23799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
         <v>31</v>
       </c>
@@ -23824,7 +23828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
         <v>31</v>
       </c>
@@ -23853,7 +23857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
         <v>31</v>
       </c>
@@ -23882,7 +23886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="7" t="s">
         <v>31</v>
       </c>
@@ -23911,7 +23915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="7" t="s">
         <v>31</v>
       </c>
@@ -23940,7 +23944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="7" t="s">
         <v>31</v>
       </c>
@@ -23969,7 +23973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="7" t="s">
         <v>31</v>
       </c>
@@ -23998,7 +24002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="7" t="s">
         <v>31</v>
       </c>
@@ -24027,7 +24031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="7" t="s">
         <v>31</v>
       </c>
@@ -24056,7 +24060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="7" t="s">
         <v>32</v>
       </c>
@@ -24085,7 +24089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="7" t="s">
         <v>32</v>
       </c>
@@ -24114,7 +24118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="7" t="s">
         <v>32</v>
       </c>
@@ -24143,7 +24147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="7" t="s">
         <v>32</v>
       </c>
@@ -24172,7 +24176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="7" t="s">
         <v>32</v>
       </c>
@@ -24201,7 +24205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="7" t="s">
         <v>32</v>
       </c>
@@ -24230,7 +24234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="7" t="s">
         <v>32</v>
       </c>
@@ -24259,7 +24263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="7" t="s">
         <v>32</v>
       </c>
@@ -24288,7 +24292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="7" t="s">
         <v>32</v>
       </c>
@@ -24317,7 +24321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="7" t="s">
         <v>32</v>
       </c>
@@ -24346,7 +24350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="7" t="s">
         <v>32</v>
       </c>
@@ -24375,7 +24379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="7" t="s">
         <v>32</v>
       </c>
@@ -24404,7 +24408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="7" t="s">
         <v>33</v>
       </c>
@@ -24433,7 +24437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -24462,7 +24466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="7" t="s">
         <v>33</v>
       </c>
@@ -24491,7 +24495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="7" t="s">
         <v>33</v>
       </c>
@@ -24520,7 +24524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="7" t="s">
         <v>33</v>
       </c>
@@ -24549,7 +24553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="7" t="s">
         <v>33</v>
       </c>
@@ -24578,7 +24582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="7" t="s">
         <v>33</v>
       </c>
@@ -24607,7 +24611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="7" t="s">
         <v>33</v>
       </c>
@@ -24636,7 +24640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="7" t="s">
         <v>33</v>
       </c>
@@ -24665,7 +24669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="7" t="s">
         <v>33</v>
       </c>
@@ -24694,7 +24698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="7" t="s">
         <v>33</v>
       </c>
@@ -24723,7 +24727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="7" t="s">
         <v>33</v>
       </c>
@@ -24752,7 +24756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="7" t="s">
         <v>34</v>
       </c>
@@ -24781,7 +24785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="7" t="s">
         <v>34</v>
       </c>
@@ -24810,7 +24814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="7" t="s">
         <v>34</v>
       </c>
@@ -24839,7 +24843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="7" t="s">
         <v>34</v>
       </c>
@@ -24868,7 +24872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="7" t="s">
         <v>34</v>
       </c>
@@ -24897,7 +24901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="7" t="s">
         <v>34</v>
       </c>
@@ -24926,7 +24930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="7" t="s">
         <v>34</v>
       </c>
@@ -24955,7 +24959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="7" t="s">
         <v>34</v>
       </c>
@@ -24984,7 +24988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -25013,7 +25017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="7" t="s">
         <v>34</v>
       </c>
@@ -25042,7 +25046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="7" t="s">
         <v>34</v>
       </c>
@@ -25071,7 +25075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="7" t="s">
         <v>34</v>
       </c>
@@ -25100,7 +25104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="7" t="s">
         <v>35</v>
       </c>
@@ -25129,7 +25133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="7" t="s">
         <v>35</v>
       </c>
@@ -25158,7 +25162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="7" t="s">
         <v>35</v>
       </c>
@@ -25187,7 +25191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="7" t="s">
         <v>35</v>
       </c>
@@ -25216,7 +25220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="7" t="s">
         <v>35</v>
       </c>
@@ -25245,7 +25249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="7" t="s">
         <v>35</v>
       </c>
@@ -25274,7 +25278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="7" t="s">
         <v>35</v>
       </c>
@@ -25303,7 +25307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="7" t="s">
         <v>35</v>
       </c>
@@ -25332,7 +25336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="7" t="s">
         <v>35</v>
       </c>
@@ -25361,7 +25365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="7" t="s">
         <v>35</v>
       </c>
@@ -25390,7 +25394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="7" t="s">
         <v>35</v>
       </c>
@@ -25419,7 +25423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="7" t="s">
         <v>35</v>
       </c>
@@ -25448,7 +25452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="7" t="s">
         <v>45</v>
       </c>
@@ -25482,7 +25486,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="7" t="s">
         <v>45</v>
       </c>
@@ -25516,7 +25520,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="7" t="s">
         <v>45</v>
       </c>
@@ -25550,7 +25554,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="7" t="s">
         <v>45</v>
       </c>
@@ -25584,7 +25588,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="7" t="s">
         <v>45</v>
       </c>
@@ -25618,7 +25622,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="7" t="s">
         <v>45</v>
       </c>
@@ -25652,7 +25656,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="7" t="s">
         <v>45</v>
       </c>
@@ -25686,7 +25690,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="7" t="s">
         <v>45</v>
       </c>
@@ -25720,7 +25724,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="7" t="s">
         <v>45</v>
       </c>
@@ -25754,7 +25758,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="7" t="s">
         <v>45</v>
       </c>
@@ -25788,7 +25792,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="7" t="s">
         <v>45</v>
       </c>
@@ -25822,7 +25826,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="7" t="s">
         <v>45</v>
       </c>
@@ -25856,7 +25860,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="7" t="s">
         <v>46</v>
       </c>
@@ -25887,7 +25891,7 @@
         <v>T0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="7" t="s">
         <v>46</v>
       </c>
@@ -25918,7 +25922,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="7" t="s">
         <v>46</v>
       </c>
@@ -25949,7 +25953,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="7" t="s">
         <v>46</v>
       </c>
@@ -25980,7 +25984,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="7" t="s">
         <v>46</v>
       </c>
@@ -26011,7 +26015,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="7" t="s">
         <v>46</v>
       </c>
@@ -26042,7 +26046,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -26073,7 +26077,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="7" t="s">
         <v>46</v>
       </c>
@@ -26104,7 +26108,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="7" t="s">
         <v>46</v>
       </c>
@@ -26135,7 +26139,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="7" t="s">
         <v>46</v>
       </c>
@@ -26166,7 +26170,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
@@ -26197,7 +26201,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="7" t="s">
         <v>46</v>
       </c>
@@ -26228,7 +26232,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="7" t="s">
         <v>47</v>
       </c>
@@ -26257,7 +26261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="7" t="s">
         <v>47</v>
       </c>
@@ -26286,7 +26290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="7" t="s">
         <v>47</v>
       </c>
@@ -26315,7 +26319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="7" t="s">
         <v>47</v>
       </c>
@@ -26344,7 +26348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="7" t="s">
         <v>47</v>
       </c>
@@ -26373,7 +26377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="7" t="s">
         <v>47</v>
       </c>
@@ -26402,7 +26406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="7" t="s">
         <v>47</v>
       </c>
@@ -26431,7 +26435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="7" t="s">
         <v>47</v>
       </c>
@@ -26460,7 +26464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="7" t="s">
         <v>47</v>
       </c>
@@ -26489,7 +26493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="7" t="s">
         <v>47</v>
       </c>
@@ -26518,7 +26522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="7" t="s">
         <v>47</v>
       </c>
@@ -26547,7 +26551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="7" t="s">
         <v>47</v>
       </c>
@@ -26576,7 +26580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="7" t="s">
         <v>81</v>
       </c>
@@ -26605,7 +26609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="7" t="s">
         <v>81</v>
       </c>
@@ -26634,7 +26638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="7" t="s">
         <v>81</v>
       </c>
@@ -26663,7 +26667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="7" t="s">
         <v>81</v>
       </c>
@@ -26692,7 +26696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="7" t="s">
         <v>81</v>
       </c>
@@ -26721,7 +26725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="7" t="s">
         <v>81</v>
       </c>
@@ -26750,7 +26754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="7" t="s">
         <v>81</v>
       </c>
@@ -26779,7 +26783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="7" t="s">
         <v>81</v>
       </c>
@@ -26808,7 +26812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="7" t="s">
         <v>81</v>
       </c>
@@ -26837,7 +26841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="7" t="s">
         <v>81</v>
       </c>
@@ -26866,7 +26870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="7" t="s">
         <v>81</v>
       </c>
@@ -26895,7 +26899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="7" t="s">
         <v>81</v>
       </c>
@@ -26931,25 +26935,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -26975,7 +26979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -27001,7 +27005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -27027,7 +27031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -27053,7 +27057,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -27079,7 +27083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -27105,7 +27109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -27131,7 +27135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -27158,7 +27162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -27184,7 +27188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -27210,7 +27214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -27236,7 +27240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -27262,7 +27266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -27288,7 +27292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -27314,7 +27318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -27340,7 +27344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -27366,7 +27370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -27393,7 +27397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -27419,7 +27423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -27445,7 +27449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -27479,28 +27483,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -27529,13 +27533,16 @@
         <v>21</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -27569,8 +27576,11 @@
       <c r="K2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -27606,8 +27616,11 @@
       <c r="K3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -27641,8 +27654,11 @@
       <c r="K4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -27676,8 +27692,11 @@
       <c r="K5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -27713,8 +27732,11 @@
       <c r="K6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -27748,8 +27770,11 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -27783,8 +27808,11 @@
       <c r="K8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -27813,13 +27841,16 @@
         <v>20</v>
       </c>
       <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>150</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -27853,8 +27884,11 @@
       <c r="K10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -27883,13 +27917,16 @@
         <v>80</v>
       </c>
       <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>16</v>
       </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -27923,8 +27960,11 @@
       <c r="K12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -27958,8 +27998,11 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -27993,8 +28036,11 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -28028,8 +28074,11 @@
       <c r="K15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -28058,13 +28107,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K16" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -28103,8 +28155,11 @@
       <c r="K17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -28140,8 +28195,11 @@
       <c r="K18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
@@ -28175,8 +28233,11 @@
       <c r="K19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -28208,6 +28269,9 @@
         <v>0</v>
       </c>
       <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
         <v>0</v>
       </c>
     </row>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1B28C6-7EAA-DE47-8B0F-6E96015D9B03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00151084-86B8-9246-88BB-6811A663C91E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19340" windowHeight="19640" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2920" windowWidth="19340" windowHeight="16460" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -894,18 +894,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -27043,7 +27032,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -27100,7 +27089,8 @@
         <v>18</v>
       </c>
       <c r="F2" s="12">
-        <v>8.3330000000000002</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G2" s="12">
         <v>30</v>
@@ -27126,7 +27116,8 @@
         <v>18</v>
       </c>
       <c r="F3" s="12">
-        <v>8.3330000000000002</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G3" s="12">
         <v>30</v>
@@ -27152,6 +27143,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="12">
+        <f>36/3.6</f>
         <v>10</v>
       </c>
       <c r="G4" s="12">
@@ -27178,7 +27170,8 @@
         <v>12</v>
       </c>
       <c r="F5" s="12">
-        <v>10.111000000000001</v>
+        <f>36/3.6</f>
+        <v>10</v>
       </c>
       <c r="G5" s="12">
         <v>30</v>
@@ -27204,7 +27197,8 @@
         <v>12</v>
       </c>
       <c r="F6" s="12">
-        <v>8.4440000000000008</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G6" s="12">
         <v>30</v>
@@ -27230,7 +27224,8 @@
         <v>12</v>
       </c>
       <c r="F7" s="12">
-        <v>8.4440000000000008</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G7" s="12">
         <v>30</v>
@@ -27256,6 +27251,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="12">
+        <f>36/3.6</f>
         <v>10</v>
       </c>
       <c r="G8" s="12">
@@ -27276,13 +27272,14 @@
         <v>18</v>
       </c>
       <c r="D9" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5">
         <v>12</v>
       </c>
       <c r="F9" s="12">
-        <v>41.667000000000002</v>
+        <f>10*15/3.6</f>
+        <v>41.666666666666664</v>
       </c>
       <c r="G9" s="12">
         <v>30</v>
@@ -27308,7 +27305,8 @@
         <v>12</v>
       </c>
       <c r="F10" s="12">
-        <v>6.9169999999999998</v>
+        <f>25/3.6</f>
+        <v>6.9444444444444446</v>
       </c>
       <c r="G10" s="12">
         <v>30</v>
@@ -27361,6 +27359,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="12">
+        <f>9*10/3.6</f>
         <v>25</v>
       </c>
       <c r="G12" s="12">
@@ -27381,12 +27380,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5">
         <v>12</v>
       </c>
       <c r="F13" s="12">
+        <f>3.6*10/3.6</f>
         <v>10</v>
       </c>
       <c r="G13" s="12">
@@ -27462,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
@@ -27491,7 +27491,8 @@
         <v>12</v>
       </c>
       <c r="F17" s="12">
-        <v>83.332999999999998</v>
+        <f>20*15/3.6</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="G17" s="12">
         <v>30</v>
@@ -27517,6 +27518,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="12">
+        <f>36/3.6</f>
         <v>10</v>
       </c>
       <c r="G18" s="12">
@@ -27543,6 +27545,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="12">
+        <f>36/3.6</f>
         <v>10</v>
       </c>
       <c r="G19" s="12">
@@ -27569,7 +27572,8 @@
         <v>12</v>
       </c>
       <c r="F20" s="12">
-        <v>8.3330000000000002</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G20" s="12">
         <v>30</v>
@@ -27589,7 +27593,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -27810,6 +27814,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="14">
+        <f>9.3+24</f>
         <v>33.299999999999997</v>
       </c>
       <c r="F6" s="14">
@@ -27845,9 +27850,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E7" s="14">
+        <f>9.3+12</f>
         <v>21.3</v>
       </c>
       <c r="F7" s="14">
@@ -27863,7 +27869,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
@@ -28380,12 +28386,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28559,15 +28562,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28591,17 +28605,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6075" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6076" uniqueCount="80">
   <si>
     <t>Code</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Qcpro_Wm2</t>
+  </si>
+  <si>
+    <t>Occ_m2pax</t>
   </si>
 </sst>
 </file>
@@ -27014,7 +27017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -27334,555 +27337,596 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="13">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13">
         <v>70</v>
       </c>
-      <c r="C2" s="13">
+      <c r="D2" s="13">
         <v>80</v>
       </c>
-      <c r="D2" s="13">
-        <v>8</v>
-      </c>
       <c r="E2" s="13">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13">
         <v>2.7</v>
       </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
       <c r="G2" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
         <v>35</v>
       </c>
-      <c r="I2" s="13">
+      <c r="J2" s="13">
         <v>140</v>
       </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
       <c r="K2" s="11">
         <v>0</v>
       </c>
       <c r="L2" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11">
         <v>70</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="11">
         <v>80</v>
       </c>
-      <c r="D3" s="11">
-        <v>8</v>
-      </c>
       <c r="E3" s="11">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
         <v>2.7</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
         <v>40</v>
       </c>
-      <c r="I3" s="13">
+      <c r="J3" s="13">
         <v>160</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
       <c r="K3" s="11">
         <v>0</v>
       </c>
       <c r="L3" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="13">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13">
         <v>70</v>
       </c>
-      <c r="C4" s="13">
+      <c r="D4" s="13">
         <v>80</v>
       </c>
-      <c r="D4" s="13">
-        <v>8</v>
-      </c>
       <c r="E4" s="13">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13">
         <v>2.7</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>40</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="13">
         <v>160</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
       <c r="K4" s="11">
         <v>0</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="13">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13">
         <v>70</v>
       </c>
-      <c r="C5" s="13">
+      <c r="D5" s="13">
         <v>80</v>
       </c>
-      <c r="D5" s="13">
-        <v>7</v>
-      </c>
       <c r="E5" s="13">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13">
         <v>15.9</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="13">
         <v>60</v>
       </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
       <c r="K5" s="11">
         <v>0</v>
       </c>
       <c r="L5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="13">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
         <v>70</v>
       </c>
-      <c r="C6" s="13">
+      <c r="D6" s="13">
         <v>80</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <f>9.3+24</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <v>30</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
       <c r="K6" s="11">
         <v>0</v>
       </c>
       <c r="L6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="13">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
         <v>70</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>80</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <f>9.3+12</f>
         <v>21.3</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>2</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>30</v>
       </c>
-      <c r="J7" s="11">
-        <v>10</v>
-      </c>
       <c r="K7" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
         <v>70</v>
       </c>
-      <c r="C8" s="13">
+      <c r="D8" s="13">
         <v>80</v>
       </c>
-      <c r="D8" s="13">
+      <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="13">
         <v>6.9</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>15</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="13">
         <v>45</v>
       </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
       <c r="K8" s="11">
         <v>0</v>
       </c>
       <c r="L8" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="13">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13">
         <v>90</v>
       </c>
-      <c r="C9" s="13">
+      <c r="D9" s="13">
         <v>170</v>
       </c>
-      <c r="D9" s="13">
-        <v>10</v>
-      </c>
       <c r="E9" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13">
         <v>10.8</v>
       </c>
-      <c r="F9" s="13">
+      <c r="G9" s="13">
         <v>16.5</v>
       </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
         <v>3</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="13">
         <v>60</v>
       </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
       <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
         <v>150</v>
       </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13">
         <v>70</v>
       </c>
-      <c r="C10" s="13">
+      <c r="D10" s="13">
         <v>80</v>
       </c>
-      <c r="D10" s="13">
+      <c r="E10" s="13">
         <v>4</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="13">
         <v>14</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="13">
         <v>30</v>
       </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
       <c r="K10" s="11">
         <v>0</v>
       </c>
       <c r="L10" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="13">
+        <f>15*0.43+3*0.01+5*0.56</f>
+        <v>9.2800000000000011</v>
+      </c>
+      <c r="C11" s="13">
         <v>70</v>
       </c>
-      <c r="C11" s="13">
+      <c r="D11" s="13">
         <v>80</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E11" s="13">
         <f>0.43*4+0.01*7+0.56*20</f>
         <v>12.990000000000002</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="13">
         <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
         <v>10.998000000000001</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <f>0.43*60+0.01*0+0.56*0</f>
         <v>25.8</v>
       </c>
-      <c r="I11" s="13">
-        <f>H11*4</f>
+      <c r="J11" s="13">
+        <f>I11*4</f>
         <v>103.2</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
       <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
         <v>16</v>
       </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
         <v>120</v>
       </c>
-      <c r="C12" s="13">
+      <c r="D12" s="13">
         <v>280</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="13">
         <v>9.9</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <v>60</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="13">
         <v>180</v>
       </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
       <c r="K12" s="11">
         <v>0</v>
       </c>
       <c r="L12" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
         <v>70</v>
       </c>
-      <c r="C13" s="13">
+      <c r="D13" s="13">
         <v>80</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="13">
         <v>11.3</v>
       </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>120</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="13">
         <v>360</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
       <c r="K13" s="11">
         <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
         <v>70</v>
       </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
         <v>6.6</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
       <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
         <v>100</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
       <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="13">
         <v>0</v>
       </c>
       <c r="K14" s="11">
@@ -27891,36 +27935,39 @@
       <c r="L14" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
         <v>35</v>
       </c>
-      <c r="C15" s="13">
-        <v>0</v>
-      </c>
       <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F15" s="13">
         <v>2.9</v>
       </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
         <v>0</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="13">
         <v>0</v>
       </c>
       <c r="K15" s="11">
@@ -27929,153 +27976,165 @@
       <c r="L15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
         <v>70</v>
       </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
       <c r="D16" s="13">
         <v>0</v>
       </c>
       <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
         <v>5.7</v>
       </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
         <v>100</v>
       </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
       <c r="L16" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="13">
-        <f>B11</f>
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C17" s="13">
         <f>C11</f>
+        <v>70</v>
+      </c>
+      <c r="D17" s="13">
+        <f>D11</f>
         <v>80</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="13">
         <v>20</v>
       </c>
-      <c r="E17" s="13">
+      <c r="F17" s="13">
         <v>16.2</v>
       </c>
-      <c r="F17" s="13">
-        <f>F9</f>
+      <c r="G17" s="13">
+        <f>G9</f>
         <v>16.5</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>3</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13">
         <v>60</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
       <c r="K17" s="11">
         <v>0</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="13">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
         <v>70</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D18" s="13">
         <v>80</v>
       </c>
-      <c r="D18" s="13">
-        <v>7</v>
-      </c>
       <c r="E18" s="13">
+        <v>7</v>
+      </c>
+      <c r="F18" s="13">
         <v>10.8</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>2</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13">
         <v>30</v>
       </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
       <c r="K18" s="11">
         <v>0</v>
       </c>
       <c r="L18" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="13">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13">
         <v>70</v>
       </c>
-      <c r="C19" s="13">
+      <c r="D19" s="13">
         <v>80</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="13">
         <v>2</v>
       </c>
-      <c r="E19" s="13">
+      <c r="F19" s="13">
         <v>6.9</v>
       </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="13">
         <v>0</v>
       </c>
       <c r="K19" s="11">
@@ -28084,42 +28143,48 @@
       <c r="L19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="13">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13">
         <v>70</v>
       </c>
-      <c r="C20" s="13">
+      <c r="D20" s="13">
         <v>80</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="13">
         <v>12.5</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
         <v>2</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J20" s="13">
         <v>30</v>
       </c>
-      <c r="J20" s="11">
-        <v>0</v>
-      </c>
       <c r="K20" s="11">
         <v>0</v>
       </c>
       <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28130,12 +28195,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28309,15 +28371,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28341,17 +28414,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00151084-86B8-9246-88BB-6811A663C91E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2920" windowWidth="19340" windowHeight="16460" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6079" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="84">
   <si>
     <t>Code</t>
   </si>
@@ -282,15 +281,18 @@
   <si>
     <t>Qcpro_Wm2</t>
   </si>
+  <si>
+    <t>Occ_m2pax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1273,22 +1275,22 @@
       <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1403,7 @@
       </c>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1458,7 +1460,7 @@
       </c>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1515,7 +1517,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1574,7 @@
       </c>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -2132,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -2244,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -2412,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -2916,7 +2918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
@@ -3140,7 +3142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
@@ -3364,7 +3366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
@@ -3756,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -3812,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>25</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>25</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>25</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>26</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>26</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>26</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>26</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>26</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>26</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>26</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>26</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>26</v>
       </c>
@@ -4596,7 +4598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>26</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
@@ -4708,7 +4710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>36</v>
       </c>
@@ -4764,7 +4766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>36</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>36</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>36</v>
       </c>
@@ -4988,7 +4990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>36</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>36</v>
       </c>
@@ -5100,7 +5102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>36</v>
       </c>
@@ -5156,7 +5158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>36</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>36</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>36</v>
       </c>
@@ -5324,7 +5326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>36</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>27</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>27</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>27</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>27</v>
       </c>
@@ -5660,7 +5662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>27</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>27</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>27</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>27</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>27</v>
       </c>
@@ -5940,7 +5942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>27</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>27</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>28</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>28</v>
       </c>
@@ -6220,7 +6222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>28</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>28</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>28</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>28</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>28</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>28</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>28</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>28</v>
       </c>
@@ -6724,7 +6726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>29</v>
       </c>
@@ -6836,7 +6838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>29</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>29</v>
       </c>
@@ -6948,7 +6950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>29</v>
       </c>
@@ -7004,7 +7006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>29</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>29</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -7172,7 +7174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>29</v>
       </c>
@@ -7228,7 +7230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>29</v>
       </c>
@@ -7284,7 +7286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>29</v>
       </c>
@@ -7340,7 +7342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>29</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>30</v>
       </c>
@@ -7452,7 +7454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>30</v>
       </c>
@@ -7564,7 +7566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>30</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>30</v>
       </c>
@@ -7676,7 +7678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>30</v>
       </c>
@@ -7732,7 +7734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>30</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>30</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -7900,7 +7902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>30</v>
       </c>
@@ -7956,7 +7958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>30</v>
       </c>
@@ -8012,7 +8014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>30</v>
       </c>
@@ -8068,7 +8070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>31</v>
       </c>
@@ -8124,7 +8126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>31</v>
       </c>
@@ -8180,7 +8182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>31</v>
       </c>
@@ -8236,7 +8238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>31</v>
       </c>
@@ -8292,7 +8294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>31</v>
       </c>
@@ -8348,7 +8350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>31</v>
       </c>
@@ -8404,7 +8406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>31</v>
       </c>
@@ -8460,7 +8462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>31</v>
       </c>
@@ -8516,7 +8518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>31</v>
       </c>
@@ -8572,7 +8574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>31</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>31</v>
       </c>
@@ -8684,7 +8686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>31</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
@@ -8796,7 +8798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -8908,7 +8910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -8964,7 +8966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -9020,7 +9022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>32</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -9188,7 +9190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -9244,7 +9246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -9300,7 +9302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -9356,7 +9358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -9412,7 +9414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>33</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>33</v>
       </c>
@@ -9524,7 +9526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>33</v>
       </c>
@@ -9580,7 +9582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>33</v>
       </c>
@@ -9636,7 +9638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>33</v>
       </c>
@@ -9692,7 +9694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>33</v>
       </c>
@@ -9748,7 +9750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>33</v>
       </c>
@@ -9804,7 +9806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>33</v>
       </c>
@@ -9860,7 +9862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>33</v>
       </c>
@@ -9916,7 +9918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>33</v>
       </c>
@@ -9972,7 +9974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>33</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>33</v>
       </c>
@@ -10084,7 +10086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>34</v>
       </c>
@@ -10140,7 +10142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>34</v>
       </c>
@@ -10196,7 +10198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>34</v>
       </c>
@@ -10252,7 +10254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>34</v>
       </c>
@@ -10308,7 +10310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>34</v>
       </c>
@@ -10364,7 +10366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>34</v>
       </c>
@@ -10420,7 +10422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>34</v>
       </c>
@@ -10476,7 +10478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>34</v>
       </c>
@@ -10532,7 +10534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>34</v>
       </c>
@@ -10588,7 +10590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>34</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>34</v>
       </c>
@@ -10700,7 +10702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>34</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>35</v>
       </c>
@@ -10812,7 +10814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>35</v>
       </c>
@@ -10868,7 +10870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>35</v>
       </c>
@@ -10924,7 +10926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>35</v>
       </c>
@@ -10980,7 +10982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>35</v>
       </c>
@@ -11036,7 +11038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>35</v>
       </c>
@@ -11092,7 +11094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>35</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>35</v>
       </c>
@@ -11204,7 +11206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>35</v>
       </c>
@@ -11260,7 +11262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>35</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>35</v>
       </c>
@@ -11372,7 +11374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>35</v>
       </c>
@@ -11428,7 +11430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>45</v>
       </c>
@@ -11492,7 +11494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>45</v>
       </c>
@@ -11556,7 +11558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>45</v>
       </c>
@@ -11620,7 +11622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>45</v>
       </c>
@@ -11684,7 +11686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>45</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>45</v>
       </c>
@@ -11812,7 +11814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>45</v>
       </c>
@@ -11876,7 +11878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>45</v>
       </c>
@@ -11940,7 +11942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>45</v>
       </c>
@@ -12004,7 +12006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>45</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>45</v>
       </c>
@@ -12132,7 +12134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>45</v>
       </c>
@@ -12196,7 +12198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>46</v>
       </c>
@@ -12256,7 +12258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>46</v>
       </c>
@@ -12316,7 +12318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>46</v>
       </c>
@@ -12376,7 +12378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>46</v>
       </c>
@@ -12436,7 +12438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>46</v>
       </c>
@@ -12496,7 +12498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>46</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>46</v>
       </c>
@@ -12616,7 +12618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>46</v>
       </c>
@@ -12676,7 +12678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>46</v>
       </c>
@@ -12736,7 +12738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
@@ -12796,7 +12798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>46</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>46</v>
       </c>
@@ -12916,7 +12918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>47</v>
       </c>
@@ -12972,7 +12974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>47</v>
       </c>
@@ -13028,7 +13030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>47</v>
       </c>
@@ -13084,7 +13086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>47</v>
       </c>
@@ -13140,7 +13142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>47</v>
       </c>
@@ -13196,7 +13198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>47</v>
       </c>
@@ -13252,7 +13254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>47</v>
       </c>
@@ -13308,7 +13310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>47</v>
       </c>
@@ -13364,7 +13366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>47</v>
       </c>
@@ -13420,7 +13422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>47</v>
       </c>
@@ -13476,7 +13478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>47</v>
       </c>
@@ -13532,7 +13534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>47</v>
       </c>
@@ -13588,7 +13590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>81</v>
       </c>
@@ -13644,7 +13646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>81</v>
       </c>
@@ -13700,7 +13702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>81</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>81</v>
       </c>
@@ -13812,7 +13814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>81</v>
       </c>
@@ -13868,7 +13870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>81</v>
       </c>
@@ -13924,7 +13926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>81</v>
       </c>
@@ -13980,7 +13982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>81</v>
       </c>
@@ -14036,7 +14038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>81</v>
       </c>
@@ -14092,7 +14094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>81</v>
       </c>
@@ -14148,7 +14150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>81</v>
       </c>
@@ -14204,7 +14206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>81</v>
       </c>
@@ -14270,26 +14272,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -14315,7 +14317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -14341,7 +14343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -14367,7 +14369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -14393,7 +14395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -14419,7 +14421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -14445,7 +14447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -14471,7 +14473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -14497,7 +14499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -14523,7 +14525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -14549,7 +14551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -14575,7 +14577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -14601,7 +14603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -14627,7 +14629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -14653,7 +14655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -14679,7 +14681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -14705,7 +14707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -14731,7 +14733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -14757,7 +14759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -14783,7 +14785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -14809,7 +14811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -14835,7 +14837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -14861,7 +14863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -14887,7 +14889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -14913,7 +14915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -14939,7 +14941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -14965,7 +14967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -14991,7 +14993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -15017,7 +15019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -15043,7 +15045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -15069,7 +15071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -15095,7 +15097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -15121,7 +15123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
@@ -15147,7 +15149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -15173,7 +15175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -15225,7 +15227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
@@ -15251,7 +15253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -15277,7 +15279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -15303,7 +15305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -15329,7 +15331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -15355,7 +15357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
@@ -15381,7 +15383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -15407,7 +15409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
@@ -15433,7 +15435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -15459,7 +15461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>25</v>
       </c>
@@ -15485,7 +15487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>25</v>
       </c>
@@ -15511,7 +15513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -15537,7 +15539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>25</v>
       </c>
@@ -15563,7 +15565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>26</v>
       </c>
@@ -15589,7 +15591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
@@ -15615,7 +15617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>26</v>
       </c>
@@ -15641,7 +15643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>26</v>
       </c>
@@ -15667,7 +15669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>26</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>26</v>
       </c>
@@ -15719,7 +15721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>26</v>
       </c>
@@ -15745,7 +15747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>26</v>
       </c>
@@ -15771,7 +15773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>26</v>
       </c>
@@ -15797,7 +15799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>26</v>
       </c>
@@ -15823,7 +15825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>26</v>
       </c>
@@ -15849,7 +15851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
@@ -15875,7 +15877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>36</v>
       </c>
@@ -15901,7 +15903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
@@ -15927,7 +15929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>36</v>
       </c>
@@ -15953,7 +15955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>36</v>
       </c>
@@ -15979,7 +15981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>36</v>
       </c>
@@ -16005,7 +16007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>36</v>
       </c>
@@ -16031,7 +16033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>36</v>
       </c>
@@ -16057,7 +16059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>36</v>
       </c>
@@ -16083,7 +16085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>36</v>
       </c>
@@ -16109,7 +16111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>36</v>
       </c>
@@ -16135,7 +16137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>36</v>
       </c>
@@ -16161,7 +16163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>36</v>
       </c>
@@ -16187,7 +16189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>27</v>
       </c>
@@ -16213,7 +16215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
@@ -16239,7 +16241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>27</v>
       </c>
@@ -16265,7 +16267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>27</v>
       </c>
@@ -16291,7 +16293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>27</v>
       </c>
@@ -16317,7 +16319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>27</v>
       </c>
@@ -16343,7 +16345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>27</v>
       </c>
@@ -16369,7 +16371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>27</v>
       </c>
@@ -16395,7 +16397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>27</v>
       </c>
@@ -16421,7 +16423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>27</v>
       </c>
@@ -16447,7 +16449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>27</v>
       </c>
@@ -16473,7 +16475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>27</v>
       </c>
@@ -16499,7 +16501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
@@ -16525,7 +16527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>28</v>
       </c>
@@ -16551,7 +16553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>28</v>
       </c>
@@ -16577,7 +16579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>28</v>
       </c>
@@ -16603,7 +16605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>28</v>
       </c>
@@ -16629,7 +16631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>28</v>
       </c>
@@ -16655,7 +16657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>28</v>
       </c>
@@ -16681,7 +16683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>28</v>
       </c>
@@ -16707,7 +16709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>28</v>
       </c>
@@ -16733,7 +16735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>28</v>
       </c>
@@ -16759,7 +16761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
@@ -16785,7 +16787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>28</v>
       </c>
@@ -16811,7 +16813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -16837,7 +16839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>29</v>
       </c>
@@ -16863,7 +16865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>29</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>29</v>
       </c>
@@ -16915,7 +16917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>29</v>
       </c>
@@ -16941,7 +16943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>29</v>
       </c>
@@ -16967,7 +16969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>29</v>
       </c>
@@ -16993,7 +16995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -17019,7 +17021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>29</v>
       </c>
@@ -17045,7 +17047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>29</v>
       </c>
@@ -17071,7 +17073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>29</v>
       </c>
@@ -17097,7 +17099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>29</v>
       </c>
@@ -17123,7 +17125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>30</v>
       </c>
@@ -17149,7 +17151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -17175,7 +17177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>30</v>
       </c>
@@ -17201,7 +17203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>30</v>
       </c>
@@ -17227,7 +17229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>30</v>
       </c>
@@ -17253,7 +17255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>30</v>
       </c>
@@ -17279,7 +17281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>30</v>
       </c>
@@ -17305,7 +17307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>30</v>
       </c>
@@ -17331,7 +17333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -17357,7 +17359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>30</v>
       </c>
@@ -17383,7 +17385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>30</v>
       </c>
@@ -17409,7 +17411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>30</v>
       </c>
@@ -17435,7 +17437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>31</v>
       </c>
@@ -17461,7 +17463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>31</v>
       </c>
@@ -17487,7 +17489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>31</v>
       </c>
@@ -17513,7 +17515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>31</v>
       </c>
@@ -17539,7 +17541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>31</v>
       </c>
@@ -17565,7 +17567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>31</v>
       </c>
@@ -17591,7 +17593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>31</v>
       </c>
@@ -17617,7 +17619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>31</v>
       </c>
@@ -17643,7 +17645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>31</v>
       </c>
@@ -17669,7 +17671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>31</v>
       </c>
@@ -17695,7 +17697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>31</v>
       </c>
@@ -17721,7 +17723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>31</v>
       </c>
@@ -17747,7 +17749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
@@ -17773,7 +17775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -17799,7 +17801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -17825,7 +17827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -17851,7 +17853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -17877,7 +17879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
@@ -17903,7 +17905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>32</v>
       </c>
@@ -17929,7 +17931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -17955,7 +17957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -17981,7 +17983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -18007,7 +18009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -18033,7 +18035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -18059,7 +18061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>33</v>
       </c>
@@ -18085,7 +18087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>33</v>
       </c>
@@ -18111,7 +18113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>33</v>
       </c>
@@ -18137,7 +18139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>33</v>
       </c>
@@ -18163,7 +18165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>33</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>33</v>
       </c>
@@ -18215,7 +18217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>33</v>
       </c>
@@ -18241,7 +18243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>33</v>
       </c>
@@ -18267,7 +18269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>33</v>
       </c>
@@ -18293,7 +18295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>33</v>
       </c>
@@ -18319,7 +18321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>33</v>
       </c>
@@ -18345,7 +18347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>33</v>
       </c>
@@ -18371,7 +18373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>34</v>
       </c>
@@ -18397,7 +18399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>34</v>
       </c>
@@ -18423,7 +18425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>34</v>
       </c>
@@ -18449,7 +18451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>34</v>
       </c>
@@ -18475,7 +18477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>34</v>
       </c>
@@ -18501,7 +18503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>34</v>
       </c>
@@ -18527,7 +18529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>34</v>
       </c>
@@ -18553,7 +18555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>34</v>
       </c>
@@ -18579,7 +18581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>34</v>
       </c>
@@ -18605,7 +18607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>34</v>
       </c>
@@ -18631,7 +18633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>34</v>
       </c>
@@ -18657,7 +18659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>34</v>
       </c>
@@ -18683,7 +18685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>35</v>
       </c>
@@ -18709,7 +18711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>35</v>
       </c>
@@ -18735,7 +18737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>35</v>
       </c>
@@ -18761,7 +18763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>35</v>
       </c>
@@ -18787,7 +18789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>35</v>
       </c>
@@ -18813,7 +18815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>35</v>
       </c>
@@ -18839,7 +18841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>35</v>
       </c>
@@ -18865,7 +18867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>35</v>
       </c>
@@ -18891,7 +18893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>35</v>
       </c>
@@ -18917,7 +18919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>35</v>
       </c>
@@ -18943,7 +18945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>35</v>
       </c>
@@ -18969,7 +18971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>35</v>
       </c>
@@ -18995,7 +18997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>45</v>
       </c>
@@ -19022,7 +19024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>45</v>
       </c>
@@ -19049,7 +19051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>45</v>
       </c>
@@ -19076,7 +19078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>45</v>
       </c>
@@ -19103,7 +19105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>45</v>
       </c>
@@ -19130,7 +19132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>45</v>
       </c>
@@ -19157,7 +19159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>45</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>45</v>
       </c>
@@ -19215,7 +19217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>45</v>
       </c>
@@ -19244,7 +19246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>45</v>
       </c>
@@ -19273,7 +19275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>45</v>
       </c>
@@ -19302,7 +19304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>45</v>
       </c>
@@ -19331,7 +19333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>46</v>
       </c>
@@ -19357,7 +19359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>46</v>
       </c>
@@ -19383,7 +19385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>46</v>
       </c>
@@ -19409,7 +19411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>46</v>
       </c>
@@ -19435,7 +19437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>46</v>
       </c>
@@ -19461,7 +19463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>46</v>
       </c>
@@ -19487,7 +19489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>46</v>
       </c>
@@ -19513,7 +19515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>46</v>
       </c>
@@ -19539,7 +19541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>46</v>
       </c>
@@ -19565,7 +19567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
@@ -19591,7 +19593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>46</v>
       </c>
@@ -19617,7 +19619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>46</v>
       </c>
@@ -19643,7 +19645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>47</v>
       </c>
@@ -19669,7 +19671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>47</v>
       </c>
@@ -19695,7 +19697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>47</v>
       </c>
@@ -19721,7 +19723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>47</v>
       </c>
@@ -19747,7 +19749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>47</v>
       </c>
@@ -19773,7 +19775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>47</v>
       </c>
@@ -19799,7 +19801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>47</v>
       </c>
@@ -19825,7 +19827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>47</v>
       </c>
@@ -19851,7 +19853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>47</v>
       </c>
@@ -19877,7 +19879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>47</v>
       </c>
@@ -19903,7 +19905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>47</v>
       </c>
@@ -19929,7 +19931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>47</v>
       </c>
@@ -19955,7 +19957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>81</v>
       </c>
@@ -19981,7 +19983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>81</v>
       </c>
@@ -20007,7 +20009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>81</v>
       </c>
@@ -20033,7 +20035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>81</v>
       </c>
@@ -20059,7 +20061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>81</v>
       </c>
@@ -20085,7 +20087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>81</v>
       </c>
@@ -20111,7 +20113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>81</v>
       </c>
@@ -20137,7 +20139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>81</v>
       </c>
@@ -20163,7 +20165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>81</v>
       </c>
@@ -20189,7 +20191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>81</v>
       </c>
@@ -20215,7 +20217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>81</v>
       </c>
@@ -20241,7 +20243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>81</v>
       </c>
@@ -20273,7 +20275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -20283,20 +20285,20 @@
       <selection pane="bottomRight" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4"/>
-    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -20325,7 +20327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -20354,7 +20356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -20383,7 +20385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -20412,7 +20414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -20441,7 +20443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -20470,7 +20472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -20499,7 +20501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -20528,7 +20530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -20557,7 +20559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -20586,7 +20588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -20615,7 +20617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -20644,7 +20646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -20673,7 +20675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -20702,7 +20704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -20731,7 +20733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -20760,7 +20762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -20789,7 +20791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -20818,7 +20820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -20847,7 +20849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -20876,7 +20878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -20905,7 +20907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -20963,7 +20965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -20992,7 +20994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -21021,7 +21023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -21050,7 +21052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -21079,7 +21081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -21108,7 +21110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -21137,7 +21139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
@@ -21166,7 +21168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -21195,7 +21197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -21224,7 +21226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>24</v>
       </c>
@@ -21253,7 +21255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -21282,7 +21284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
@@ -21311,7 +21313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -21340,7 +21342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
@@ -21369,7 +21371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -21398,7 +21400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -21427,7 +21429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -21456,7 +21458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -21485,7 +21487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
@@ -21514,7 +21516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -21543,7 +21545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
@@ -21572,7 +21574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -21601,7 +21603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>25</v>
       </c>
@@ -21630,7 +21632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>25</v>
       </c>
@@ -21659,7 +21661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -21688,7 +21690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>25</v>
       </c>
@@ -21717,7 +21719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>26</v>
       </c>
@@ -21746,7 +21748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>26</v>
       </c>
@@ -21775,7 +21777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>26</v>
       </c>
@@ -21804,7 +21806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>26</v>
       </c>
@@ -21833,7 +21835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>26</v>
       </c>
@@ -21862,7 +21864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>26</v>
       </c>
@@ -21891,7 +21893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>26</v>
       </c>
@@ -21920,7 +21922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>26</v>
       </c>
@@ -21949,7 +21951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>26</v>
       </c>
@@ -21978,7 +21980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>26</v>
       </c>
@@ -22007,7 +22009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>26</v>
       </c>
@@ -22036,7 +22038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
@@ -22065,7 +22067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>36</v>
       </c>
@@ -22094,7 +22096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
@@ -22123,7 +22125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>36</v>
       </c>
@@ -22152,7 +22154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>36</v>
       </c>
@@ -22181,7 +22183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>36</v>
       </c>
@@ -22210,7 +22212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>36</v>
       </c>
@@ -22239,7 +22241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>36</v>
       </c>
@@ -22268,7 +22270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>36</v>
       </c>
@@ -22297,7 +22299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>36</v>
       </c>
@@ -22326,7 +22328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>36</v>
       </c>
@@ -22355,7 +22357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>36</v>
       </c>
@@ -22384,7 +22386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>36</v>
       </c>
@@ -22413,7 +22415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>27</v>
       </c>
@@ -22442,7 +22444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
@@ -22471,7 +22473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>27</v>
       </c>
@@ -22500,7 +22502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>27</v>
       </c>
@@ -22529,7 +22531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>27</v>
       </c>
@@ -22558,7 +22560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>27</v>
       </c>
@@ -22587,7 +22589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>27</v>
       </c>
@@ -22616,7 +22618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>27</v>
       </c>
@@ -22645,7 +22647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>27</v>
       </c>
@@ -22674,7 +22676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>27</v>
       </c>
@@ -22703,7 +22705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>27</v>
       </c>
@@ -22732,7 +22734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>27</v>
       </c>
@@ -22761,7 +22763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
@@ -22790,7 +22792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>28</v>
       </c>
@@ -22819,7 +22821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>28</v>
       </c>
@@ -22848,7 +22850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>28</v>
       </c>
@@ -22877,7 +22879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>28</v>
       </c>
@@ -22906,7 +22908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>28</v>
       </c>
@@ -22935,7 +22937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>28</v>
       </c>
@@ -22964,7 +22966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>28</v>
       </c>
@@ -22993,7 +22995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>28</v>
       </c>
@@ -23022,7 +23024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>28</v>
       </c>
@@ -23051,7 +23053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>28</v>
       </c>
@@ -23080,7 +23082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>28</v>
       </c>
@@ -23109,7 +23111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -23138,7 +23140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>29</v>
       </c>
@@ -23167,7 +23169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>29</v>
       </c>
@@ -23196,7 +23198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>29</v>
       </c>
@@ -23225,7 +23227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>29</v>
       </c>
@@ -23254,7 +23256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>29</v>
       </c>
@@ -23283,7 +23285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>29</v>
       </c>
@@ -23312,7 +23314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -23341,7 +23343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>29</v>
       </c>
@@ -23370,7 +23372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>29</v>
       </c>
@@ -23399,7 +23401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>29</v>
       </c>
@@ -23428,7 +23430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>29</v>
       </c>
@@ -23457,7 +23459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>30</v>
       </c>
@@ -23486,7 +23488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -23515,7 +23517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>30</v>
       </c>
@@ -23544,7 +23546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>30</v>
       </c>
@@ -23573,7 +23575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>30</v>
       </c>
@@ -23602,7 +23604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>30</v>
       </c>
@@ -23631,7 +23633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>30</v>
       </c>
@@ -23660,7 +23662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>30</v>
       </c>
@@ -23689,7 +23691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -23718,7 +23720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>30</v>
       </c>
@@ -23747,7 +23749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>30</v>
       </c>
@@ -23776,7 +23778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>30</v>
       </c>
@@ -23805,7 +23807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>31</v>
       </c>
@@ -23834,7 +23836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>31</v>
       </c>
@@ -23863,7 +23865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>31</v>
       </c>
@@ -23892,7 +23894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>31</v>
       </c>
@@ -23921,7 +23923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>31</v>
       </c>
@@ -23950,7 +23952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>31</v>
       </c>
@@ -23979,7 +23981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>31</v>
       </c>
@@ -24008,7 +24010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>31</v>
       </c>
@@ -24037,7 +24039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>31</v>
       </c>
@@ -24066,7 +24068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>31</v>
       </c>
@@ -24095,7 +24097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>31</v>
       </c>
@@ -24124,7 +24126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>31</v>
       </c>
@@ -24153,7 +24155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
@@ -24182,7 +24184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>32</v>
       </c>
@@ -24211,7 +24213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>32</v>
       </c>
@@ -24240,7 +24242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>32</v>
       </c>
@@ -24269,7 +24271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -24298,7 +24300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
@@ -24327,7 +24329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>32</v>
       </c>
@@ -24356,7 +24358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -24385,7 +24387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>32</v>
       </c>
@@ -24414,7 +24416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>32</v>
       </c>
@@ -24443,7 +24445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>32</v>
       </c>
@@ -24472,7 +24474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
@@ -24501,7 +24503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>33</v>
       </c>
@@ -24530,7 +24532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>33</v>
       </c>
@@ -24559,7 +24561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>33</v>
       </c>
@@ -24588,7 +24590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>33</v>
       </c>
@@ -24617,7 +24619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>33</v>
       </c>
@@ -24646,7 +24648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>33</v>
       </c>
@@ -24675,7 +24677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>33</v>
       </c>
@@ -24704,7 +24706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>33</v>
       </c>
@@ -24733,7 +24735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>33</v>
       </c>
@@ -24762,7 +24764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>33</v>
       </c>
@@ -24791,7 +24793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>33</v>
       </c>
@@ -24820,7 +24822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>33</v>
       </c>
@@ -24849,7 +24851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>34</v>
       </c>
@@ -24878,7 +24880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>34</v>
       </c>
@@ -24907,7 +24909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>34</v>
       </c>
@@ -24936,7 +24938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>34</v>
       </c>
@@ -24965,7 +24967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>34</v>
       </c>
@@ -24994,7 +24996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>34</v>
       </c>
@@ -25023,7 +25025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>34</v>
       </c>
@@ -25052,7 +25054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>34</v>
       </c>
@@ -25081,7 +25083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>34</v>
       </c>
@@ -25110,7 +25112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>34</v>
       </c>
@@ -25139,7 +25141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>34</v>
       </c>
@@ -25168,7 +25170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>34</v>
       </c>
@@ -25197,7 +25199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>35</v>
       </c>
@@ -25226,7 +25228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>35</v>
       </c>
@@ -25255,7 +25257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>35</v>
       </c>
@@ -25284,7 +25286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>35</v>
       </c>
@@ -25313,7 +25315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>35</v>
       </c>
@@ -25342,7 +25344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>35</v>
       </c>
@@ -25371,7 +25373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>35</v>
       </c>
@@ -25400,7 +25402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>35</v>
       </c>
@@ -25429,7 +25431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>35</v>
       </c>
@@ -25458,7 +25460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>35</v>
       </c>
@@ -25487,7 +25489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>35</v>
       </c>
@@ -25516,7 +25518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>35</v>
       </c>
@@ -25545,7 +25547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>45</v>
       </c>
@@ -25579,7 +25581,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>45</v>
       </c>
@@ -25613,7 +25615,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>45</v>
       </c>
@@ -25647,7 +25649,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>45</v>
       </c>
@@ -25681,7 +25683,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>45</v>
       </c>
@@ -25715,7 +25717,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>45</v>
       </c>
@@ -25749,7 +25751,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>45</v>
       </c>
@@ -25783,7 +25785,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>45</v>
       </c>
@@ -25817,7 +25819,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>45</v>
       </c>
@@ -25851,7 +25853,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>45</v>
       </c>
@@ -25885,7 +25887,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>45</v>
       </c>
@@ -25919,7 +25921,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>45</v>
       </c>
@@ -25953,7 +25955,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>46</v>
       </c>
@@ -25984,7 +25986,7 @@
         <v>T0</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>46</v>
       </c>
@@ -26015,7 +26017,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>46</v>
       </c>
@@ -26046,7 +26048,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>46</v>
       </c>
@@ -26077,7 +26079,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>46</v>
       </c>
@@ -26108,7 +26110,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>46</v>
       </c>
@@ -26139,7 +26141,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>46</v>
       </c>
@@ -26170,7 +26172,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>46</v>
       </c>
@@ -26201,7 +26203,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>46</v>
       </c>
@@ -26232,7 +26234,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
@@ -26263,7 +26265,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>46</v>
       </c>
@@ -26294,7 +26296,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>46</v>
       </c>
@@ -26325,7 +26327,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>47</v>
       </c>
@@ -26354,7 +26356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>47</v>
       </c>
@@ -26383,7 +26385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>47</v>
       </c>
@@ -26412,7 +26414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>47</v>
       </c>
@@ -26441,7 +26443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>47</v>
       </c>
@@ -26470,7 +26472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>47</v>
       </c>
@@ -26499,7 +26501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>47</v>
       </c>
@@ -26528,7 +26530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>47</v>
       </c>
@@ -26557,7 +26559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>47</v>
       </c>
@@ -26586,7 +26588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>47</v>
       </c>
@@ -26615,7 +26617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>47</v>
       </c>
@@ -26644,7 +26646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>47</v>
       </c>
@@ -26673,7 +26675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>81</v>
       </c>
@@ -26702,7 +26704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>81</v>
       </c>
@@ -26731,7 +26733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>81</v>
       </c>
@@ -26760,7 +26762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>81</v>
       </c>
@@ -26789,7 +26791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>81</v>
       </c>
@@ -26818,7 +26820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>81</v>
       </c>
@@ -26847,7 +26849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>81</v>
       </c>
@@ -26876,7 +26878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>81</v>
       </c>
@@ -26905,7 +26907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>81</v>
       </c>
@@ -26934,7 +26936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>81</v>
       </c>
@@ -26963,7 +26965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>81</v>
       </c>
@@ -26992,7 +26994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>81</v>
       </c>
@@ -27028,25 +27030,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -27072,7 +27074,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -27099,7 +27101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -27126,7 +27128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -27153,7 +27155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -27180,7 +27182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -27207,7 +27209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -27234,7 +27236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -27261,7 +27263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -27288,7 +27290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -27315,7 +27317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -27342,7 +27344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -27369,7 +27371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -27396,7 +27398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -27422,7 +27424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -27448,7 +27450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -27474,7 +27476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -27501,7 +27503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
@@ -27528,7 +27530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -27555,7 +27557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -27589,556 +27591,597 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="14">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14">
         <v>70</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D2" s="14">
         <v>80</v>
       </c>
-      <c r="D2" s="14">
-        <v>8</v>
-      </c>
       <c r="E2" s="14">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14">
         <v>2.7</v>
       </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
       <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
         <v>35</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>140</v>
       </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
       <c r="K2" s="12">
         <v>0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12">
         <v>70</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="12">
         <v>80</v>
       </c>
-      <c r="D3" s="12">
-        <v>8</v>
-      </c>
       <c r="E3" s="12">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12">
         <v>2.7</v>
       </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
         <v>40</v>
       </c>
-      <c r="I3" s="14">
+      <c r="J3" s="14">
         <v>160</v>
       </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
       <c r="K3" s="12">
         <v>0</v>
       </c>
       <c r="L3" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="14">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14">
         <v>70</v>
       </c>
-      <c r="C4" s="14">
+      <c r="D4" s="14">
         <v>80</v>
       </c>
-      <c r="D4" s="14">
-        <v>8</v>
-      </c>
       <c r="E4" s="14">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14">
         <v>2.7</v>
       </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
         <v>40</v>
       </c>
-      <c r="I4" s="14">
+      <c r="J4" s="14">
         <v>160</v>
       </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
       <c r="K4" s="12">
         <v>0</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="14">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14">
         <v>70</v>
       </c>
-      <c r="C5" s="14">
+      <c r="D5" s="14">
         <v>80</v>
       </c>
-      <c r="D5" s="14">
-        <v>7</v>
-      </c>
       <c r="E5" s="14">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14">
         <v>15.9</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
         <v>3</v>
       </c>
-      <c r="I5" s="14">
+      <c r="J5" s="14">
         <v>60</v>
       </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
       <c r="K5" s="12">
         <v>0</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="14">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14">
         <v>70</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="14">
         <v>80</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
         <f>9.3+24</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
         <v>2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="J6" s="14">
         <v>30</v>
       </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
       <c r="K6" s="12">
         <v>0</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="14">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14">
         <v>70</v>
       </c>
-      <c r="C7" s="14">
+      <c r="D7" s="14">
         <v>80</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="F7" s="14">
         <f>9.3+12</f>
         <v>21.3</v>
       </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <v>2</v>
       </c>
-      <c r="I7" s="14">
+      <c r="J7" s="14">
         <v>30</v>
       </c>
-      <c r="J7" s="12">
-        <v>10</v>
-      </c>
       <c r="K7" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14">
         <v>70</v>
       </c>
-      <c r="C8" s="14">
+      <c r="D8" s="14">
         <v>80</v>
       </c>
-      <c r="D8" s="14">
+      <c r="E8" s="14">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="14">
         <v>6.9</v>
       </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>15</v>
       </c>
-      <c r="I8" s="14">
+      <c r="J8" s="14">
         <v>45</v>
       </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
       <c r="K8" s="12">
         <v>0</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="14">
+        <v>15</v>
+      </c>
+      <c r="C9" s="14">
         <v>90</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="14">
         <v>170</v>
       </c>
-      <c r="D9" s="14">
-        <v>10</v>
-      </c>
       <c r="E9" s="14">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
         <v>10.8</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="14">
         <v>16.5</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="14">
+      <c r="J9" s="14">
         <v>60</v>
       </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
       <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
         <v>150</v>
       </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14">
         <v>70</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="14">
         <v>80</v>
       </c>
-      <c r="D10" s="14">
+      <c r="E10" s="14">
         <v>4</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F10" s="14">
         <v>14</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
         <v>2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J10" s="14">
         <v>30</v>
       </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
       <c r="K10" s="12">
         <v>0</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="14">
+        <f>15*0.43+3*0.01+5*0.56</f>
+        <v>9.2800000000000011</v>
+      </c>
+      <c r="C11" s="14">
         <v>70</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="14">
         <v>80</v>
       </c>
-      <c r="D11" s="14">
+      <c r="E11" s="14">
         <f>0.43*4+0.01*7+0.56*20</f>
         <v>12.990000000000002</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F11" s="14">
         <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
         <v>10.998000000000001</v>
       </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
         <f>0.43*60+0.01*0+0.56*0</f>
         <v>25.8</v>
       </c>
-      <c r="I11" s="14">
-        <f>H11*4</f>
+      <c r="J11" s="14">
+        <f>I11*4</f>
         <v>103.2</v>
       </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
       <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
         <v>16</v>
       </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14">
         <v>120</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D12" s="14">
         <v>280</v>
       </c>
-      <c r="D12" s="14">
+      <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>9.9</v>
       </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
         <v>60</v>
       </c>
-      <c r="I12" s="14">
+      <c r="J12" s="14">
         <v>180</v>
       </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
       <c r="K12" s="12">
         <v>0</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="14">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
         <v>70</v>
       </c>
-      <c r="C13" s="14">
+      <c r="D13" s="14">
         <v>80</v>
       </c>
-      <c r="D13" s="14">
+      <c r="E13" s="14">
         <v>2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F13" s="14">
         <v>11.3</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
         <v>120</v>
       </c>
-      <c r="I13" s="14">
+      <c r="J13" s="14">
         <v>360</v>
       </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
       <c r="K13" s="12">
         <v>0</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
         <v>70</v>
       </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
         <v>6.6</v>
       </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
       <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
         <v>100</v>
       </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
       <c r="I14" s="14">
         <v>0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
         <v>0</v>
       </c>
       <c r="K14" s="12">
@@ -28147,36 +28190,39 @@
       <c r="L14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
         <v>35</v>
       </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
       <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
         <v>1</v>
       </c>
-      <c r="E15" s="14">
+      <c r="F15" s="14">
         <v>2.9</v>
       </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
         <v>0</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="14">
         <v>0</v>
       </c>
       <c r="K15" s="12">
@@ -28185,153 +28231,165 @@
       <c r="L15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
         <v>70</v>
       </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
       <c r="D16" s="14">
         <v>0</v>
       </c>
       <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
         <v>5.7</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
         <v>0</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
         <v>100</v>
       </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
       <c r="L16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="14">
-        <f>B11</f>
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C17" s="14">
         <f>C11</f>
+        <v>70</v>
+      </c>
+      <c r="D17" s="14">
+        <f>D11</f>
         <v>80</v>
       </c>
-      <c r="D17" s="14">
+      <c r="E17" s="14">
         <v>20</v>
       </c>
-      <c r="E17" s="14">
+      <c r="F17" s="14">
         <v>16.2</v>
       </c>
-      <c r="F17" s="14">
-        <f>F9</f>
+      <c r="G17" s="14">
+        <f>G9</f>
         <v>16.5</v>
       </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="14">
+      <c r="J17" s="14">
         <v>60</v>
       </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
       <c r="K17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="14">
         <v>70</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D18" s="14">
         <v>80</v>
       </c>
-      <c r="D18" s="14">
-        <v>7</v>
-      </c>
       <c r="E18" s="14">
+        <v>7</v>
+      </c>
+      <c r="F18" s="14">
         <v>10.8</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
         <v>2</v>
       </c>
-      <c r="I18" s="14">
+      <c r="J18" s="14">
         <v>30</v>
       </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
       <c r="K18" s="12">
         <v>0</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="14">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14">
         <v>70</v>
       </c>
-      <c r="C19" s="14">
+      <c r="D19" s="14">
         <v>80</v>
       </c>
-      <c r="D19" s="14">
+      <c r="E19" s="14">
         <v>2</v>
       </c>
-      <c r="E19" s="14">
+      <c r="F19" s="14">
         <v>6.9</v>
       </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14">
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
         <v>0</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="14">
         <v>0</v>
       </c>
       <c r="K19" s="12">
@@ -28340,42 +28398,48 @@
       <c r="L19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="14">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14">
         <v>70</v>
       </c>
-      <c r="C20" s="14">
+      <c r="D20" s="14">
         <v>80</v>
       </c>
-      <c r="D20" s="14">
+      <c r="E20" s="14">
         <v>4</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="14">
         <v>12.5</v>
       </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
         <v>2</v>
       </c>
-      <c r="I20" s="14">
+      <c r="J20" s="14">
         <v>30</v>
       </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
       <c r="K20" s="12">
         <v>0</v>
       </c>
       <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
         <v>0</v>
       </c>
     </row>
@@ -28386,9 +28450,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28562,26 +28629,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28605,9 +28661,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -838,9 +838,6 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -849,6 +846,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1268,11 +1268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1368,7 @@
       <c r="G2" s="3">
         <v>0.82</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="14">
         <v>0</v>
       </c>
       <c r="I2" s="3">
@@ -1425,7 +1425,7 @@
       <c r="G3" s="3">
         <v>0.82</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -1482,7 +1482,7 @@
       <c r="G4" s="3">
         <v>0.82</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="14">
         <v>0</v>
       </c>
       <c r="I4" s="3">
@@ -1539,7 +1539,7 @@
       <c r="G5" s="3">
         <v>0.82</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
       <c r="I5" s="3">
@@ -1596,7 +1596,7 @@
       <c r="G6" s="3">
         <v>0.82</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="14">
         <v>0</v>
       </c>
       <c r="I6" s="3">
@@ -1652,7 +1652,7 @@
       <c r="G7" s="3">
         <v>0.82</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
       <c r="I7" s="3">
@@ -1708,7 +1708,7 @@
       <c r="G8" s="3">
         <v>0.82</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
       <c r="I8" s="3">
@@ -1764,7 +1764,7 @@
       <c r="G9" s="3">
         <v>0.82</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -1820,7 +1820,7 @@
       <c r="G10" s="3">
         <v>0.82</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
       <c r="I10" s="3">
@@ -1876,7 +1876,7 @@
       <c r="G11" s="3">
         <v>0.82</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <v>0</v>
       </c>
       <c r="I11" s="3">
@@ -1932,7 +1932,7 @@
       <c r="G12" s="3">
         <v>0.82</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="14">
         <v>0</v>
       </c>
       <c r="I12" s="3">
@@ -1988,7 +1988,7 @@
       <c r="G13" s="3">
         <v>0.82</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="14">
         <v>0</v>
       </c>
       <c r="I13" s="3">
@@ -2044,7 +2044,7 @@
       <c r="G14" s="3">
         <v>0.85</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="14">
         <v>0</v>
       </c>
       <c r="I14" s="3">
@@ -2100,7 +2100,7 @@
       <c r="G15" s="3">
         <v>0.85</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="14">
         <v>0</v>
       </c>
       <c r="I15" s="3">
@@ -2156,7 +2156,7 @@
       <c r="G16" s="3">
         <v>0.85</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="14">
         <v>0</v>
       </c>
       <c r="I16" s="3">
@@ -2212,7 +2212,7 @@
       <c r="G17" s="3">
         <v>0.85</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="14">
         <v>0</v>
       </c>
       <c r="I17" s="3">
@@ -2268,7 +2268,7 @@
       <c r="G18" s="3">
         <v>0.85</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="14">
         <v>0</v>
       </c>
       <c r="I18" s="3">
@@ -2324,7 +2324,7 @@
       <c r="G19" s="3">
         <v>0.85</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="14">
         <v>0</v>
       </c>
       <c r="I19" s="3">
@@ -2380,7 +2380,7 @@
       <c r="G20" s="3">
         <v>0.85</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="14">
         <v>0</v>
       </c>
       <c r="I20" s="3">
@@ -2436,7 +2436,7 @@
       <c r="G21" s="3">
         <v>0.85</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="14">
         <v>0</v>
       </c>
       <c r="I21" s="3">
@@ -2492,7 +2492,7 @@
       <c r="G22" s="3">
         <v>0.85</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="14">
         <v>0</v>
       </c>
       <c r="I22" s="3">
@@ -2548,7 +2548,7 @@
       <c r="G23" s="3">
         <v>0.85</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="14">
         <v>0</v>
       </c>
       <c r="I23" s="3">
@@ -2604,7 +2604,7 @@
       <c r="G24" s="3">
         <v>0.85</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="14">
         <v>0</v>
       </c>
       <c r="I24" s="3">
@@ -2660,7 +2660,7 @@
       <c r="G25" s="3">
         <v>0.85</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="14">
         <v>0</v>
       </c>
       <c r="I25" s="3">
@@ -2716,7 +2716,7 @@
       <c r="G26" s="3">
         <v>0.9</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="14">
         <v>0</v>
       </c>
       <c r="I26" s="3">
@@ -2772,7 +2772,7 @@
       <c r="G27" s="3">
         <v>0.9</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="14">
         <v>0</v>
       </c>
       <c r="I27" s="3">
@@ -2828,7 +2828,7 @@
       <c r="G28" s="3">
         <v>0.9</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="14">
         <v>0</v>
       </c>
       <c r="I28" s="3">
@@ -2884,7 +2884,7 @@
       <c r="G29" s="3">
         <v>0.9</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="14">
         <v>0</v>
       </c>
       <c r="I29" s="3">
@@ -2940,7 +2940,7 @@
       <c r="G30" s="3">
         <v>0.9</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="14">
         <v>0</v>
       </c>
       <c r="I30" s="3">
@@ -2996,7 +2996,7 @@
       <c r="G31" s="3">
         <v>0.9</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="14">
         <v>0</v>
       </c>
       <c r="I31" s="3">
@@ -3052,7 +3052,7 @@
       <c r="G32" s="3">
         <v>0.9</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="14">
         <v>0</v>
       </c>
       <c r="I32" s="3">
@@ -3108,7 +3108,7 @@
       <c r="G33" s="3">
         <v>0.9</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="14">
         <v>0</v>
       </c>
       <c r="I33" s="3">
@@ -3164,7 +3164,7 @@
       <c r="G34" s="3">
         <v>0.9</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="14">
         <v>0</v>
       </c>
       <c r="I34" s="3">
@@ -3220,7 +3220,7 @@
       <c r="G35" s="3">
         <v>0.9</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="14">
         <v>0</v>
       </c>
       <c r="I35" s="3">
@@ -3276,7 +3276,7 @@
       <c r="G36" s="3">
         <v>0.9</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="14">
         <v>0</v>
       </c>
       <c r="I36" s="3">
@@ -3332,7 +3332,7 @@
       <c r="G37" s="3">
         <v>0.9</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="14">
         <v>0</v>
       </c>
       <c r="I37" s="3">
@@ -3388,7 +3388,7 @@
       <c r="G38" s="3">
         <v>0.9</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="14">
         <v>0</v>
       </c>
       <c r="I38" s="3">
@@ -3444,7 +3444,7 @@
       <c r="G39" s="3">
         <v>0.9</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="14">
         <v>0</v>
       </c>
       <c r="I39" s="3">
@@ -3500,7 +3500,7 @@
       <c r="G40" s="3">
         <v>0.9</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="14">
         <v>0</v>
       </c>
       <c r="I40" s="3">
@@ -3556,7 +3556,7 @@
       <c r="G41" s="3">
         <v>0.9</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="14">
         <v>0</v>
       </c>
       <c r="I41" s="3">
@@ -3612,7 +3612,7 @@
       <c r="G42" s="3">
         <v>0.9</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="14">
         <v>0</v>
       </c>
       <c r="I42" s="3">
@@ -3668,7 +3668,7 @@
       <c r="G43" s="3">
         <v>0.9</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="14">
         <v>0</v>
       </c>
       <c r="I43" s="3">
@@ -3724,7 +3724,7 @@
       <c r="G44" s="3">
         <v>0.9</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="14">
         <v>0</v>
       </c>
       <c r="I44" s="3">
@@ -3780,7 +3780,7 @@
       <c r="G45" s="3">
         <v>0.9</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="14">
         <v>0</v>
       </c>
       <c r="I45" s="3">
@@ -3836,7 +3836,7 @@
       <c r="G46" s="3">
         <v>0.9</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="14">
         <v>0</v>
       </c>
       <c r="I46" s="3">
@@ -3892,7 +3892,7 @@
       <c r="G47" s="3">
         <v>0.9</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="14">
         <v>0</v>
       </c>
       <c r="I47" s="3">
@@ -3948,7 +3948,7 @@
       <c r="G48" s="3">
         <v>0.9</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="14">
         <v>0</v>
       </c>
       <c r="I48" s="3">
@@ -4004,7 +4004,7 @@
       <c r="G49" s="3">
         <v>0.9</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="14">
         <v>0</v>
       </c>
       <c r="I49" s="3">
@@ -4060,7 +4060,7 @@
       <c r="G50" s="3">
         <v>0.9</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="14">
         <v>0</v>
       </c>
       <c r="I50" s="3">
@@ -4116,7 +4116,7 @@
       <c r="G51" s="3">
         <v>0.9</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="14">
         <v>0</v>
       </c>
       <c r="I51" s="3">
@@ -4172,7 +4172,7 @@
       <c r="G52" s="3">
         <v>0.9</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="14">
         <v>0</v>
       </c>
       <c r="I52" s="3">
@@ -4228,7 +4228,7 @@
       <c r="G53" s="3">
         <v>0.9</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="14">
         <v>0</v>
       </c>
       <c r="I53" s="3">
@@ -4284,7 +4284,7 @@
       <c r="G54" s="3">
         <v>0.9</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="14">
         <v>0</v>
       </c>
       <c r="I54" s="3">
@@ -4340,7 +4340,7 @@
       <c r="G55" s="3">
         <v>0.9</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="14">
         <v>0</v>
       </c>
       <c r="I55" s="3">
@@ -4396,7 +4396,7 @@
       <c r="G56" s="3">
         <v>0.9</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="14">
         <v>0</v>
       </c>
       <c r="I56" s="3">
@@ -4452,7 +4452,7 @@
       <c r="G57" s="3">
         <v>0.9</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="14">
         <v>0</v>
       </c>
       <c r="I57" s="3">
@@ -4508,7 +4508,7 @@
       <c r="G58" s="3">
         <v>0.9</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="14">
         <v>0</v>
       </c>
       <c r="I58" s="3">
@@ -4564,7 +4564,7 @@
       <c r="G59" s="3">
         <v>0.9</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="14">
         <v>0</v>
       </c>
       <c r="I59" s="3">
@@ -4620,7 +4620,7 @@
       <c r="G60" s="3">
         <v>0.9</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="14">
         <v>0</v>
       </c>
       <c r="I60" s="3">
@@ -4676,7 +4676,7 @@
       <c r="G61" s="3">
         <v>0.9</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="14">
         <v>0</v>
       </c>
       <c r="I61" s="3">
@@ -4732,7 +4732,7 @@
       <c r="G62" s="3">
         <v>0.9</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="14">
         <v>0</v>
       </c>
       <c r="I62" s="3">
@@ -4788,7 +4788,7 @@
       <c r="G63" s="3">
         <v>0.9</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="14">
         <v>0</v>
       </c>
       <c r="I63" s="3">
@@ -4844,7 +4844,7 @@
       <c r="G64" s="3">
         <v>0.9</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="14">
         <v>0</v>
       </c>
       <c r="I64" s="3">
@@ -4900,7 +4900,7 @@
       <c r="G65" s="3">
         <v>0.9</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="14">
         <v>0</v>
       </c>
       <c r="I65" s="3">
@@ -4956,7 +4956,7 @@
       <c r="G66" s="3">
         <v>0.9</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="14">
         <v>0</v>
       </c>
       <c r="I66" s="3">
@@ -5012,7 +5012,7 @@
       <c r="G67" s="3">
         <v>0.9</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="14">
         <v>0</v>
       </c>
       <c r="I67" s="3">
@@ -5068,7 +5068,7 @@
       <c r="G68" s="3">
         <v>0.9</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="14">
         <v>0</v>
       </c>
       <c r="I68" s="3">
@@ -5124,7 +5124,7 @@
       <c r="G69" s="3">
         <v>0.9</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="14">
         <v>0</v>
       </c>
       <c r="I69" s="3">
@@ -5180,7 +5180,7 @@
       <c r="G70" s="3">
         <v>0.9</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="14">
         <v>0</v>
       </c>
       <c r="I70" s="3">
@@ -5236,7 +5236,7 @@
       <c r="G71" s="3">
         <v>0.9</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="14">
         <v>0</v>
       </c>
       <c r="I71" s="3">
@@ -5292,7 +5292,7 @@
       <c r="G72" s="3">
         <v>0.9</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="14">
         <v>0</v>
       </c>
       <c r="I72" s="3">
@@ -5348,7 +5348,7 @@
       <c r="G73" s="3">
         <v>0.9</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="14">
         <v>0</v>
       </c>
       <c r="I73" s="3">
@@ -5404,7 +5404,7 @@
       <c r="G74" s="3">
         <v>0.9</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="14">
         <v>0</v>
       </c>
       <c r="I74" s="3">
@@ -5460,7 +5460,7 @@
       <c r="G75" s="3">
         <v>0.9</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="14">
         <v>0</v>
       </c>
       <c r="I75" s="3">
@@ -5516,7 +5516,7 @@
       <c r="G76" s="3">
         <v>0.9</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="14">
         <v>0</v>
       </c>
       <c r="I76" s="3">
@@ -5572,7 +5572,7 @@
       <c r="G77" s="3">
         <v>0.9</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="14">
         <v>0</v>
       </c>
       <c r="I77" s="3">
@@ -5628,7 +5628,7 @@
       <c r="G78" s="3">
         <v>0.9</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="14">
         <v>0</v>
       </c>
       <c r="I78" s="3">
@@ -5684,7 +5684,7 @@
       <c r="G79" s="3">
         <v>0.9</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="14">
         <v>0</v>
       </c>
       <c r="I79" s="3">
@@ -5740,7 +5740,7 @@
       <c r="G80" s="3">
         <v>0.9</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H80" s="14">
         <v>0</v>
       </c>
       <c r="I80" s="3">
@@ -5796,7 +5796,7 @@
       <c r="G81" s="3">
         <v>0.9</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="14">
         <v>0</v>
       </c>
       <c r="I81" s="3">
@@ -5852,7 +5852,7 @@
       <c r="G82" s="3">
         <v>0.9</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="14">
         <v>0</v>
       </c>
       <c r="I82" s="3">
@@ -5908,7 +5908,7 @@
       <c r="G83" s="3">
         <v>0.9</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83" s="14">
         <v>0</v>
       </c>
       <c r="I83" s="3">
@@ -5964,7 +5964,7 @@
       <c r="G84" s="3">
         <v>0.9</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="14">
         <v>0</v>
       </c>
       <c r="I84" s="3">
@@ -6020,7 +6020,7 @@
       <c r="G85" s="3">
         <v>0.9</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="14">
         <v>0</v>
       </c>
       <c r="I85" s="3">
@@ -6076,7 +6076,7 @@
       <c r="G86" s="3">
         <v>0.9</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="14">
         <v>0</v>
       </c>
       <c r="I86" s="3">
@@ -6132,7 +6132,7 @@
       <c r="G87" s="3">
         <v>0.9</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="14">
         <v>0</v>
       </c>
       <c r="I87" s="3">
@@ -6188,7 +6188,7 @@
       <c r="G88" s="3">
         <v>0.9</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="14">
         <v>0</v>
       </c>
       <c r="I88" s="3">
@@ -6244,7 +6244,7 @@
       <c r="G89" s="3">
         <v>0.9</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89" s="14">
         <v>0</v>
       </c>
       <c r="I89" s="3">
@@ -6300,7 +6300,7 @@
       <c r="G90" s="3">
         <v>0.9</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90" s="14">
         <v>0</v>
       </c>
       <c r="I90" s="3">
@@ -6356,7 +6356,7 @@
       <c r="G91" s="3">
         <v>0.9</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H91" s="14">
         <v>0</v>
       </c>
       <c r="I91" s="3">
@@ -6412,7 +6412,7 @@
       <c r="G92" s="3">
         <v>0.9</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="14">
         <v>0</v>
       </c>
       <c r="I92" s="3">
@@ -6468,7 +6468,7 @@
       <c r="G93" s="3">
         <v>0.9</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H93" s="14">
         <v>0</v>
       </c>
       <c r="I93" s="3">
@@ -6524,7 +6524,7 @@
       <c r="G94" s="3">
         <v>0.9</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="14">
         <v>0</v>
       </c>
       <c r="I94" s="3">
@@ -6580,7 +6580,7 @@
       <c r="G95" s="3">
         <v>0.9</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="14">
         <v>0</v>
       </c>
       <c r="I95" s="3">
@@ -6636,7 +6636,7 @@
       <c r="G96" s="3">
         <v>0.9</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="14">
         <v>0</v>
       </c>
       <c r="I96" s="3">
@@ -6692,7 +6692,7 @@
       <c r="G97" s="3">
         <v>0.9</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="14">
         <v>0</v>
       </c>
       <c r="I97" s="3">
@@ -6748,7 +6748,7 @@
       <c r="G98" s="3">
         <v>0.9</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="14">
         <v>0</v>
       </c>
       <c r="I98" s="3">
@@ -6804,7 +6804,7 @@
       <c r="G99" s="3">
         <v>0.9</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="14">
         <v>0</v>
       </c>
       <c r="I99" s="3">
@@ -6860,7 +6860,7 @@
       <c r="G100" s="3">
         <v>0.9</v>
       </c>
-      <c r="H100" s="11">
+      <c r="H100" s="14">
         <v>0</v>
       </c>
       <c r="I100" s="3">
@@ -6916,7 +6916,7 @@
       <c r="G101" s="3">
         <v>0.9</v>
       </c>
-      <c r="H101" s="11">
+      <c r="H101" s="14">
         <v>0</v>
       </c>
       <c r="I101" s="3">
@@ -6972,7 +6972,7 @@
       <c r="G102" s="3">
         <v>0.9</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="14">
         <v>0</v>
       </c>
       <c r="I102" s="3">
@@ -7028,7 +7028,7 @@
       <c r="G103" s="3">
         <v>0.9</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="14">
         <v>0</v>
       </c>
       <c r="I103" s="3">
@@ -7084,7 +7084,7 @@
       <c r="G104" s="3">
         <v>0.9</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="14">
         <v>0</v>
       </c>
       <c r="I104" s="3">
@@ -7140,7 +7140,7 @@
       <c r="G105" s="3">
         <v>0.9</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105" s="14">
         <v>0</v>
       </c>
       <c r="I105" s="3">
@@ -7196,7 +7196,7 @@
       <c r="G106" s="3">
         <v>0.9</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="14">
         <v>0</v>
       </c>
       <c r="I106" s="3">
@@ -7252,7 +7252,7 @@
       <c r="G107" s="3">
         <v>0.9</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="14">
         <v>0</v>
       </c>
       <c r="I107" s="3">
@@ -7308,7 +7308,7 @@
       <c r="G108" s="3">
         <v>0.9</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="14">
         <v>0</v>
       </c>
       <c r="I108" s="3">
@@ -7364,7 +7364,7 @@
       <c r="G109" s="3">
         <v>0.9</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H109" s="14">
         <v>0</v>
       </c>
       <c r="I109" s="3">
@@ -7420,7 +7420,7 @@
       <c r="G110" s="3">
         <v>0.9</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110" s="14">
         <v>0</v>
       </c>
       <c r="I110" s="3">
@@ -7476,7 +7476,7 @@
       <c r="G111" s="3">
         <v>0.9</v>
       </c>
-      <c r="H111" s="11">
+      <c r="H111" s="14">
         <v>0</v>
       </c>
       <c r="I111" s="3">
@@ -7532,7 +7532,7 @@
       <c r="G112" s="3">
         <v>0.9</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112" s="14">
         <v>0</v>
       </c>
       <c r="I112" s="3">
@@ -7588,7 +7588,7 @@
       <c r="G113" s="3">
         <v>0.9</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113" s="14">
         <v>0</v>
       </c>
       <c r="I113" s="3">
@@ -7644,7 +7644,7 @@
       <c r="G114" s="3">
         <v>0.9</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114" s="14">
         <v>0</v>
       </c>
       <c r="I114" s="3">
@@ -7700,7 +7700,7 @@
       <c r="G115" s="3">
         <v>0.9</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H115" s="14">
         <v>0</v>
       </c>
       <c r="I115" s="3">
@@ -7756,7 +7756,7 @@
       <c r="G116" s="3">
         <v>0.9</v>
       </c>
-      <c r="H116" s="11">
+      <c r="H116" s="14">
         <v>0</v>
       </c>
       <c r="I116" s="3">
@@ -7812,7 +7812,7 @@
       <c r="G117" s="3">
         <v>0.9</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="14">
         <v>0</v>
       </c>
       <c r="I117" s="3">
@@ -7868,7 +7868,7 @@
       <c r="G118" s="3">
         <v>0.9</v>
       </c>
-      <c r="H118" s="11">
+      <c r="H118" s="14">
         <v>0</v>
       </c>
       <c r="I118" s="3">
@@ -7924,7 +7924,7 @@
       <c r="G119" s="3">
         <v>0.9</v>
       </c>
-      <c r="H119" s="11">
+      <c r="H119" s="14">
         <v>0</v>
       </c>
       <c r="I119" s="3">
@@ -7980,7 +7980,7 @@
       <c r="G120" s="3">
         <v>0.9</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120" s="14">
         <v>0</v>
       </c>
       <c r="I120" s="3">
@@ -8036,7 +8036,7 @@
       <c r="G121" s="3">
         <v>0.9</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="14">
         <v>0</v>
       </c>
       <c r="I121" s="3">
@@ -8092,7 +8092,7 @@
       <c r="G122" s="3">
         <v>0.9</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="14">
         <v>0</v>
       </c>
       <c r="I122" s="3">
@@ -8148,7 +8148,7 @@
       <c r="G123" s="3">
         <v>0.9</v>
       </c>
-      <c r="H123" s="11">
+      <c r="H123" s="14">
         <v>0</v>
       </c>
       <c r="I123" s="3">
@@ -8204,7 +8204,7 @@
       <c r="G124" s="3">
         <v>0.9</v>
       </c>
-      <c r="H124" s="11">
+      <c r="H124" s="14">
         <v>0</v>
       </c>
       <c r="I124" s="3">
@@ -8260,7 +8260,7 @@
       <c r="G125" s="3">
         <v>0.9</v>
       </c>
-      <c r="H125" s="11">
+      <c r="H125" s="14">
         <v>0</v>
       </c>
       <c r="I125" s="3">
@@ -8316,7 +8316,7 @@
       <c r="G126" s="3">
         <v>0.9</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H126" s="14">
         <v>0</v>
       </c>
       <c r="I126" s="3">
@@ -8372,7 +8372,7 @@
       <c r="G127" s="3">
         <v>0.9</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H127" s="14">
         <v>0</v>
       </c>
       <c r="I127" s="3">
@@ -8428,7 +8428,7 @@
       <c r="G128" s="3">
         <v>0.9</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="14">
         <v>0</v>
       </c>
       <c r="I128" s="3">
@@ -8484,7 +8484,7 @@
       <c r="G129" s="3">
         <v>0.9</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="14">
         <v>0</v>
       </c>
       <c r="I129" s="3">
@@ -8540,7 +8540,7 @@
       <c r="G130" s="3">
         <v>0.9</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130" s="14">
         <v>0</v>
       </c>
       <c r="I130" s="3">
@@ -8596,7 +8596,7 @@
       <c r="G131" s="3">
         <v>0.9</v>
       </c>
-      <c r="H131" s="11">
+      <c r="H131" s="14">
         <v>0</v>
       </c>
       <c r="I131" s="3">
@@ -8652,7 +8652,7 @@
       <c r="G132" s="3">
         <v>0.9</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132" s="14">
         <v>0</v>
       </c>
       <c r="I132" s="3">
@@ -8708,7 +8708,7 @@
       <c r="G133" s="3">
         <v>0.9</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H133" s="14">
         <v>0</v>
       </c>
       <c r="I133" s="3">
@@ -8764,7 +8764,7 @@
       <c r="G134" s="3">
         <v>0.9</v>
       </c>
-      <c r="H134" s="11">
+      <c r="H134" s="14">
         <v>0</v>
       </c>
       <c r="I134" s="3">
@@ -8820,7 +8820,7 @@
       <c r="G135" s="3">
         <v>0.9</v>
       </c>
-      <c r="H135" s="11">
+      <c r="H135" s="14">
         <v>0</v>
       </c>
       <c r="I135" s="3">
@@ -8876,7 +8876,7 @@
       <c r="G136" s="3">
         <v>0.9</v>
       </c>
-      <c r="H136" s="11">
+      <c r="H136" s="14">
         <v>0</v>
       </c>
       <c r="I136" s="3">
@@ -8932,7 +8932,7 @@
       <c r="G137" s="3">
         <v>0.9</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H137" s="14">
         <v>0</v>
       </c>
       <c r="I137" s="3">
@@ -8988,7 +8988,7 @@
       <c r="G138" s="3">
         <v>0.9</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138" s="14">
         <v>0</v>
       </c>
       <c r="I138" s="3">
@@ -9044,7 +9044,7 @@
       <c r="G139" s="3">
         <v>0.9</v>
       </c>
-      <c r="H139" s="11">
+      <c r="H139" s="14">
         <v>0</v>
       </c>
       <c r="I139" s="3">
@@ -9100,7 +9100,7 @@
       <c r="G140" s="3">
         <v>0.9</v>
       </c>
-      <c r="H140" s="11">
+      <c r="H140" s="14">
         <v>0</v>
       </c>
       <c r="I140" s="3">
@@ -9156,7 +9156,7 @@
       <c r="G141" s="3">
         <v>0.9</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H141" s="14">
         <v>0</v>
       </c>
       <c r="I141" s="3">
@@ -9212,7 +9212,7 @@
       <c r="G142" s="3">
         <v>0.9</v>
       </c>
-      <c r="H142" s="11">
+      <c r="H142" s="14">
         <v>0</v>
       </c>
       <c r="I142" s="3">
@@ -9268,7 +9268,7 @@
       <c r="G143" s="3">
         <v>0.9</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H143" s="14">
         <v>0</v>
       </c>
       <c r="I143" s="3">
@@ -9324,7 +9324,7 @@
       <c r="G144" s="3">
         <v>0.9</v>
       </c>
-      <c r="H144" s="11">
+      <c r="H144" s="14">
         <v>0</v>
       </c>
       <c r="I144" s="3">
@@ -9380,7 +9380,7 @@
       <c r="G145" s="3">
         <v>0.9</v>
       </c>
-      <c r="H145" s="11">
+      <c r="H145" s="14">
         <v>0</v>
       </c>
       <c r="I145" s="3">
@@ -9436,7 +9436,7 @@
       <c r="G146" s="3">
         <v>1</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H146" s="14">
         <v>0</v>
       </c>
       <c r="I146" s="3">
@@ -9492,7 +9492,7 @@
       <c r="G147" s="3">
         <v>1</v>
       </c>
-      <c r="H147" s="11">
+      <c r="H147" s="14">
         <v>0</v>
       </c>
       <c r="I147" s="3">
@@ -9548,7 +9548,7 @@
       <c r="G148" s="3">
         <v>1</v>
       </c>
-      <c r="H148" s="11">
+      <c r="H148" s="14">
         <v>0</v>
       </c>
       <c r="I148" s="3">
@@ -9604,7 +9604,7 @@
       <c r="G149" s="3">
         <v>1</v>
       </c>
-      <c r="H149" s="11">
+      <c r="H149" s="14">
         <v>0</v>
       </c>
       <c r="I149" s="3">
@@ -9660,7 +9660,7 @@
       <c r="G150" s="3">
         <v>1</v>
       </c>
-      <c r="H150" s="11">
+      <c r="H150" s="14">
         <v>0</v>
       </c>
       <c r="I150" s="3">
@@ -9716,7 +9716,7 @@
       <c r="G151" s="3">
         <v>1</v>
       </c>
-      <c r="H151" s="11">
+      <c r="H151" s="14">
         <v>0</v>
       </c>
       <c r="I151" s="3">
@@ -9772,7 +9772,7 @@
       <c r="G152" s="3">
         <v>1</v>
       </c>
-      <c r="H152" s="11">
+      <c r="H152" s="14">
         <v>0</v>
       </c>
       <c r="I152" s="3">
@@ -9828,7 +9828,7 @@
       <c r="G153" s="3">
         <v>1</v>
       </c>
-      <c r="H153" s="11">
+      <c r="H153" s="14">
         <v>0</v>
       </c>
       <c r="I153" s="3">
@@ -9884,7 +9884,7 @@
       <c r="G154" s="3">
         <v>1</v>
       </c>
-      <c r="H154" s="11">
+      <c r="H154" s="14">
         <v>0</v>
       </c>
       <c r="I154" s="3">
@@ -9940,7 +9940,7 @@
       <c r="G155" s="3">
         <v>1</v>
       </c>
-      <c r="H155" s="11">
+      <c r="H155" s="14">
         <v>0</v>
       </c>
       <c r="I155" s="3">
@@ -9996,7 +9996,7 @@
       <c r="G156" s="3">
         <v>1</v>
       </c>
-      <c r="H156" s="11">
+      <c r="H156" s="14">
         <v>0</v>
       </c>
       <c r="I156" s="3">
@@ -10052,7 +10052,7 @@
       <c r="G157" s="3">
         <v>1</v>
       </c>
-      <c r="H157" s="11">
+      <c r="H157" s="14">
         <v>0</v>
       </c>
       <c r="I157" s="3">
@@ -10108,8 +10108,8 @@
       <c r="G158" s="3">
         <v>0</v>
       </c>
-      <c r="H158" s="11">
-        <v>1</v>
+      <c r="H158" s="14">
+        <v>0</v>
       </c>
       <c r="I158" s="3">
         <v>0.1</v>
@@ -10164,8 +10164,8 @@
       <c r="G159" s="3">
         <v>0</v>
       </c>
-      <c r="H159" s="11">
-        <v>1</v>
+      <c r="H159" s="14">
+        <v>0</v>
       </c>
       <c r="I159" s="3">
         <v>0.1</v>
@@ -10220,8 +10220,8 @@
       <c r="G160" s="3">
         <v>0</v>
       </c>
-      <c r="H160" s="11">
-        <v>1</v>
+      <c r="H160" s="14">
+        <v>0</v>
       </c>
       <c r="I160" s="3">
         <v>0.1</v>
@@ -10276,8 +10276,8 @@
       <c r="G161" s="3">
         <v>0</v>
       </c>
-      <c r="H161" s="11">
-        <v>1</v>
+      <c r="H161" s="14">
+        <v>0</v>
       </c>
       <c r="I161" s="3">
         <v>0.1</v>
@@ -10332,8 +10332,8 @@
       <c r="G162" s="3">
         <v>0</v>
       </c>
-      <c r="H162" s="11">
-        <v>1</v>
+      <c r="H162" s="14">
+        <v>0</v>
       </c>
       <c r="I162" s="3">
         <v>0.1</v>
@@ -10388,8 +10388,8 @@
       <c r="G163" s="3">
         <v>0</v>
       </c>
-      <c r="H163" s="11">
-        <v>1</v>
+      <c r="H163" s="14">
+        <v>0</v>
       </c>
       <c r="I163" s="3">
         <v>0.1</v>
@@ -10444,8 +10444,8 @@
       <c r="G164" s="3">
         <v>0</v>
       </c>
-      <c r="H164" s="11">
-        <v>1</v>
+      <c r="H164" s="14">
+        <v>0</v>
       </c>
       <c r="I164" s="3">
         <v>0.1</v>
@@ -10500,8 +10500,8 @@
       <c r="G165" s="3">
         <v>0</v>
       </c>
-      <c r="H165" s="11">
-        <v>1</v>
+      <c r="H165" s="14">
+        <v>0</v>
       </c>
       <c r="I165" s="3">
         <v>0.1</v>
@@ -10556,8 +10556,8 @@
       <c r="G166" s="3">
         <v>0</v>
       </c>
-      <c r="H166" s="11">
-        <v>1</v>
+      <c r="H166" s="14">
+        <v>0</v>
       </c>
       <c r="I166" s="3">
         <v>0.1</v>
@@ -10612,8 +10612,8 @@
       <c r="G167" s="3">
         <v>0</v>
       </c>
-      <c r="H167" s="11">
-        <v>1</v>
+      <c r="H167" s="14">
+        <v>0</v>
       </c>
       <c r="I167" s="3">
         <v>0.1</v>
@@ -10668,8 +10668,8 @@
       <c r="G168" s="3">
         <v>0</v>
       </c>
-      <c r="H168" s="11">
-        <v>1</v>
+      <c r="H168" s="14">
+        <v>0</v>
       </c>
       <c r="I168" s="3">
         <v>0.1</v>
@@ -10724,8 +10724,8 @@
       <c r="G169" s="3">
         <v>0</v>
       </c>
-      <c r="H169" s="11">
-        <v>1</v>
+      <c r="H169" s="14">
+        <v>0</v>
       </c>
       <c r="I169" s="3">
         <v>0.1</v>
@@ -10780,7 +10780,7 @@
       <c r="G170" s="3">
         <v>0</v>
       </c>
-      <c r="H170" s="11">
+      <c r="H170" s="14">
         <v>0</v>
       </c>
       <c r="I170" s="3">
@@ -10836,7 +10836,7 @@
       <c r="G171" s="3">
         <v>0</v>
       </c>
-      <c r="H171" s="11">
+      <c r="H171" s="14">
         <v>0</v>
       </c>
       <c r="I171" s="3">
@@ -10892,7 +10892,7 @@
       <c r="G172" s="3">
         <v>0</v>
       </c>
-      <c r="H172" s="11">
+      <c r="H172" s="14">
         <v>0</v>
       </c>
       <c r="I172" s="3">
@@ -10948,7 +10948,7 @@
       <c r="G173" s="3">
         <v>0</v>
       </c>
-      <c r="H173" s="11">
+      <c r="H173" s="14">
         <v>0</v>
       </c>
       <c r="I173" s="3">
@@ -11004,7 +11004,7 @@
       <c r="G174" s="3">
         <v>0</v>
       </c>
-      <c r="H174" s="11">
+      <c r="H174" s="14">
         <v>0</v>
       </c>
       <c r="I174" s="3">
@@ -11060,7 +11060,7 @@
       <c r="G175" s="3">
         <v>0</v>
       </c>
-      <c r="H175" s="11">
+      <c r="H175" s="14">
         <v>0</v>
       </c>
       <c r="I175" s="3">
@@ -11116,7 +11116,7 @@
       <c r="G176" s="3">
         <v>0</v>
       </c>
-      <c r="H176" s="11">
+      <c r="H176" s="14">
         <v>0</v>
       </c>
       <c r="I176" s="3">
@@ -11172,7 +11172,7 @@
       <c r="G177" s="3">
         <v>0</v>
       </c>
-      <c r="H177" s="11">
+      <c r="H177" s="14">
         <v>0</v>
       </c>
       <c r="I177" s="3">
@@ -11228,7 +11228,7 @@
       <c r="G178" s="3">
         <v>0</v>
       </c>
-      <c r="H178" s="11">
+      <c r="H178" s="14">
         <v>0</v>
       </c>
       <c r="I178" s="3">
@@ -11284,7 +11284,7 @@
       <c r="G179" s="3">
         <v>0</v>
       </c>
-      <c r="H179" s="11">
+      <c r="H179" s="14">
         <v>0</v>
       </c>
       <c r="I179" s="3">
@@ -11340,7 +11340,7 @@
       <c r="G180" s="3">
         <v>0</v>
       </c>
-      <c r="H180" s="11">
+      <c r="H180" s="14">
         <v>0</v>
       </c>
       <c r="I180" s="3">
@@ -11396,7 +11396,7 @@
       <c r="G181" s="3">
         <v>0</v>
       </c>
-      <c r="H181" s="11">
+      <c r="H181" s="14">
         <v>0</v>
       </c>
       <c r="I181" s="3">
@@ -11455,7 +11455,7 @@
         <f>G86</f>
         <v>0.9</v>
       </c>
-      <c r="H182" s="11">
+      <c r="H182" s="14">
         <v>0</v>
       </c>
       <c r="I182" s="3">
@@ -11519,7 +11519,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H183" s="11">
+      <c r="H183" s="14">
         <v>0</v>
       </c>
       <c r="I183" s="3">
@@ -11583,7 +11583,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H184" s="11">
+      <c r="H184" s="14">
         <v>0</v>
       </c>
       <c r="I184" s="3">
@@ -11647,7 +11647,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H185" s="11">
+      <c r="H185" s="14">
         <v>0</v>
       </c>
       <c r="I185" s="3">
@@ -11711,7 +11711,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H186" s="11">
+      <c r="H186" s="14">
         <v>0</v>
       </c>
       <c r="I186" s="3">
@@ -11775,7 +11775,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H187" s="11">
+      <c r="H187" s="14">
         <v>0</v>
       </c>
       <c r="I187" s="3">
@@ -11839,7 +11839,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H188" s="11">
+      <c r="H188" s="14">
         <v>0</v>
       </c>
       <c r="I188" s="3">
@@ -11903,7 +11903,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H189" s="11">
+      <c r="H189" s="14">
         <v>0</v>
       </c>
       <c r="I189" s="3">
@@ -11967,7 +11967,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H190" s="11">
+      <c r="H190" s="14">
         <v>0</v>
       </c>
       <c r="I190" s="3">
@@ -12031,7 +12031,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H191" s="11">
+      <c r="H191" s="14">
         <v>0</v>
       </c>
       <c r="I191" s="3">
@@ -12095,7 +12095,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H192" s="11">
+      <c r="H192" s="14">
         <v>0</v>
       </c>
       <c r="I192" s="3">
@@ -12159,7 +12159,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="H193" s="11">
+      <c r="H193" s="14">
         <v>0</v>
       </c>
       <c r="I193" s="3">
@@ -12223,7 +12223,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H194" s="11">
+      <c r="H194" s="14">
         <v>0</v>
       </c>
       <c r="I194" s="3">
@@ -12283,7 +12283,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H195" s="11">
+      <c r="H195" s="14">
         <v>0</v>
       </c>
       <c r="I195" s="3">
@@ -12343,7 +12343,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H196" s="11">
+      <c r="H196" s="14">
         <v>0</v>
       </c>
       <c r="I196" s="3">
@@ -12403,7 +12403,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H197" s="11">
+      <c r="H197" s="14">
         <v>0</v>
       </c>
       <c r="I197" s="3">
@@ -12463,7 +12463,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H198" s="11">
+      <c r="H198" s="14">
         <v>0</v>
       </c>
       <c r="I198" s="3">
@@ -12523,7 +12523,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H199" s="11">
+      <c r="H199" s="14">
         <v>0</v>
       </c>
       <c r="I199" s="3">
@@ -12583,7 +12583,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H200" s="11">
+      <c r="H200" s="14">
         <v>0</v>
       </c>
       <c r="I200" s="3">
@@ -12643,7 +12643,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H201" s="11">
+      <c r="H201" s="14">
         <v>0</v>
       </c>
       <c r="I201" s="3">
@@ -12703,7 +12703,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H202" s="11">
+      <c r="H202" s="14">
         <v>0</v>
       </c>
       <c r="I202" s="3">
@@ -12763,7 +12763,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H203" s="11">
+      <c r="H203" s="14">
         <v>0</v>
       </c>
       <c r="I203" s="3">
@@ -12823,7 +12823,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H204" s="11">
+      <c r="H204" s="14">
         <v>0</v>
       </c>
       <c r="I204" s="3">
@@ -12883,7 +12883,7 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="H205" s="11">
+      <c r="H205" s="14">
         <v>0</v>
       </c>
       <c r="I205" s="3">
@@ -12940,7 +12940,7 @@
       <c r="G206" s="3">
         <v>0.9</v>
       </c>
-      <c r="H206" s="11">
+      <c r="H206" s="14">
         <v>0</v>
       </c>
       <c r="I206" s="3">
@@ -12996,7 +12996,7 @@
       <c r="G207" s="3">
         <v>0.9</v>
       </c>
-      <c r="H207" s="11">
+      <c r="H207" s="14">
         <v>0</v>
       </c>
       <c r="I207" s="3">
@@ -13052,7 +13052,7 @@
       <c r="G208" s="3">
         <v>0.9</v>
       </c>
-      <c r="H208" s="11">
+      <c r="H208" s="14">
         <v>0</v>
       </c>
       <c r="I208" s="3">
@@ -13108,7 +13108,7 @@
       <c r="G209" s="3">
         <v>0.9</v>
       </c>
-      <c r="H209" s="11">
+      <c r="H209" s="14">
         <v>0</v>
       </c>
       <c r="I209" s="3">
@@ -13164,7 +13164,7 @@
       <c r="G210" s="3">
         <v>0.9</v>
       </c>
-      <c r="H210" s="11">
+      <c r="H210" s="14">
         <v>0</v>
       </c>
       <c r="I210" s="3">
@@ -13220,7 +13220,7 @@
       <c r="G211" s="3">
         <v>0.9</v>
       </c>
-      <c r="H211" s="11">
+      <c r="H211" s="14">
         <v>0</v>
       </c>
       <c r="I211" s="3">
@@ -13276,7 +13276,7 @@
       <c r="G212" s="3">
         <v>0.9</v>
       </c>
-      <c r="H212" s="11">
+      <c r="H212" s="14">
         <v>0</v>
       </c>
       <c r="I212" s="3">
@@ -13332,7 +13332,7 @@
       <c r="G213" s="3">
         <v>0.9</v>
       </c>
-      <c r="H213" s="11">
+      <c r="H213" s="14">
         <v>0</v>
       </c>
       <c r="I213" s="3">
@@ -13388,7 +13388,7 @@
       <c r="G214" s="3">
         <v>0.9</v>
       </c>
-      <c r="H214" s="11">
+      <c r="H214" s="14">
         <v>0</v>
       </c>
       <c r="I214" s="3">
@@ -13444,7 +13444,7 @@
       <c r="G215" s="3">
         <v>0.9</v>
       </c>
-      <c r="H215" s="11">
+      <c r="H215" s="14">
         <v>0</v>
       </c>
       <c r="I215" s="3">
@@ -13500,7 +13500,7 @@
       <c r="G216" s="3">
         <v>0.9</v>
       </c>
-      <c r="H216" s="11">
+      <c r="H216" s="14">
         <v>0</v>
       </c>
       <c r="I216" s="3">
@@ -13556,7 +13556,7 @@
       <c r="G217" s="3">
         <v>0.9</v>
       </c>
-      <c r="H217" s="11">
+      <c r="H217" s="14">
         <v>0</v>
       </c>
       <c r="I217" s="3">
@@ -13612,7 +13612,7 @@
       <c r="G218" s="3">
         <v>0.9</v>
       </c>
-      <c r="H218" s="11">
+      <c r="H218" s="14">
         <v>0</v>
       </c>
       <c r="I218" s="3">
@@ -13668,7 +13668,7 @@
       <c r="G219" s="3">
         <v>0.9</v>
       </c>
-      <c r="H219" s="11">
+      <c r="H219" s="14">
         <v>0</v>
       </c>
       <c r="I219" s="3">
@@ -13724,7 +13724,7 @@
       <c r="G220" s="3">
         <v>0.9</v>
       </c>
-      <c r="H220" s="11">
+      <c r="H220" s="14">
         <v>0</v>
       </c>
       <c r="I220" s="3">
@@ -13780,7 +13780,7 @@
       <c r="G221" s="3">
         <v>0.9</v>
       </c>
-      <c r="H221" s="11">
+      <c r="H221" s="14">
         <v>0</v>
       </c>
       <c r="I221" s="3">
@@ -13836,7 +13836,7 @@
       <c r="G222" s="3">
         <v>0.9</v>
       </c>
-      <c r="H222" s="11">
+      <c r="H222" s="14">
         <v>0</v>
       </c>
       <c r="I222" s="3">
@@ -13892,7 +13892,7 @@
       <c r="G223" s="3">
         <v>0.9</v>
       </c>
-      <c r="H223" s="11">
+      <c r="H223" s="14">
         <v>0</v>
       </c>
       <c r="I223" s="3">
@@ -13948,7 +13948,7 @@
       <c r="G224" s="3">
         <v>0.9</v>
       </c>
-      <c r="H224" s="11">
+      <c r="H224" s="14">
         <v>0</v>
       </c>
       <c r="I224" s="3">
@@ -14004,7 +14004,7 @@
       <c r="G225" s="3">
         <v>0.9</v>
       </c>
-      <c r="H225" s="11">
+      <c r="H225" s="14">
         <v>0</v>
       </c>
       <c r="I225" s="3">
@@ -14060,7 +14060,7 @@
       <c r="G226" s="3">
         <v>0.9</v>
       </c>
-      <c r="H226" s="11">
+      <c r="H226" s="14">
         <v>0</v>
       </c>
       <c r="I226" s="3">
@@ -14116,7 +14116,7 @@
       <c r="G227" s="3">
         <v>0.9</v>
       </c>
-      <c r="H227" s="11">
+      <c r="H227" s="14">
         <v>0</v>
       </c>
       <c r="I227" s="3">
@@ -14172,7 +14172,7 @@
       <c r="G228" s="3">
         <v>0.9</v>
       </c>
-      <c r="H228" s="11">
+      <c r="H228" s="14">
         <v>0</v>
       </c>
       <c r="I228" s="3">
@@ -14228,7 +14228,7 @@
       <c r="G229" s="3">
         <v>0.9</v>
       </c>
-      <c r="H229" s="11">
+      <c r="H229" s="14">
         <v>0</v>
       </c>
       <c r="I229" s="3">
@@ -27090,14 +27090,14 @@
       <c r="E2" s="5">
         <v>18</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>30</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27117,14 +27117,14 @@
       <c r="E3" s="5">
         <v>18</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>30</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27144,14 +27144,14 @@
       <c r="E4" s="5">
         <v>21</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>30</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27171,14 +27171,14 @@
       <c r="E5" s="5">
         <v>12</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>30</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27198,14 +27198,14 @@
       <c r="E6" s="5">
         <v>12</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>30</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27225,14 +27225,14 @@
       <c r="E7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>30</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27252,14 +27252,14 @@
       <c r="E8" s="5">
         <v>12</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>30</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>70</v>
       </c>
     </row>
@@ -27279,14 +27279,14 @@
       <c r="E9" s="5">
         <v>12</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>10*15/3.6</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>30</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>70</v>
       </c>
     </row>
@@ -27306,14 +27306,14 @@
       <c r="E10" s="5">
         <v>12</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>25/3.6</f>
         <v>6.9444444444444446</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>30</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27333,14 +27333,14 @@
       <c r="E11" s="5">
         <v>21</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>36*1000/3600</f>
         <v>10</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>30</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27360,14 +27360,14 @@
       <c r="E12" s="5">
         <v>12</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>9*10/3.6</f>
         <v>25</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>30</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>70</v>
       </c>
     </row>
@@ -27387,14 +27387,14 @@
       <c r="E13" s="5">
         <v>12</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>3.6*10/3.6</f>
         <v>10</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>30</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>70</v>
       </c>
     </row>
@@ -27414,13 +27414,13 @@
       <c r="E14" s="5">
         <v>12</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>36</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>30</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27440,13 +27440,13 @@
       <c r="E15" s="5">
         <v>12</v>
       </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>30</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>70</v>
       </c>
     </row>
@@ -27466,13 +27466,13 @@
       <c r="E16" s="5">
         <v>-18</v>
       </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
         <v>30</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>70</v>
       </c>
     </row>
@@ -27492,14 +27492,14 @@
       <c r="E17" s="5">
         <v>12</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f>20*15/3.6</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>30</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27519,14 +27519,14 @@
       <c r="E18" s="5">
         <v>12</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>30</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27546,14 +27546,14 @@
       <c r="E19" s="5">
         <v>12</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>40</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27573,14 +27573,14 @@
       <c r="E20" s="5">
         <v>12</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f>30/3.6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>30</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>60</v>
       </c>
     </row>
@@ -27594,8 +27594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27658,40 +27658,40 @@
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>70</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>80</v>
       </c>
-      <c r="E2" s="14">
-        <v>8</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="13">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13">
         <v>2.7</v>
       </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
         <v>35</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>140</v>
       </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27699,40 +27699,40 @@
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>50</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>70</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>80</v>
       </c>
-      <c r="E3" s="12">
-        <v>8</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E3" s="11">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
         <v>2.7</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
         <v>40</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>160</v>
       </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27740,40 +27740,40 @@
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>15</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>70</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>80</v>
       </c>
-      <c r="E4" s="14">
-        <v>8</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="E4" s="13">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13">
         <v>2.7</v>
       </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>40</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>160</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27781,40 +27781,40 @@
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>14</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>70</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>80</v>
       </c>
-      <c r="E5" s="14">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="E5" s="13">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13">
         <v>15.9</v>
       </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>3</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>60</v>
       </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27822,41 +27822,41 @@
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="13">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
         <v>70</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>80</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <f>9.3+24</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>2</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>30</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27864,41 +27864,41 @@
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="14">
-        <v>8</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="13">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
         <v>70</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>80</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <f>9.3+12</f>
         <v>21.3</v>
       </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>2</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>30</v>
       </c>
-      <c r="K7" s="12">
-        <v>10</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="K7" s="11">
+        <v>10</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27906,40 +27906,40 @@
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>70</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>80</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>6.9</v>
       </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>15</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>45</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27947,40 +27947,40 @@
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>15</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>90</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>170</v>
       </c>
-      <c r="E9" s="14">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="E9" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13">
         <v>10.8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>16.5</v>
       </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
         <v>3</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>60</v>
       </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
         <v>150</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -27988,40 +27988,40 @@
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>70</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>80</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>4</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>14</v>
       </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>2</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>30</v>
       </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28029,45 +28029,45 @@
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>15*0.43+3*0.01+5*0.56</f>
         <v>9.2800000000000011</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>70</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>80</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f>0.43*4+0.01*7+0.56*20</f>
         <v>12.990000000000002</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
         <v>10.998000000000001</v>
       </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <f>0.43*60+0.01*0+0.56*0</f>
         <v>25.8</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f>I11*4</f>
         <v>103.2</v>
       </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
         <v>16</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28075,40 +28075,40 @@
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="14">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
         <v>120</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>280</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>9.9</v>
       </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <v>60</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>180</v>
       </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28116,40 +28116,40 @@
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="14">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
         <v>70</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>80</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>11.3</v>
       </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>120</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>360</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28157,40 +28157,40 @@
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
         <v>70</v>
       </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
         <v>6.6</v>
       </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
         <v>100</v>
       </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28198,40 +28198,40 @@
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
         <v>35</v>
       </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>2.9</v>
       </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28239,40 +28239,40 @@
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
         <v>70</v>
       </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
         <v>5.7</v>
       </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
         <v>100</v>
       </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28280,43 +28280,43 @@
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>15</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <f>C11</f>
         <v>70</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <f>D11</f>
         <v>80</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>20</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>16.2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <f>G9</f>
         <v>16.5</v>
       </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>3</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>60</v>
       </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28324,40 +28324,40 @@
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>70</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>80</v>
       </c>
-      <c r="E18" s="14">
-        <v>7</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="13">
+        <v>7</v>
+      </c>
+      <c r="F18" s="13">
         <v>10.8</v>
       </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>2</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>30</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28365,40 +28365,40 @@
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>5</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>70</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>80</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>6.9</v>
       </c>
-      <c r="G19" s="14">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>0</v>
       </c>
     </row>
@@ -28406,40 +28406,40 @@
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="14">
-        <v>10</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="13">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13">
         <v>70</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>80</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>4</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>12.5</v>
       </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
         <v>2</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>30</v>
       </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
         <v>0</v>
       </c>
     </row>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -246,12 +246,6 @@
     <t>type_el</t>
   </si>
   <si>
-    <t>rhum_min_pc</t>
-  </si>
-  <si>
-    <t>rhum_max_pc</t>
-  </si>
-  <si>
     <t>Qcre_Wm2</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>Ve_lpspax</t>
+  </si>
+  <si>
+    <t>RH_min_pc</t>
+  </si>
+  <si>
+    <t>RH_max_pc</t>
   </si>
 </sst>
 </file>
@@ -1304,13 +1304,13 @@
         <v>62</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>69</v>
@@ -13592,7 +13592,7 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B218" s="6">
         <v>1000</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>47</v>
@@ -13704,7 +13704,7 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>48</v>
@@ -13760,7 +13760,7 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>49</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>55</v>
@@ -13872,7 +13872,7 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>56</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B224" s="6">
         <v>1000</v>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>47</v>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>48</v>
@@ -14096,7 +14096,7 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>49</v>
@@ -14152,7 +14152,7 @@
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>55</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>56</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>57</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>47</v>
@@ -20011,7 +20011,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>48</v>
@@ -20037,7 +20037,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>49</v>
@@ -20063,7 +20063,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>55</v>
@@ -20089,7 +20089,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>56</v>
@@ -20115,7 +20115,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>57</v>
@@ -20141,7 +20141,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>47</v>
@@ -20167,7 +20167,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>48</v>
@@ -20193,7 +20193,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>49</v>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>55</v>
@@ -20245,7 +20245,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>56</v>
@@ -26677,7 +26677,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>57</v>
@@ -26706,7 +26706,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>47</v>
@@ -26735,7 +26735,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>48</v>
@@ -26764,7 +26764,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>49</v>
@@ -26793,7 +26793,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>55</v>
@@ -26822,7 +26822,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>56</v>
@@ -26851,7 +26851,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>57</v>
@@ -26880,7 +26880,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>47</v>
@@ -26909,7 +26909,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>48</v>
@@ -26938,7 +26938,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>49</v>
@@ -26967,7 +26967,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>55</v>
@@ -26996,7 +26996,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>56</v>
@@ -27034,7 +27034,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27065,13 +27065,13 @@
         <v>34</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -27559,7 +27559,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3">
         <v>26</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>13</v>
@@ -27643,19 +27643,19 @@
         <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -28408,7 +28408,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="14">
         <v>10</v>
@@ -28454,9 +28454,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28630,26 +28633,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28673,9 +28665,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1272,28 +1272,28 @@
   <dimension ref="A1:T229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.265625" style="4" customWidth="1"/>
-    <col min="5" max="8" width="7.1328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.86328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="8" width="7.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1371,8 +1371,8 @@
       <c r="F2" s="3">
         <v>0.82</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.82</v>
+      <c r="G2" s="14">
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>0.82</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="F3" s="3">
         <v>0.82</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.82</v>
+      <c r="G3" s="14">
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0.82</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1491,8 +1491,8 @@
       <c r="F4" s="3">
         <v>0.82</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.82</v>
+      <c r="G4" s="14">
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0.82</v>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1551,8 +1551,8 @@
       <c r="F5" s="3">
         <v>0.82</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.82</v>
+      <c r="G5" s="14">
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0.82</v>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1611,8 +1611,8 @@
       <c r="F6" s="3">
         <v>0.82</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.82</v>
+      <c r="G6" s="14">
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0.82</v>
@@ -1651,7 +1651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1670,8 +1670,8 @@
       <c r="F7" s="3">
         <v>0.82</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.82</v>
+      <c r="G7" s="14">
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0.82</v>
@@ -1710,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1729,8 +1729,8 @@
       <c r="F8" s="3">
         <v>0.82</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.82</v>
+      <c r="G8" s="14">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0.82</v>
@@ -1769,7 +1769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1788,8 +1788,8 @@
       <c r="F9" s="3">
         <v>0.82</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.82</v>
+      <c r="G9" s="14">
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0.82</v>
@@ -1828,7 +1828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1847,8 +1847,8 @@
       <c r="F10" s="3">
         <v>0.82</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.82</v>
+      <c r="G10" s="14">
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0.82</v>
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1906,8 +1906,8 @@
       <c r="F11" s="3">
         <v>0.82</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.82</v>
+      <c r="G11" s="14">
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0.82</v>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1965,8 +1965,8 @@
       <c r="F12" s="3">
         <v>0.82</v>
       </c>
-      <c r="G12" s="3">
-        <v>0.82</v>
+      <c r="G12" s="14">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0.82</v>
@@ -2005,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -2024,8 +2024,8 @@
       <c r="F13" s="3">
         <v>0.82</v>
       </c>
-      <c r="G13" s="3">
-        <v>0.82</v>
+      <c r="G13" s="14">
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0.82</v>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -2083,8 +2083,8 @@
       <c r="F14" s="3">
         <v>0.85</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.85</v>
+      <c r="G14" s="14">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0.85</v>
@@ -2123,7 +2123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2142,8 +2142,8 @@
       <c r="F15" s="3">
         <v>0.85</v>
       </c>
-      <c r="G15" s="3">
-        <v>0.85</v>
+      <c r="G15" s="14">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0.85</v>
@@ -2182,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -2201,8 +2201,8 @@
       <c r="F16" s="3">
         <v>0.85</v>
       </c>
-      <c r="G16" s="3">
-        <v>0.85</v>
+      <c r="G16" s="14">
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>0.85</v>
@@ -2241,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -2260,8 +2260,8 @@
       <c r="F17" s="3">
         <v>0.85</v>
       </c>
-      <c r="G17" s="3">
-        <v>0.85</v>
+      <c r="G17" s="14">
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>0.85</v>
@@ -2300,7 +2300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2319,8 +2319,8 @@
       <c r="F18" s="3">
         <v>0.85</v>
       </c>
-      <c r="G18" s="3">
-        <v>0.85</v>
+      <c r="G18" s="14">
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>0.85</v>
@@ -2359,7 +2359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2378,8 +2378,8 @@
       <c r="F19" s="3">
         <v>0.85</v>
       </c>
-      <c r="G19" s="3">
-        <v>0.85</v>
+      <c r="G19" s="14">
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>0.85</v>
@@ -2418,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2437,8 +2437,8 @@
       <c r="F20" s="3">
         <v>0.85</v>
       </c>
-      <c r="G20" s="3">
-        <v>0.85</v>
+      <c r="G20" s="14">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0.85</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -2496,8 +2496,8 @@
       <c r="F21" s="3">
         <v>0.85</v>
       </c>
-      <c r="G21" s="3">
-        <v>0.85</v>
+      <c r="G21" s="14">
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0.85</v>
@@ -2536,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -2555,8 +2555,8 @@
       <c r="F22" s="3">
         <v>0.85</v>
       </c>
-      <c r="G22" s="3">
-        <v>0.85</v>
+      <c r="G22" s="14">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0.85</v>
@@ -2595,7 +2595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -2614,8 +2614,8 @@
       <c r="F23" s="3">
         <v>0.85</v>
       </c>
-      <c r="G23" s="3">
-        <v>0.85</v>
+      <c r="G23" s="14">
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>0.85</v>
@@ -2654,7 +2654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -2673,8 +2673,8 @@
       <c r="F24" s="3">
         <v>0.85</v>
       </c>
-      <c r="G24" s="3">
-        <v>0.85</v>
+      <c r="G24" s="14">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0.85</v>
@@ -2713,7 +2713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -2732,8 +2732,8 @@
       <c r="F25" s="3">
         <v>0.85</v>
       </c>
-      <c r="G25" s="3">
-        <v>0.85</v>
+      <c r="G25" s="14">
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>0.85</v>
@@ -2772,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -2791,8 +2791,8 @@
       <c r="F26" s="3">
         <v>0.9</v>
       </c>
-      <c r="G26" s="3">
-        <v>0.9</v>
+      <c r="G26" s="14">
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>0.9</v>
@@ -2831,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -2850,8 +2850,8 @@
       <c r="F27" s="3">
         <v>0.9</v>
       </c>
-      <c r="G27" s="3">
-        <v>0.9</v>
+      <c r="G27" s="14">
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0.9</v>
@@ -2890,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -2909,8 +2909,8 @@
       <c r="F28" s="3">
         <v>0.9</v>
       </c>
-      <c r="G28" s="3">
-        <v>0.9</v>
+      <c r="G28" s="14">
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>0.9</v>
@@ -2949,7 +2949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -2968,8 +2968,8 @@
       <c r="F29" s="3">
         <v>0.9</v>
       </c>
-      <c r="G29" s="3">
-        <v>0.9</v>
+      <c r="G29" s="14">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0.9</v>
@@ -3008,7 +3008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -3027,8 +3027,8 @@
       <c r="F30" s="3">
         <v>0.9</v>
       </c>
-      <c r="G30" s="3">
-        <v>0.9</v>
+      <c r="G30" s="14">
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <v>0.9</v>
@@ -3067,7 +3067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -3086,8 +3086,8 @@
       <c r="F31" s="3">
         <v>0.9</v>
       </c>
-      <c r="G31" s="3">
-        <v>0.9</v>
+      <c r="G31" s="14">
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <v>0.9</v>
@@ -3126,7 +3126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -3145,8 +3145,8 @@
       <c r="F32" s="3">
         <v>0.9</v>
       </c>
-      <c r="G32" s="3">
-        <v>0.9</v>
+      <c r="G32" s="14">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0.9</v>
@@ -3185,7 +3185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -3204,8 +3204,8 @@
       <c r="F33" s="3">
         <v>0.9</v>
       </c>
-      <c r="G33" s="3">
-        <v>0.9</v>
+      <c r="G33" s="14">
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>0.9</v>
@@ -3244,7 +3244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="F34" s="3">
         <v>0.9</v>
       </c>
-      <c r="G34" s="3">
-        <v>0.9</v>
+      <c r="G34" s="14">
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>0.9</v>
@@ -3303,7 +3303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
@@ -3322,8 +3322,8 @@
       <c r="F35" s="3">
         <v>0.9</v>
       </c>
-      <c r="G35" s="3">
-        <v>0.9</v>
+      <c r="G35" s="14">
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>0.9</v>
@@ -3362,7 +3362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
@@ -3381,8 +3381,8 @@
       <c r="F36" s="3">
         <v>0.9</v>
       </c>
-      <c r="G36" s="3">
-        <v>0.9</v>
+      <c r="G36" s="14">
+        <v>0</v>
       </c>
       <c r="H36" s="3">
         <v>0.9</v>
@@ -3421,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -3440,8 +3440,8 @@
       <c r="F37" s="3">
         <v>0.9</v>
       </c>
-      <c r="G37" s="3">
-        <v>0.9</v>
+      <c r="G37" s="14">
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>0.9</v>
@@ -3480,7 +3480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>19</v>
       </c>
@@ -3499,8 +3499,8 @@
       <c r="F38" s="3">
         <v>0.9</v>
       </c>
-      <c r="G38" s="3">
-        <v>0.9</v>
+      <c r="G38" s="14">
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>0.9</v>
@@ -3539,7 +3539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
@@ -3558,8 +3558,8 @@
       <c r="F39" s="3">
         <v>0.9</v>
       </c>
-      <c r="G39" s="3">
-        <v>0.9</v>
+      <c r="G39" s="14">
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>0.9</v>
@@ -3598,7 +3598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -3617,8 +3617,8 @@
       <c r="F40" s="3">
         <v>0.9</v>
       </c>
-      <c r="G40" s="3">
-        <v>0.9</v>
+      <c r="G40" s="14">
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <v>0.9</v>
@@ -3657,7 +3657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
@@ -3676,8 +3676,8 @@
       <c r="F41" s="3">
         <v>0.9</v>
       </c>
-      <c r="G41" s="3">
-        <v>0.9</v>
+      <c r="G41" s="14">
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0.9</v>
@@ -3716,7 +3716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>19</v>
       </c>
@@ -3735,8 +3735,8 @@
       <c r="F42" s="3">
         <v>0.9</v>
       </c>
-      <c r="G42" s="3">
-        <v>0.9</v>
+      <c r="G42" s="14">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0.9</v>
@@ -3775,7 +3775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
@@ -3794,8 +3794,8 @@
       <c r="F43" s="3">
         <v>0.9</v>
       </c>
-      <c r="G43" s="3">
-        <v>0.9</v>
+      <c r="G43" s="14">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0.9</v>
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
@@ -3853,8 +3853,8 @@
       <c r="F44" s="3">
         <v>0.9</v>
       </c>
-      <c r="G44" s="3">
-        <v>0.9</v>
+      <c r="G44" s="14">
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0.9</v>
@@ -3893,7 +3893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>19</v>
       </c>
@@ -3912,8 +3912,8 @@
       <c r="F45" s="3">
         <v>0.9</v>
       </c>
-      <c r="G45" s="3">
-        <v>0.9</v>
+      <c r="G45" s="14">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0.9</v>
@@ -3952,7 +3952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>19</v>
       </c>
@@ -3971,8 +3971,8 @@
       <c r="F46" s="3">
         <v>0.9</v>
       </c>
-      <c r="G46" s="3">
-        <v>0.9</v>
+      <c r="G46" s="14">
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0.9</v>
@@ -4011,7 +4011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>19</v>
       </c>
@@ -4030,8 +4030,8 @@
       <c r="F47" s="3">
         <v>0.9</v>
       </c>
-      <c r="G47" s="3">
-        <v>0.9</v>
+      <c r="G47" s="14">
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0.9</v>
@@ -4070,7 +4070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>19</v>
       </c>
@@ -4089,8 +4089,8 @@
       <c r="F48" s="3">
         <v>0.9</v>
       </c>
-      <c r="G48" s="3">
-        <v>0.9</v>
+      <c r="G48" s="14">
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0.9</v>
@@ -4129,7 +4129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
@@ -4148,8 +4148,8 @@
       <c r="F49" s="3">
         <v>0.9</v>
       </c>
-      <c r="G49" s="3">
-        <v>0.9</v>
+      <c r="G49" s="14">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0.9</v>
@@ -4188,7 +4188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4207,8 @@
       <c r="F50" s="3">
         <v>0.9</v>
       </c>
-      <c r="G50" s="3">
-        <v>0.9</v>
+      <c r="G50" s="14">
+        <v>0</v>
       </c>
       <c r="H50" s="3">
         <v>0.9</v>
@@ -4247,7 +4247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
@@ -4266,8 +4266,8 @@
       <c r="F51" s="3">
         <v>0.9</v>
       </c>
-      <c r="G51" s="3">
-        <v>0.9</v>
+      <c r="G51" s="14">
+        <v>0</v>
       </c>
       <c r="H51" s="3">
         <v>0.9</v>
@@ -4306,7 +4306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>20</v>
       </c>
@@ -4325,8 +4325,8 @@
       <c r="F52" s="3">
         <v>0.9</v>
       </c>
-      <c r="G52" s="3">
-        <v>0.9</v>
+      <c r="G52" s="14">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0.9</v>
@@ -4365,7 +4365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -4384,8 +4384,8 @@
       <c r="F53" s="3">
         <v>0.9</v>
       </c>
-      <c r="G53" s="3">
-        <v>0.9</v>
+      <c r="G53" s="14">
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0.9</v>
@@ -4424,7 +4424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -4443,8 +4443,8 @@
       <c r="F54" s="3">
         <v>0.9</v>
       </c>
-      <c r="G54" s="3">
-        <v>0.9</v>
+      <c r="G54" s="14">
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0.9</v>
@@ -4483,7 +4483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4502,8 @@
       <c r="F55" s="3">
         <v>0.9</v>
       </c>
-      <c r="G55" s="3">
-        <v>0.9</v>
+      <c r="G55" s="14">
+        <v>0</v>
       </c>
       <c r="H55" s="3">
         <v>0.9</v>
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>20</v>
       </c>
@@ -4561,8 +4561,8 @@
       <c r="F56" s="3">
         <v>0.9</v>
       </c>
-      <c r="G56" s="3">
-        <v>0.9</v>
+      <c r="G56" s="14">
+        <v>0</v>
       </c>
       <c r="H56" s="3">
         <v>0.9</v>
@@ -4601,7 +4601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>20</v>
       </c>
@@ -4620,8 +4620,8 @@
       <c r="F57" s="3">
         <v>0.9</v>
       </c>
-      <c r="G57" s="3">
-        <v>0.9</v>
+      <c r="G57" s="14">
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0.9</v>
@@ -4660,7 +4660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
@@ -4679,8 +4679,8 @@
       <c r="F58" s="3">
         <v>0.9</v>
       </c>
-      <c r="G58" s="3">
-        <v>0.9</v>
+      <c r="G58" s="14">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0.9</v>
@@ -4719,7 +4719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>20</v>
       </c>
@@ -4738,8 +4738,8 @@
       <c r="F59" s="3">
         <v>0.9</v>
       </c>
-      <c r="G59" s="3">
-        <v>0.9</v>
+      <c r="G59" s="14">
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0.9</v>
@@ -4778,7 +4778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>20</v>
       </c>
@@ -4797,8 +4797,8 @@
       <c r="F60" s="3">
         <v>0.9</v>
       </c>
-      <c r="G60" s="3">
-        <v>0.9</v>
+      <c r="G60" s="14">
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>0.9</v>
@@ -4837,7 +4837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>20</v>
       </c>
@@ -4856,8 +4856,8 @@
       <c r="F61" s="3">
         <v>0.9</v>
       </c>
-      <c r="G61" s="3">
-        <v>0.9</v>
+      <c r="G61" s="14">
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0.9</v>
@@ -4896,7 +4896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -4915,8 +4915,8 @@
       <c r="F62" s="3">
         <v>0.9</v>
       </c>
-      <c r="G62" s="3">
-        <v>0.9</v>
+      <c r="G62" s="14">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0.9</v>
@@ -4955,7 +4955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>30</v>
       </c>
@@ -4974,8 +4974,8 @@
       <c r="F63" s="3">
         <v>0.9</v>
       </c>
-      <c r="G63" s="3">
-        <v>0.9</v>
+      <c r="G63" s="14">
+        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>0.9</v>
@@ -5014,7 +5014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -5033,8 +5033,8 @@
       <c r="F64" s="3">
         <v>0.9</v>
       </c>
-      <c r="G64" s="3">
-        <v>0.9</v>
+      <c r="G64" s="14">
+        <v>0</v>
       </c>
       <c r="H64" s="3">
         <v>0.9</v>
@@ -5073,7 +5073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>30</v>
       </c>
@@ -5092,8 +5092,8 @@
       <c r="F65" s="3">
         <v>0.9</v>
       </c>
-      <c r="G65" s="3">
-        <v>0.9</v>
+      <c r="G65" s="14">
+        <v>0</v>
       </c>
       <c r="H65" s="3">
         <v>0.9</v>
@@ -5132,7 +5132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
@@ -5151,8 +5151,8 @@
       <c r="F66" s="3">
         <v>0.9</v>
       </c>
-      <c r="G66" s="3">
-        <v>0.9</v>
+      <c r="G66" s="14">
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>0.9</v>
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>30</v>
       </c>
@@ -5210,8 +5210,8 @@
       <c r="F67" s="3">
         <v>0.9</v>
       </c>
-      <c r="G67" s="3">
-        <v>0.9</v>
+      <c r="G67" s="14">
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <v>0.9</v>
@@ -5250,7 +5250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -5269,8 +5269,8 @@
       <c r="F68" s="3">
         <v>0.9</v>
       </c>
-      <c r="G68" s="3">
-        <v>0.9</v>
+      <c r="G68" s="14">
+        <v>0</v>
       </c>
       <c r="H68" s="3">
         <v>0.9</v>
@@ -5309,7 +5309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -5328,8 +5328,8 @@
       <c r="F69" s="3">
         <v>0.9</v>
       </c>
-      <c r="G69" s="3">
-        <v>0.9</v>
+      <c r="G69" s="14">
+        <v>0</v>
       </c>
       <c r="H69" s="3">
         <v>0.9</v>
@@ -5368,7 +5368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>30</v>
       </c>
@@ -5387,8 +5387,8 @@
       <c r="F70" s="3">
         <v>0.9</v>
       </c>
-      <c r="G70" s="3">
-        <v>0.9</v>
+      <c r="G70" s="14">
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0.9</v>
@@ -5427,7 +5427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>30</v>
       </c>
@@ -5446,8 +5446,8 @@
       <c r="F71" s="3">
         <v>0.9</v>
       </c>
-      <c r="G71" s="3">
-        <v>0.9</v>
+      <c r="G71" s="14">
+        <v>0</v>
       </c>
       <c r="H71" s="3">
         <v>0.9</v>
@@ -5486,7 +5486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>30</v>
       </c>
@@ -5505,8 +5505,8 @@
       <c r="F72" s="3">
         <v>0.9</v>
       </c>
-      <c r="G72" s="3">
-        <v>0.9</v>
+      <c r="G72" s="14">
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>0.9</v>
@@ -5545,7 +5545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>30</v>
       </c>
@@ -5564,8 +5564,8 @@
       <c r="F73" s="3">
         <v>0.9</v>
       </c>
-      <c r="G73" s="3">
-        <v>0.9</v>
+      <c r="G73" s="14">
+        <v>0</v>
       </c>
       <c r="H73" s="3">
         <v>0.9</v>
@@ -5604,7 +5604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>21</v>
       </c>
@@ -5623,8 +5623,8 @@
       <c r="F74" s="3">
         <v>0.9</v>
       </c>
-      <c r="G74" s="3">
-        <v>0.9</v>
+      <c r="G74" s="14">
+        <v>0</v>
       </c>
       <c r="H74" s="3">
         <v>0.9</v>
@@ -5663,7 +5663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>21</v>
       </c>
@@ -5682,8 +5682,8 @@
       <c r="F75" s="3">
         <v>0.9</v>
       </c>
-      <c r="G75" s="3">
-        <v>0.9</v>
+      <c r="G75" s="14">
+        <v>0</v>
       </c>
       <c r="H75" s="3">
         <v>0.9</v>
@@ -5722,7 +5722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>21</v>
       </c>
@@ -5741,8 +5741,8 @@
       <c r="F76" s="3">
         <v>0.9</v>
       </c>
-      <c r="G76" s="3">
-        <v>0.9</v>
+      <c r="G76" s="14">
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>0.9</v>
@@ -5781,7 +5781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -5800,8 +5800,8 @@
       <c r="F77" s="3">
         <v>0.9</v>
       </c>
-      <c r="G77" s="3">
-        <v>0.9</v>
+      <c r="G77" s="14">
+        <v>0</v>
       </c>
       <c r="H77" s="3">
         <v>0.9</v>
@@ -5840,7 +5840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>21</v>
       </c>
@@ -5859,8 +5859,8 @@
       <c r="F78" s="3">
         <v>0.9</v>
       </c>
-      <c r="G78" s="3">
-        <v>0.9</v>
+      <c r="G78" s="14">
+        <v>0</v>
       </c>
       <c r="H78" s="3">
         <v>0.9</v>
@@ -5899,7 +5899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -5918,8 +5918,8 @@
       <c r="F79" s="3">
         <v>0.9</v>
       </c>
-      <c r="G79" s="3">
-        <v>0.9</v>
+      <c r="G79" s="14">
+        <v>0</v>
       </c>
       <c r="H79" s="3">
         <v>0.9</v>
@@ -5958,7 +5958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>21</v>
       </c>
@@ -5977,8 +5977,8 @@
       <c r="F80" s="3">
         <v>0.9</v>
       </c>
-      <c r="G80" s="3">
-        <v>0.9</v>
+      <c r="G80" s="14">
+        <v>0</v>
       </c>
       <c r="H80" s="3">
         <v>0.9</v>
@@ -6017,7 +6017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -6036,8 +6036,8 @@
       <c r="F81" s="3">
         <v>0.9</v>
       </c>
-      <c r="G81" s="3">
-        <v>0.9</v>
+      <c r="G81" s="14">
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>0.9</v>
@@ -6076,7 +6076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -6095,8 +6095,8 @@
       <c r="F82" s="3">
         <v>0.9</v>
       </c>
-      <c r="G82" s="3">
-        <v>0.9</v>
+      <c r="G82" s="14">
+        <v>0</v>
       </c>
       <c r="H82" s="3">
         <v>0.9</v>
@@ -6135,7 +6135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>21</v>
       </c>
@@ -6154,8 +6154,8 @@
       <c r="F83" s="3">
         <v>0.9</v>
       </c>
-      <c r="G83" s="3">
-        <v>0.9</v>
+      <c r="G83" s="14">
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0.9</v>
@@ -6194,7 +6194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -6213,8 +6213,8 @@
       <c r="F84" s="3">
         <v>0.9</v>
       </c>
-      <c r="G84" s="3">
-        <v>0.9</v>
+      <c r="G84" s="14">
+        <v>0</v>
       </c>
       <c r="H84" s="3">
         <v>0.9</v>
@@ -6253,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>21</v>
       </c>
@@ -6272,8 +6272,8 @@
       <c r="F85" s="3">
         <v>0.9</v>
       </c>
-      <c r="G85" s="3">
-        <v>0.9</v>
+      <c r="G85" s="14">
+        <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>0.9</v>
@@ -6312,7 +6312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>22</v>
       </c>
@@ -6331,8 +6331,8 @@
       <c r="F86" s="3">
         <v>0.9</v>
       </c>
-      <c r="G86" s="3">
-        <v>0.9</v>
+      <c r="G86" s="14">
+        <v>0</v>
       </c>
       <c r="H86" s="3">
         <v>0.9</v>
@@ -6371,7 +6371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>22</v>
       </c>
@@ -6390,8 +6390,8 @@
       <c r="F87" s="3">
         <v>0.9</v>
       </c>
-      <c r="G87" s="3">
-        <v>0.9</v>
+      <c r="G87" s="14">
+        <v>0</v>
       </c>
       <c r="H87" s="3">
         <v>0.9</v>
@@ -6430,7 +6430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>22</v>
       </c>
@@ -6449,8 +6449,8 @@
       <c r="F88" s="3">
         <v>0.9</v>
       </c>
-      <c r="G88" s="3">
-        <v>0.9</v>
+      <c r="G88" s="14">
+        <v>0</v>
       </c>
       <c r="H88" s="3">
         <v>0.9</v>
@@ -6489,7 +6489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>22</v>
       </c>
@@ -6508,8 +6508,8 @@
       <c r="F89" s="3">
         <v>0.9</v>
       </c>
-      <c r="G89" s="3">
-        <v>0.9</v>
+      <c r="G89" s="14">
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0.9</v>
@@ -6548,7 +6548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>22</v>
       </c>
@@ -6567,8 +6567,8 @@
       <c r="F90" s="3">
         <v>0.9</v>
       </c>
-      <c r="G90" s="3">
-        <v>0.9</v>
+      <c r="G90" s="14">
+        <v>0</v>
       </c>
       <c r="H90" s="3">
         <v>0.9</v>
@@ -6607,7 +6607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>22</v>
       </c>
@@ -6626,8 +6626,8 @@
       <c r="F91" s="3">
         <v>0.9</v>
       </c>
-      <c r="G91" s="3">
-        <v>0.9</v>
+      <c r="G91" s="14">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0.9</v>
@@ -6666,7 +6666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>22</v>
       </c>
@@ -6685,8 +6685,8 @@
       <c r="F92" s="3">
         <v>0.9</v>
       </c>
-      <c r="G92" s="3">
-        <v>0.9</v>
+      <c r="G92" s="14">
+        <v>0</v>
       </c>
       <c r="H92" s="3">
         <v>0.9</v>
@@ -6725,7 +6725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>22</v>
       </c>
@@ -6744,8 +6744,8 @@
       <c r="F93" s="3">
         <v>0.9</v>
       </c>
-      <c r="G93" s="3">
-        <v>0.9</v>
+      <c r="G93" s="14">
+        <v>0</v>
       </c>
       <c r="H93" s="3">
         <v>0.9</v>
@@ -6784,7 +6784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>22</v>
       </c>
@@ -6803,8 +6803,8 @@
       <c r="F94" s="3">
         <v>0.9</v>
       </c>
-      <c r="G94" s="3">
-        <v>0.9</v>
+      <c r="G94" s="14">
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0.9</v>
@@ -6843,7 +6843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>22</v>
       </c>
@@ -6862,8 +6862,8 @@
       <c r="F95" s="3">
         <v>0.9</v>
       </c>
-      <c r="G95" s="3">
-        <v>0.9</v>
+      <c r="G95" s="14">
+        <v>0</v>
       </c>
       <c r="H95" s="3">
         <v>0.9</v>
@@ -6902,7 +6902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>22</v>
       </c>
@@ -6921,8 +6921,8 @@
       <c r="F96" s="3">
         <v>0.9</v>
       </c>
-      <c r="G96" s="3">
-        <v>0.9</v>
+      <c r="G96" s="14">
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0.9</v>
@@ -6961,7 +6961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>22</v>
       </c>
@@ -6980,8 +6980,8 @@
       <c r="F97" s="3">
         <v>0.9</v>
       </c>
-      <c r="G97" s="3">
-        <v>0.9</v>
+      <c r="G97" s="14">
+        <v>0</v>
       </c>
       <c r="H97" s="3">
         <v>0.9</v>
@@ -7020,7 +7020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>23</v>
       </c>
@@ -7039,8 +7039,8 @@
       <c r="F98" s="3">
         <v>0.9</v>
       </c>
-      <c r="G98" s="3">
-        <v>0.9</v>
+      <c r="G98" s="14">
+        <v>0</v>
       </c>
       <c r="H98" s="3">
         <v>0.9</v>
@@ -7079,7 +7079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>23</v>
       </c>
@@ -7098,8 +7098,8 @@
       <c r="F99" s="3">
         <v>0.9</v>
       </c>
-      <c r="G99" s="3">
-        <v>0.9</v>
+      <c r="G99" s="14">
+        <v>0</v>
       </c>
       <c r="H99" s="3">
         <v>0.9</v>
@@ -7138,7 +7138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
@@ -7157,8 +7157,8 @@
       <c r="F100" s="3">
         <v>0.9</v>
       </c>
-      <c r="G100" s="3">
-        <v>0.9</v>
+      <c r="G100" s="14">
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0.9</v>
@@ -7197,7 +7197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>23</v>
       </c>
@@ -7216,8 +7216,8 @@
       <c r="F101" s="3">
         <v>0.9</v>
       </c>
-      <c r="G101" s="3">
-        <v>0.9</v>
+      <c r="G101" s="14">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0.9</v>
@@ -7256,7 +7256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>23</v>
       </c>
@@ -7275,8 +7275,8 @@
       <c r="F102" s="3">
         <v>0.9</v>
       </c>
-      <c r="G102" s="3">
-        <v>0.9</v>
+      <c r="G102" s="14">
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0.9</v>
@@ -7315,7 +7315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>23</v>
       </c>
@@ -7334,8 +7334,8 @@
       <c r="F103" s="3">
         <v>0.9</v>
       </c>
-      <c r="G103" s="3">
-        <v>0.9</v>
+      <c r="G103" s="14">
+        <v>0</v>
       </c>
       <c r="H103" s="3">
         <v>0.9</v>
@@ -7374,7 +7374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>23</v>
       </c>
@@ -7393,8 +7393,8 @@
       <c r="F104" s="3">
         <v>0.9</v>
       </c>
-      <c r="G104" s="3">
-        <v>0.9</v>
+      <c r="G104" s="14">
+        <v>0</v>
       </c>
       <c r="H104" s="3">
         <v>0.9</v>
@@ -7433,7 +7433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>23</v>
       </c>
@@ -7452,8 +7452,8 @@
       <c r="F105" s="3">
         <v>0.9</v>
       </c>
-      <c r="G105" s="3">
-        <v>0.9</v>
+      <c r="G105" s="14">
+        <v>0</v>
       </c>
       <c r="H105" s="3">
         <v>0.9</v>
@@ -7492,7 +7492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>23</v>
       </c>
@@ -7511,8 +7511,8 @@
       <c r="F106" s="3">
         <v>0.9</v>
       </c>
-      <c r="G106" s="3">
-        <v>0.9</v>
+      <c r="G106" s="14">
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>0.9</v>
@@ -7551,7 +7551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>23</v>
       </c>
@@ -7570,8 +7570,8 @@
       <c r="F107" s="3">
         <v>0.9</v>
       </c>
-      <c r="G107" s="3">
-        <v>0.9</v>
+      <c r="G107" s="14">
+        <v>0</v>
       </c>
       <c r="H107" s="3">
         <v>0.9</v>
@@ -7610,7 +7610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>23</v>
       </c>
@@ -7629,8 +7629,8 @@
       <c r="F108" s="3">
         <v>0.9</v>
       </c>
-      <c r="G108" s="3">
-        <v>0.9</v>
+      <c r="G108" s="14">
+        <v>0</v>
       </c>
       <c r="H108" s="3">
         <v>0.9</v>
@@ -7669,7 +7669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>23</v>
       </c>
@@ -7688,8 +7688,8 @@
       <c r="F109" s="3">
         <v>0.9</v>
       </c>
-      <c r="G109" s="3">
-        <v>0.9</v>
+      <c r="G109" s="14">
+        <v>0</v>
       </c>
       <c r="H109" s="3">
         <v>0.9</v>
@@ -7728,7 +7728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>24</v>
       </c>
@@ -7747,8 +7747,8 @@
       <c r="F110" s="3">
         <v>0.9</v>
       </c>
-      <c r="G110" s="3">
-        <v>0.9</v>
+      <c r="G110" s="14">
+        <v>0</v>
       </c>
       <c r="H110" s="3">
         <v>0.9</v>
@@ -7787,7 +7787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>24</v>
       </c>
@@ -7806,8 +7806,8 @@
       <c r="F111" s="3">
         <v>0.9</v>
       </c>
-      <c r="G111" s="3">
-        <v>0.9</v>
+      <c r="G111" s="14">
+        <v>0</v>
       </c>
       <c r="H111" s="3">
         <v>0.9</v>
@@ -7846,7 +7846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>24</v>
       </c>
@@ -7865,8 +7865,8 @@
       <c r="F112" s="3">
         <v>0.9</v>
       </c>
-      <c r="G112" s="3">
-        <v>0.9</v>
+      <c r="G112" s="14">
+        <v>0</v>
       </c>
       <c r="H112" s="3">
         <v>0.9</v>
@@ -7905,7 +7905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>24</v>
       </c>
@@ -7924,8 +7924,8 @@
       <c r="F113" s="3">
         <v>0.9</v>
       </c>
-      <c r="G113" s="3">
-        <v>0.9</v>
+      <c r="G113" s="14">
+        <v>0</v>
       </c>
       <c r="H113" s="3">
         <v>0.9</v>
@@ -7964,7 +7964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>24</v>
       </c>
@@ -7983,8 +7983,8 @@
       <c r="F114" s="3">
         <v>0.9</v>
       </c>
-      <c r="G114" s="3">
-        <v>0.9</v>
+      <c r="G114" s="14">
+        <v>0</v>
       </c>
       <c r="H114" s="3">
         <v>0.9</v>
@@ -8023,7 +8023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>24</v>
       </c>
@@ -8042,8 +8042,8 @@
       <c r="F115" s="3">
         <v>0.9</v>
       </c>
-      <c r="G115" s="3">
-        <v>0.9</v>
+      <c r="G115" s="14">
+        <v>0</v>
       </c>
       <c r="H115" s="3">
         <v>0.9</v>
@@ -8082,7 +8082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>24</v>
       </c>
@@ -8101,8 +8101,8 @@
       <c r="F116" s="3">
         <v>0.9</v>
       </c>
-      <c r="G116" s="3">
-        <v>0.9</v>
+      <c r="G116" s="14">
+        <v>0</v>
       </c>
       <c r="H116" s="3">
         <v>0.9</v>
@@ -8141,7 +8141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>24</v>
       </c>
@@ -8160,8 +8160,8 @@
       <c r="F117" s="3">
         <v>0.9</v>
       </c>
-      <c r="G117" s="3">
-        <v>0.9</v>
+      <c r="G117" s="14">
+        <v>0</v>
       </c>
       <c r="H117" s="3">
         <v>0.9</v>
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>24</v>
       </c>
@@ -8219,8 +8219,8 @@
       <c r="F118" s="3">
         <v>0.9</v>
       </c>
-      <c r="G118" s="3">
-        <v>0.9</v>
+      <c r="G118" s="14">
+        <v>0</v>
       </c>
       <c r="H118" s="3">
         <v>0.9</v>
@@ -8259,7 +8259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>24</v>
       </c>
@@ -8278,8 +8278,8 @@
       <c r="F119" s="3">
         <v>0.9</v>
       </c>
-      <c r="G119" s="3">
-        <v>0.9</v>
+      <c r="G119" s="14">
+        <v>0</v>
       </c>
       <c r="H119" s="3">
         <v>0.9</v>
@@ -8318,7 +8318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>24</v>
       </c>
@@ -8337,8 +8337,8 @@
       <c r="F120" s="3">
         <v>0.9</v>
       </c>
-      <c r="G120" s="3">
-        <v>0.9</v>
+      <c r="G120" s="14">
+        <v>0</v>
       </c>
       <c r="H120" s="3">
         <v>0.9</v>
@@ -8377,7 +8377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>24</v>
       </c>
@@ -8396,8 +8396,8 @@
       <c r="F121" s="3">
         <v>0.9</v>
       </c>
-      <c r="G121" s="3">
-        <v>0.9</v>
+      <c r="G121" s="14">
+        <v>0</v>
       </c>
       <c r="H121" s="3">
         <v>0.9</v>
@@ -8436,7 +8436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>25</v>
       </c>
@@ -8455,8 +8455,8 @@
       <c r="F122" s="3">
         <v>0.9</v>
       </c>
-      <c r="G122" s="3">
-        <v>0.9</v>
+      <c r="G122" s="14">
+        <v>0</v>
       </c>
       <c r="H122" s="3">
         <v>0.9</v>
@@ -8495,7 +8495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>25</v>
       </c>
@@ -8514,8 +8514,8 @@
       <c r="F123" s="3">
         <v>0.9</v>
       </c>
-      <c r="G123" s="3">
-        <v>0.9</v>
+      <c r="G123" s="14">
+        <v>0</v>
       </c>
       <c r="H123" s="3">
         <v>0.9</v>
@@ -8554,7 +8554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>25</v>
       </c>
@@ -8573,8 +8573,8 @@
       <c r="F124" s="3">
         <v>0.9</v>
       </c>
-      <c r="G124" s="3">
-        <v>0.9</v>
+      <c r="G124" s="14">
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>0.9</v>
@@ -8613,7 +8613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>25</v>
       </c>
@@ -8632,8 +8632,8 @@
       <c r="F125" s="3">
         <v>0.9</v>
       </c>
-      <c r="G125" s="3">
-        <v>0.9</v>
+      <c r="G125" s="14">
+        <v>0</v>
       </c>
       <c r="H125" s="3">
         <v>0.9</v>
@@ -8672,7 +8672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>25</v>
       </c>
@@ -8691,8 +8691,8 @@
       <c r="F126" s="3">
         <v>0.9</v>
       </c>
-      <c r="G126" s="3">
-        <v>0.9</v>
+      <c r="G126" s="14">
+        <v>0</v>
       </c>
       <c r="H126" s="3">
         <v>0.9</v>
@@ -8731,7 +8731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>25</v>
       </c>
@@ -8750,8 +8750,8 @@
       <c r="F127" s="3">
         <v>0.9</v>
       </c>
-      <c r="G127" s="3">
-        <v>0.9</v>
+      <c r="G127" s="14">
+        <v>0</v>
       </c>
       <c r="H127" s="3">
         <v>0.9</v>
@@ -8790,7 +8790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>25</v>
       </c>
@@ -8809,8 +8809,8 @@
       <c r="F128" s="3">
         <v>0.9</v>
       </c>
-      <c r="G128" s="3">
-        <v>0.9</v>
+      <c r="G128" s="14">
+        <v>0</v>
       </c>
       <c r="H128" s="3">
         <v>0.9</v>
@@ -8849,7 +8849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>25</v>
       </c>
@@ -8868,8 +8868,8 @@
       <c r="F129" s="3">
         <v>0.9</v>
       </c>
-      <c r="G129" s="3">
-        <v>0.9</v>
+      <c r="G129" s="14">
+        <v>0</v>
       </c>
       <c r="H129" s="3">
         <v>0.9</v>
@@ -8908,7 +8908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>25</v>
       </c>
@@ -8927,8 +8927,8 @@
       <c r="F130" s="3">
         <v>0.9</v>
       </c>
-      <c r="G130" s="3">
-        <v>0.9</v>
+      <c r="G130" s="14">
+        <v>0</v>
       </c>
       <c r="H130" s="3">
         <v>0.9</v>
@@ -8967,7 +8967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>25</v>
       </c>
@@ -8986,8 +8986,8 @@
       <c r="F131" s="3">
         <v>0.9</v>
       </c>
-      <c r="G131" s="3">
-        <v>0.9</v>
+      <c r="G131" s="14">
+        <v>0</v>
       </c>
       <c r="H131" s="3">
         <v>0.9</v>
@@ -9026,7 +9026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>25</v>
       </c>
@@ -9045,8 +9045,8 @@
       <c r="F132" s="3">
         <v>0.9</v>
       </c>
-      <c r="G132" s="3">
-        <v>0.9</v>
+      <c r="G132" s="14">
+        <v>0</v>
       </c>
       <c r="H132" s="3">
         <v>0.9</v>
@@ -9085,7 +9085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>25</v>
       </c>
@@ -9104,8 +9104,8 @@
       <c r="F133" s="3">
         <v>0.9</v>
       </c>
-      <c r="G133" s="3">
-        <v>0.9</v>
+      <c r="G133" s="14">
+        <v>0</v>
       </c>
       <c r="H133" s="3">
         <v>0.9</v>
@@ -9144,7 +9144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>26</v>
       </c>
@@ -9163,8 +9163,8 @@
       <c r="F134" s="3">
         <v>0.9</v>
       </c>
-      <c r="G134" s="3">
-        <v>0.9</v>
+      <c r="G134" s="14">
+        <v>0</v>
       </c>
       <c r="H134" s="3">
         <v>0.9</v>
@@ -9203,7 +9203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>26</v>
       </c>
@@ -9222,8 +9222,8 @@
       <c r="F135" s="3">
         <v>0.9</v>
       </c>
-      <c r="G135" s="3">
-        <v>0.9</v>
+      <c r="G135" s="14">
+        <v>0</v>
       </c>
       <c r="H135" s="3">
         <v>0.9</v>
@@ -9262,7 +9262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>26</v>
       </c>
@@ -9281,8 +9281,8 @@
       <c r="F136" s="3">
         <v>0.9</v>
       </c>
-      <c r="G136" s="3">
-        <v>0.9</v>
+      <c r="G136" s="14">
+        <v>0</v>
       </c>
       <c r="H136" s="3">
         <v>0.9</v>
@@ -9321,7 +9321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>26</v>
       </c>
@@ -9340,8 +9340,8 @@
       <c r="F137" s="3">
         <v>0.9</v>
       </c>
-      <c r="G137" s="3">
-        <v>0.9</v>
+      <c r="G137" s="14">
+        <v>0</v>
       </c>
       <c r="H137" s="3">
         <v>0.9</v>
@@ -9380,7 +9380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>26</v>
       </c>
@@ -9399,8 +9399,8 @@
       <c r="F138" s="3">
         <v>0.9</v>
       </c>
-      <c r="G138" s="3">
-        <v>0.9</v>
+      <c r="G138" s="14">
+        <v>0</v>
       </c>
       <c r="H138" s="3">
         <v>0.9</v>
@@ -9439,7 +9439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>26</v>
       </c>
@@ -9458,8 +9458,8 @@
       <c r="F139" s="3">
         <v>0.9</v>
       </c>
-      <c r="G139" s="3">
-        <v>0.9</v>
+      <c r="G139" s="14">
+        <v>0</v>
       </c>
       <c r="H139" s="3">
         <v>0.9</v>
@@ -9498,7 +9498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>26</v>
       </c>
@@ -9517,8 +9517,8 @@
       <c r="F140" s="3">
         <v>0.9</v>
       </c>
-      <c r="G140" s="3">
-        <v>0.9</v>
+      <c r="G140" s="14">
+        <v>0</v>
       </c>
       <c r="H140" s="3">
         <v>0.9</v>
@@ -9557,7 +9557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>26</v>
       </c>
@@ -9576,8 +9576,8 @@
       <c r="F141" s="3">
         <v>0.9</v>
       </c>
-      <c r="G141" s="3">
-        <v>0.9</v>
+      <c r="G141" s="14">
+        <v>0</v>
       </c>
       <c r="H141" s="3">
         <v>0.9</v>
@@ -9616,7 +9616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>26</v>
       </c>
@@ -9635,8 +9635,8 @@
       <c r="F142" s="3">
         <v>0.9</v>
       </c>
-      <c r="G142" s="3">
-        <v>0.9</v>
+      <c r="G142" s="14">
+        <v>0</v>
       </c>
       <c r="H142" s="3">
         <v>0.9</v>
@@ -9675,7 +9675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>26</v>
       </c>
@@ -9694,8 +9694,8 @@
       <c r="F143" s="3">
         <v>0.9</v>
       </c>
-      <c r="G143" s="3">
-        <v>0.9</v>
+      <c r="G143" s="14">
+        <v>0</v>
       </c>
       <c r="H143" s="3">
         <v>0.9</v>
@@ -9734,7 +9734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>26</v>
       </c>
@@ -9753,8 +9753,8 @@
       <c r="F144" s="3">
         <v>0.9</v>
       </c>
-      <c r="G144" s="3">
-        <v>0.9</v>
+      <c r="G144" s="14">
+        <v>0</v>
       </c>
       <c r="H144" s="3">
         <v>0.9</v>
@@ -9793,7 +9793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>26</v>
       </c>
@@ -9812,8 +9812,8 @@
       <c r="F145" s="3">
         <v>0.9</v>
       </c>
-      <c r="G145" s="3">
-        <v>0.9</v>
+      <c r="G145" s="14">
+        <v>0</v>
       </c>
       <c r="H145" s="3">
         <v>0.9</v>
@@ -9852,7 +9852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>27</v>
       </c>
@@ -9871,8 +9871,8 @@
       <c r="F146" s="3">
         <v>1</v>
       </c>
-      <c r="G146" s="3">
-        <v>1</v>
+      <c r="G146" s="14">
+        <v>0</v>
       </c>
       <c r="H146" s="3">
         <v>1</v>
@@ -9911,7 +9911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>27</v>
       </c>
@@ -9930,8 +9930,8 @@
       <c r="F147" s="3">
         <v>1</v>
       </c>
-      <c r="G147" s="3">
-        <v>1</v>
+      <c r="G147" s="14">
+        <v>0</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -9970,7 +9970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>27</v>
       </c>
@@ -9989,8 +9989,8 @@
       <c r="F148" s="3">
         <v>1</v>
       </c>
-      <c r="G148" s="3">
-        <v>1</v>
+      <c r="G148" s="14">
+        <v>0</v>
       </c>
       <c r="H148" s="3">
         <v>1</v>
@@ -10029,7 +10029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>27</v>
       </c>
@@ -10048,8 +10048,8 @@
       <c r="F149" s="3">
         <v>1</v>
       </c>
-      <c r="G149" s="3">
-        <v>1</v>
+      <c r="G149" s="14">
+        <v>0</v>
       </c>
       <c r="H149" s="3">
         <v>1</v>
@@ -10088,7 +10088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>27</v>
       </c>
@@ -10107,8 +10107,8 @@
       <c r="F150" s="3">
         <v>1</v>
       </c>
-      <c r="G150" s="3">
-        <v>1</v>
+      <c r="G150" s="14">
+        <v>0</v>
       </c>
       <c r="H150" s="3">
         <v>1</v>
@@ -10147,7 +10147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -10166,8 +10166,8 @@
       <c r="F151" s="3">
         <v>1</v>
       </c>
-      <c r="G151" s="3">
-        <v>1</v>
+      <c r="G151" s="14">
+        <v>0</v>
       </c>
       <c r="H151" s="3">
         <v>1</v>
@@ -10206,7 +10206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>27</v>
       </c>
@@ -10225,8 +10225,8 @@
       <c r="F152" s="3">
         <v>1</v>
       </c>
-      <c r="G152" s="3">
-        <v>1</v>
+      <c r="G152" s="14">
+        <v>0</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -10265,7 +10265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>27</v>
       </c>
@@ -10284,8 +10284,8 @@
       <c r="F153" s="3">
         <v>1</v>
       </c>
-      <c r="G153" s="3">
-        <v>1</v>
+      <c r="G153" s="14">
+        <v>0</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -10324,7 +10324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>27</v>
       </c>
@@ -10343,8 +10343,8 @@
       <c r="F154" s="3">
         <v>1</v>
       </c>
-      <c r="G154" s="3">
-        <v>1</v>
+      <c r="G154" s="14">
+        <v>0</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
@@ -10383,7 +10383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>27</v>
       </c>
@@ -10402,8 +10402,8 @@
       <c r="F155" s="3">
         <v>1</v>
       </c>
-      <c r="G155" s="3">
-        <v>1</v>
+      <c r="G155" s="14">
+        <v>0</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -10442,7 +10442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>27</v>
       </c>
@@ -10461,8 +10461,8 @@
       <c r="F156" s="3">
         <v>1</v>
       </c>
-      <c r="G156" s="3">
-        <v>1</v>
+      <c r="G156" s="14">
+        <v>0</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
@@ -10501,7 +10501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>27</v>
       </c>
@@ -10520,8 +10520,8 @@
       <c r="F157" s="3">
         <v>1</v>
       </c>
-      <c r="G157" s="3">
-        <v>1</v>
+      <c r="G157" s="14">
+        <v>0</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
@@ -10560,7 +10560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>28</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="F158" s="3">
         <v>0</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G158" s="14">
         <v>0</v>
       </c>
       <c r="H158" s="3">
@@ -10619,7 +10619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>28</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="F159" s="3">
         <v>0</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="14">
         <v>0</v>
       </c>
       <c r="H159" s="3">
@@ -10678,7 +10678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>28</v>
       </c>
@@ -10697,7 +10697,7 @@
       <c r="F160" s="3">
         <v>0</v>
       </c>
-      <c r="G160" s="3">
+      <c r="G160" s="14">
         <v>0</v>
       </c>
       <c r="H160" s="3">
@@ -10737,7 +10737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>28</v>
       </c>
@@ -10756,7 +10756,7 @@
       <c r="F161" s="3">
         <v>0</v>
       </c>
-      <c r="G161" s="3">
+      <c r="G161" s="14">
         <v>0</v>
       </c>
       <c r="H161" s="3">
@@ -10796,7 +10796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>28</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="F162" s="3">
         <v>0</v>
       </c>
-      <c r="G162" s="3">
+      <c r="G162" s="14">
         <v>0</v>
       </c>
       <c r="H162" s="3">
@@ -10855,7 +10855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>28</v>
       </c>
@@ -10874,7 +10874,7 @@
       <c r="F163" s="3">
         <v>0</v>
       </c>
-      <c r="G163" s="3">
+      <c r="G163" s="14">
         <v>0</v>
       </c>
       <c r="H163" s="3">
@@ -10914,7 +10914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>28</v>
       </c>
@@ -10933,7 +10933,7 @@
       <c r="F164" s="3">
         <v>0</v>
       </c>
-      <c r="G164" s="3">
+      <c r="G164" s="14">
         <v>0</v>
       </c>
       <c r="H164" s="3">
@@ -10973,7 +10973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>28</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="F165" s="3">
         <v>0</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G165" s="14">
         <v>0</v>
       </c>
       <c r="H165" s="3">
@@ -11032,7 +11032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>28</v>
       </c>
@@ -11051,7 +11051,7 @@
       <c r="F166" s="3">
         <v>0</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G166" s="14">
         <v>0</v>
       </c>
       <c r="H166" s="3">
@@ -11091,7 +11091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>28</v>
       </c>
@@ -11110,7 +11110,7 @@
       <c r="F167" s="3">
         <v>0</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G167" s="14">
         <v>0</v>
       </c>
       <c r="H167" s="3">
@@ -11150,7 +11150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>28</v>
       </c>
@@ -11169,7 +11169,7 @@
       <c r="F168" s="3">
         <v>0</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G168" s="14">
         <v>0</v>
       </c>
       <c r="H168" s="3">
@@ -11209,7 +11209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>28</v>
       </c>
@@ -11228,7 +11228,7 @@
       <c r="F169" s="3">
         <v>0</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G169" s="14">
         <v>0</v>
       </c>
       <c r="H169" s="3">
@@ -11268,7 +11268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>29</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="F170" s="3">
         <v>0</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G170" s="14">
         <v>0</v>
       </c>
       <c r="H170" s="3">
@@ -11327,7 +11327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>29</v>
       </c>
@@ -11346,7 +11346,7 @@
       <c r="F171" s="3">
         <v>0</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G171" s="14">
         <v>0</v>
       </c>
       <c r="H171" s="3">
@@ -11386,7 +11386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>29</v>
       </c>
@@ -11405,7 +11405,7 @@
       <c r="F172" s="3">
         <v>0</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G172" s="14">
         <v>0</v>
       </c>
       <c r="H172" s="3">
@@ -11445,7 +11445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>29</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="F173" s="3">
         <v>0</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G173" s="14">
         <v>0</v>
       </c>
       <c r="H173" s="3">
@@ -11504,7 +11504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>29</v>
       </c>
@@ -11523,7 +11523,7 @@
       <c r="F174" s="3">
         <v>0</v>
       </c>
-      <c r="G174" s="3">
+      <c r="G174" s="14">
         <v>0</v>
       </c>
       <c r="H174" s="3">
@@ -11563,7 +11563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>29</v>
       </c>
@@ -11582,7 +11582,7 @@
       <c r="F175" s="3">
         <v>0</v>
       </c>
-      <c r="G175" s="3">
+      <c r="G175" s="14">
         <v>0</v>
       </c>
       <c r="H175" s="3">
@@ -11622,7 +11622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>29</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="F176" s="3">
         <v>0</v>
       </c>
-      <c r="G176" s="3">
+      <c r="G176" s="14">
         <v>0</v>
       </c>
       <c r="H176" s="3">
@@ -11681,7 +11681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>29</v>
       </c>
@@ -11700,7 +11700,7 @@
       <c r="F177" s="3">
         <v>0</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G177" s="14">
         <v>0</v>
       </c>
       <c r="H177" s="3">
@@ -11740,7 +11740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>29</v>
       </c>
@@ -11759,7 +11759,7 @@
       <c r="F178" s="3">
         <v>0</v>
       </c>
-      <c r="G178" s="3">
+      <c r="G178" s="14">
         <v>0</v>
       </c>
       <c r="H178" s="3">
@@ -11799,7 +11799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>29</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="F179" s="3">
         <v>0</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G179" s="14">
         <v>0</v>
       </c>
       <c r="H179" s="3">
@@ -11858,7 +11858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>29</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="F180" s="3">
         <v>0</v>
       </c>
-      <c r="G180" s="3">
+      <c r="G180" s="14">
         <v>0</v>
       </c>
       <c r="H180" s="3">
@@ -11917,7 +11917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>29</v>
       </c>
@@ -11936,7 +11936,7 @@
       <c r="F181" s="3">
         <v>0</v>
       </c>
-      <c r="G181" s="3">
+      <c r="G181" s="14">
         <v>0</v>
       </c>
       <c r="H181" s="3">
@@ -11976,7 +11976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>39</v>
       </c>
@@ -11997,9 +11997,8 @@
         <f>F86</f>
         <v>0.9</v>
       </c>
-      <c r="G182" s="3">
-        <f>G86</f>
-        <v>0.9</v>
+      <c r="G182" s="14">
+        <v>0</v>
       </c>
       <c r="H182" s="3">
         <f>H86</f>
@@ -12044,7 +12043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>39</v>
       </c>
@@ -12065,12 +12064,11 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G183" s="3">
-        <f t="shared" ref="G183:H193" si="2">G87</f>
-        <v>0.9</v>
+      <c r="G183" s="14">
+        <v>0</v>
       </c>
       <c r="H183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G183:H193" si="2">H87</f>
         <v>0.9</v>
       </c>
       <c r="I183" s="11">
@@ -12112,7 +12110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>39</v>
       </c>
@@ -12133,9 +12131,8 @@
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="G184" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G184" s="14">
+        <v>0</v>
       </c>
       <c r="H184" s="3">
         <f t="shared" si="2"/>
@@ -12180,7 +12177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>39</v>
       </c>
@@ -12201,9 +12198,8 @@
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
-      <c r="G185" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G185" s="14">
+        <v>0</v>
       </c>
       <c r="H185" s="3">
         <f t="shared" si="2"/>
@@ -12248,7 +12244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>39</v>
       </c>
@@ -12269,9 +12265,8 @@
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="G186" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G186" s="14">
+        <v>0</v>
       </c>
       <c r="H186" s="3">
         <f t="shared" si="2"/>
@@ -12316,7 +12311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>39</v>
       </c>
@@ -12337,9 +12332,8 @@
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="G187" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G187" s="14">
+        <v>0</v>
       </c>
       <c r="H187" s="3">
         <f t="shared" si="2"/>
@@ -12384,7 +12378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>39</v>
       </c>
@@ -12405,9 +12399,8 @@
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="G188" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G188" s="14">
+        <v>0</v>
       </c>
       <c r="H188" s="3">
         <f t="shared" si="2"/>
@@ -12452,7 +12445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>39</v>
       </c>
@@ -12473,9 +12466,8 @@
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="G189" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G189" s="14">
+        <v>0</v>
       </c>
       <c r="H189" s="3">
         <f t="shared" si="2"/>
@@ -12520,7 +12512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>39</v>
       </c>
@@ -12541,9 +12533,8 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="G190" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G190" s="14">
+        <v>0</v>
       </c>
       <c r="H190" s="3">
         <f t="shared" si="2"/>
@@ -12588,7 +12579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>39</v>
       </c>
@@ -12609,9 +12600,8 @@
         <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
-      <c r="G191" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G191" s="14">
+        <v>0</v>
       </c>
       <c r="H191" s="3">
         <f t="shared" si="2"/>
@@ -12656,7 +12646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>39</v>
       </c>
@@ -12677,9 +12667,8 @@
         <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
-      <c r="G192" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G192" s="14">
+        <v>0</v>
       </c>
       <c r="H192" s="3">
         <f t="shared" si="2"/>
@@ -12724,7 +12713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>39</v>
       </c>
@@ -12745,9 +12734,8 @@
         <f t="shared" si="14"/>
         <v>0.9</v>
       </c>
-      <c r="G193" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
+      <c r="G193" s="14">
+        <v>0</v>
       </c>
       <c r="H193" s="3">
         <f t="shared" si="2"/>
@@ -12792,7 +12780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>40</v>
       </c>
@@ -12813,12 +12801,11 @@
         <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
-      <c r="G194" s="3">
-        <f t="shared" ref="G194:H205" si="16">G182</f>
-        <v>0.9</v>
+      <c r="G194" s="14">
+        <v>0</v>
       </c>
       <c r="H194" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G194:H205" si="16">H182</f>
         <v>0.9</v>
       </c>
       <c r="I194" s="11">
@@ -12856,7 +12843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>40</v>
       </c>
@@ -12877,9 +12864,8 @@
         <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
-      <c r="G195" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G195" s="14">
+        <v>0</v>
       </c>
       <c r="H195" s="3">
         <f t="shared" si="16"/>
@@ -12920,7 +12906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>40</v>
       </c>
@@ -12941,9 +12927,8 @@
         <f t="shared" si="18"/>
         <v>0.9</v>
       </c>
-      <c r="G196" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G196" s="14">
+        <v>0</v>
       </c>
       <c r="H196" s="3">
         <f t="shared" si="16"/>
@@ -12984,7 +12969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>40</v>
       </c>
@@ -13005,9 +12990,8 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
-      <c r="G197" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G197" s="14">
+        <v>0</v>
       </c>
       <c r="H197" s="3">
         <f t="shared" si="16"/>
@@ -13048,7 +13032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>40</v>
       </c>
@@ -13069,9 +13053,8 @@
         <f t="shared" si="20"/>
         <v>0.9</v>
       </c>
-      <c r="G198" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G198" s="14">
+        <v>0</v>
       </c>
       <c r="H198" s="3">
         <f t="shared" si="16"/>
@@ -13112,7 +13095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>40</v>
       </c>
@@ -13133,9 +13116,8 @@
         <f t="shared" si="21"/>
         <v>0.9</v>
       </c>
-      <c r="G199" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G199" s="14">
+        <v>0</v>
       </c>
       <c r="H199" s="3">
         <f t="shared" si="16"/>
@@ -13176,7 +13158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>40</v>
       </c>
@@ -13197,9 +13179,8 @@
         <f t="shared" si="22"/>
         <v>0.9</v>
       </c>
-      <c r="G200" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G200" s="14">
+        <v>0</v>
       </c>
       <c r="H200" s="3">
         <f t="shared" si="16"/>
@@ -13240,7 +13221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>40</v>
       </c>
@@ -13261,9 +13242,8 @@
         <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
-      <c r="G201" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G201" s="14">
+        <v>0</v>
       </c>
       <c r="H201" s="3">
         <f t="shared" si="16"/>
@@ -13304,7 +13284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>40</v>
       </c>
@@ -13325,9 +13305,8 @@
         <f t="shared" si="24"/>
         <v>0.9</v>
       </c>
-      <c r="G202" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G202" s="14">
+        <v>0</v>
       </c>
       <c r="H202" s="3">
         <f t="shared" si="16"/>
@@ -13368,7 +13347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>40</v>
       </c>
@@ -13389,9 +13368,8 @@
         <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
-      <c r="G203" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G203" s="14">
+        <v>0</v>
       </c>
       <c r="H203" s="3">
         <f t="shared" si="16"/>
@@ -13432,7 +13410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>40</v>
       </c>
@@ -13453,9 +13431,8 @@
         <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
-      <c r="G204" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G204" s="14">
+        <v>0</v>
       </c>
       <c r="H204" s="3">
         <f t="shared" si="16"/>
@@ -13496,7 +13473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>40</v>
       </c>
@@ -13517,9 +13494,8 @@
         <f t="shared" si="27"/>
         <v>0.9</v>
       </c>
-      <c r="G205" s="3">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+      <c r="G205" s="14">
+        <v>0</v>
       </c>
       <c r="H205" s="3">
         <f t="shared" si="16"/>
@@ -13560,7 +13536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>41</v>
       </c>
@@ -13579,8 +13555,8 @@
       <c r="F206" s="3">
         <v>0.9</v>
       </c>
-      <c r="G206" s="3">
-        <v>0.9</v>
+      <c r="G206" s="14">
+        <v>0</v>
       </c>
       <c r="H206" s="3">
         <v>0.9</v>
@@ -13619,7 +13595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>41</v>
       </c>
@@ -13638,8 +13614,8 @@
       <c r="F207" s="3">
         <v>0.9</v>
       </c>
-      <c r="G207" s="3">
-        <v>0.9</v>
+      <c r="G207" s="14">
+        <v>0</v>
       </c>
       <c r="H207" s="3">
         <v>0.9</v>
@@ -13678,7 +13654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>41</v>
       </c>
@@ -13697,8 +13673,8 @@
       <c r="F208" s="3">
         <v>0.9</v>
       </c>
-      <c r="G208" s="3">
-        <v>0.9</v>
+      <c r="G208" s="14">
+        <v>0</v>
       </c>
       <c r="H208" s="3">
         <v>0.9</v>
@@ -13737,7 +13713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>41</v>
       </c>
@@ -13756,8 +13732,8 @@
       <c r="F209" s="3">
         <v>0.9</v>
       </c>
-      <c r="G209" s="3">
-        <v>0.9</v>
+      <c r="G209" s="14">
+        <v>0</v>
       </c>
       <c r="H209" s="3">
         <v>0.9</v>
@@ -13796,7 +13772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>41</v>
       </c>
@@ -13815,8 +13791,8 @@
       <c r="F210" s="3">
         <v>0.9</v>
       </c>
-      <c r="G210" s="3">
-        <v>0.9</v>
+      <c r="G210" s="14">
+        <v>0</v>
       </c>
       <c r="H210" s="3">
         <v>0.9</v>
@@ -13855,7 +13831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>41</v>
       </c>
@@ -13874,8 +13850,8 @@
       <c r="F211" s="3">
         <v>0.9</v>
       </c>
-      <c r="G211" s="3">
-        <v>0.9</v>
+      <c r="G211" s="14">
+        <v>0</v>
       </c>
       <c r="H211" s="3">
         <v>0.9</v>
@@ -13914,7 +13890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>41</v>
       </c>
@@ -13933,8 +13909,8 @@
       <c r="F212" s="3">
         <v>0.9</v>
       </c>
-      <c r="G212" s="3">
-        <v>0.9</v>
+      <c r="G212" s="14">
+        <v>0</v>
       </c>
       <c r="H212" s="3">
         <v>0.9</v>
@@ -13973,7 +13949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>41</v>
       </c>
@@ -13992,8 +13968,8 @@
       <c r="F213" s="3">
         <v>0.9</v>
       </c>
-      <c r="G213" s="3">
-        <v>0.9</v>
+      <c r="G213" s="14">
+        <v>0</v>
       </c>
       <c r="H213" s="3">
         <v>0.9</v>
@@ -14032,7 +14008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>41</v>
       </c>
@@ -14051,8 +14027,8 @@
       <c r="F214" s="3">
         <v>0.9</v>
       </c>
-      <c r="G214" s="3">
-        <v>0.9</v>
+      <c r="G214" s="14">
+        <v>0</v>
       </c>
       <c r="H214" s="3">
         <v>0.9</v>
@@ -14091,7 +14067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>41</v>
       </c>
@@ -14110,8 +14086,8 @@
       <c r="F215" s="3">
         <v>0.9</v>
       </c>
-      <c r="G215" s="3">
-        <v>0.9</v>
+      <c r="G215" s="14">
+        <v>0</v>
       </c>
       <c r="H215" s="3">
         <v>0.9</v>
@@ -14150,7 +14126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>41</v>
       </c>
@@ -14169,8 +14145,8 @@
       <c r="F216" s="3">
         <v>0.9</v>
       </c>
-      <c r="G216" s="3">
-        <v>0.9</v>
+      <c r="G216" s="14">
+        <v>0</v>
       </c>
       <c r="H216" s="3">
         <v>0.9</v>
@@ -14209,7 +14185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>41</v>
       </c>
@@ -14228,8 +14204,8 @@
       <c r="F217" s="3">
         <v>0.9</v>
       </c>
-      <c r="G217" s="3">
-        <v>0.9</v>
+      <c r="G217" s="14">
+        <v>0</v>
       </c>
       <c r="H217" s="3">
         <v>0.9</v>
@@ -14268,7 +14244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>73</v>
       </c>
@@ -14287,8 +14263,8 @@
       <c r="F218" s="3">
         <v>0.9</v>
       </c>
-      <c r="G218" s="3">
-        <v>0.9</v>
+      <c r="G218" s="14">
+        <v>0</v>
       </c>
       <c r="H218" s="3">
         <v>0.9</v>
@@ -14327,7 +14303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>73</v>
       </c>
@@ -14346,8 +14322,8 @@
       <c r="F219" s="3">
         <v>0.9</v>
       </c>
-      <c r="G219" s="3">
-        <v>0.9</v>
+      <c r="G219" s="14">
+        <v>0</v>
       </c>
       <c r="H219" s="3">
         <v>0.9</v>
@@ -14386,7 +14362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>73</v>
       </c>
@@ -14405,8 +14381,8 @@
       <c r="F220" s="3">
         <v>0.9</v>
       </c>
-      <c r="G220" s="3">
-        <v>0.9</v>
+      <c r="G220" s="14">
+        <v>0</v>
       </c>
       <c r="H220" s="3">
         <v>0.9</v>
@@ -14445,7 +14421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>73</v>
       </c>
@@ -14464,8 +14440,8 @@
       <c r="F221" s="3">
         <v>0.9</v>
       </c>
-      <c r="G221" s="3">
-        <v>0.9</v>
+      <c r="G221" s="14">
+        <v>0</v>
       </c>
       <c r="H221" s="3">
         <v>0.9</v>
@@ -14504,7 +14480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>73</v>
       </c>
@@ -14523,8 +14499,8 @@
       <c r="F222" s="3">
         <v>0.9</v>
       </c>
-      <c r="G222" s="3">
-        <v>0.9</v>
+      <c r="G222" s="14">
+        <v>0</v>
       </c>
       <c r="H222" s="3">
         <v>0.9</v>
@@ -14563,7 +14539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>73</v>
       </c>
@@ -14582,8 +14558,8 @@
       <c r="F223" s="3">
         <v>0.9</v>
       </c>
-      <c r="G223" s="3">
-        <v>0.9</v>
+      <c r="G223" s="14">
+        <v>0</v>
       </c>
       <c r="H223" s="3">
         <v>0.9</v>
@@ -14622,7 +14598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>73</v>
       </c>
@@ -14641,8 +14617,8 @@
       <c r="F224" s="3">
         <v>0.9</v>
       </c>
-      <c r="G224" s="3">
-        <v>0.9</v>
+      <c r="G224" s="14">
+        <v>0</v>
       </c>
       <c r="H224" s="3">
         <v>0.9</v>
@@ -14681,7 +14657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>73</v>
       </c>
@@ -14700,8 +14676,8 @@
       <c r="F225" s="3">
         <v>0.9</v>
       </c>
-      <c r="G225" s="3">
-        <v>0.9</v>
+      <c r="G225" s="14">
+        <v>0</v>
       </c>
       <c r="H225" s="3">
         <v>0.9</v>
@@ -14740,7 +14716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>73</v>
       </c>
@@ -14759,8 +14735,8 @@
       <c r="F226" s="3">
         <v>0.9</v>
       </c>
-      <c r="G226" s="3">
-        <v>0.9</v>
+      <c r="G226" s="14">
+        <v>0</v>
       </c>
       <c r="H226" s="3">
         <v>0.9</v>
@@ -14799,7 +14775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>73</v>
       </c>
@@ -14818,8 +14794,8 @@
       <c r="F227" s="3">
         <v>0.9</v>
       </c>
-      <c r="G227" s="3">
-        <v>0.9</v>
+      <c r="G227" s="14">
+        <v>0</v>
       </c>
       <c r="H227" s="3">
         <v>0.9</v>
@@ -14858,7 +14834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>73</v>
       </c>
@@ -14877,8 +14853,8 @@
       <c r="F228" s="3">
         <v>0.9</v>
       </c>
-      <c r="G228" s="3">
-        <v>0.9</v>
+      <c r="G228" s="14">
+        <v>0</v>
       </c>
       <c r="H228" s="3">
         <v>0.9</v>
@@ -14917,7 +14893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>73</v>
       </c>
@@ -14936,8 +14912,8 @@
       <c r="F229" s="3">
         <v>0.9</v>
       </c>
-      <c r="G229" s="3">
-        <v>0.9</v>
+      <c r="G229" s="14">
+        <v>0</v>
       </c>
       <c r="H229" s="3">
         <v>0.9</v>
@@ -14993,19 +14969,19 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -15031,7 +15007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -15057,7 +15033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -15083,7 +15059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -15109,7 +15085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -15135,7 +15111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -15161,7 +15137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -15187,7 +15163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -15213,7 +15189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -15239,7 +15215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -15265,7 +15241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -15291,7 +15267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -15317,7 +15293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -15343,7 +15319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -15369,7 +15345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -15395,7 +15371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -15421,7 +15397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -15447,7 +15423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -15473,7 +15449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -15499,7 +15475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -15525,7 +15501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -15551,7 +15527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -15577,7 +15553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -15603,7 +15579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -15629,7 +15605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -15655,7 +15631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -15681,7 +15657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -15707,7 +15683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -15733,7 +15709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -15759,7 +15735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -15785,7 +15761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -15811,7 +15787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -15837,7 +15813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -15863,7 +15839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -15889,7 +15865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
@@ -15915,7 +15891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
@@ -15941,7 +15917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -15967,7 +15943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>19</v>
       </c>
@@ -15993,7 +15969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
@@ -16019,7 +15995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -16045,7 +16021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
@@ -16071,7 +16047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>19</v>
       </c>
@@ -16097,7 +16073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
@@ -16123,7 +16099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
@@ -16149,7 +16125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>19</v>
       </c>
@@ -16175,7 +16151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>19</v>
       </c>
@@ -16201,7 +16177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>19</v>
       </c>
@@ -16227,7 +16203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>19</v>
       </c>
@@ -16253,7 +16229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
@@ -16279,7 +16255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
@@ -16305,7 +16281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
@@ -16331,7 +16307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>20</v>
       </c>
@@ -16357,7 +16333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -16383,7 +16359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -16409,7 +16385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>20</v>
       </c>
@@ -16435,7 +16411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>20</v>
       </c>
@@ -16461,7 +16437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>20</v>
       </c>
@@ -16487,7 +16463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
@@ -16513,7 +16489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>20</v>
       </c>
@@ -16539,7 +16515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>20</v>
       </c>
@@ -16565,7 +16541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>20</v>
       </c>
@@ -16591,7 +16567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -16617,7 +16593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>30</v>
       </c>
@@ -16643,7 +16619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -16669,7 +16645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>30</v>
       </c>
@@ -16695,7 +16671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
@@ -16721,7 +16697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>30</v>
       </c>
@@ -16747,7 +16723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -16773,7 +16749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -16799,7 +16775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>30</v>
       </c>
@@ -16825,7 +16801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>30</v>
       </c>
@@ -16851,7 +16827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>30</v>
       </c>
@@ -16877,7 +16853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>30</v>
       </c>
@@ -16903,7 +16879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>21</v>
       </c>
@@ -16929,7 +16905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>21</v>
       </c>
@@ -16955,7 +16931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>21</v>
       </c>
@@ -16981,7 +16957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -17007,7 +16983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>21</v>
       </c>
@@ -17033,7 +17009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -17059,7 +17035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>21</v>
       </c>
@@ -17085,7 +17061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -17111,7 +17087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -17137,7 +17113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>21</v>
       </c>
@@ -17163,7 +17139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -17189,7 +17165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>21</v>
       </c>
@@ -17215,7 +17191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>22</v>
       </c>
@@ -17241,7 +17217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>22</v>
       </c>
@@ -17267,7 +17243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>22</v>
       </c>
@@ -17293,7 +17269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>22</v>
       </c>
@@ -17319,7 +17295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>22</v>
       </c>
@@ -17345,7 +17321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>22</v>
       </c>
@@ -17371,7 +17347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>22</v>
       </c>
@@ -17397,7 +17373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>22</v>
       </c>
@@ -17423,7 +17399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>22</v>
       </c>
@@ -17449,7 +17425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>22</v>
       </c>
@@ -17475,7 +17451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>22</v>
       </c>
@@ -17501,7 +17477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>22</v>
       </c>
@@ -17527,7 +17503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>23</v>
       </c>
@@ -17553,7 +17529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>23</v>
       </c>
@@ -17579,7 +17555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
@@ -17605,7 +17581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>23</v>
       </c>
@@ -17631,7 +17607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>23</v>
       </c>
@@ -17657,7 +17633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>23</v>
       </c>
@@ -17683,7 +17659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>23</v>
       </c>
@@ -17709,7 +17685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>23</v>
       </c>
@@ -17735,7 +17711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>23</v>
       </c>
@@ -17761,7 +17737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>23</v>
       </c>
@@ -17787,7 +17763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>23</v>
       </c>
@@ -17813,7 +17789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>23</v>
       </c>
@@ -17839,7 +17815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>24</v>
       </c>
@@ -17865,7 +17841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>24</v>
       </c>
@@ -17891,7 +17867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>24</v>
       </c>
@@ -17917,7 +17893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>24</v>
       </c>
@@ -17943,7 +17919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>24</v>
       </c>
@@ -17969,7 +17945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>24</v>
       </c>
@@ -17995,7 +17971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>24</v>
       </c>
@@ -18021,7 +17997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>24</v>
       </c>
@@ -18047,7 +18023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>24</v>
       </c>
@@ -18073,7 +18049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>24</v>
       </c>
@@ -18099,7 +18075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>24</v>
       </c>
@@ -18125,7 +18101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>24</v>
       </c>
@@ -18151,7 +18127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>25</v>
       </c>
@@ -18177,7 +18153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>25</v>
       </c>
@@ -18203,7 +18179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>25</v>
       </c>
@@ -18229,7 +18205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>25</v>
       </c>
@@ -18255,7 +18231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>25</v>
       </c>
@@ -18281,7 +18257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>25</v>
       </c>
@@ -18307,7 +18283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>25</v>
       </c>
@@ -18333,7 +18309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>25</v>
       </c>
@@ -18359,7 +18335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>25</v>
       </c>
@@ -18385,7 +18361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>25</v>
       </c>
@@ -18411,7 +18387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>25</v>
       </c>
@@ -18437,7 +18413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>25</v>
       </c>
@@ -18463,7 +18439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>26</v>
       </c>
@@ -18489,7 +18465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>26</v>
       </c>
@@ -18515,7 +18491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>26</v>
       </c>
@@ -18541,7 +18517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>26</v>
       </c>
@@ -18567,7 +18543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>26</v>
       </c>
@@ -18593,7 +18569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>26</v>
       </c>
@@ -18619,7 +18595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>26</v>
       </c>
@@ -18645,7 +18621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>26</v>
       </c>
@@ -18671,7 +18647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>26</v>
       </c>
@@ -18697,7 +18673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>26</v>
       </c>
@@ -18723,7 +18699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>26</v>
       </c>
@@ -18749,7 +18725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>26</v>
       </c>
@@ -18775,7 +18751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>27</v>
       </c>
@@ -18801,7 +18777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>27</v>
       </c>
@@ -18827,7 +18803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>27</v>
       </c>
@@ -18853,7 +18829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>27</v>
       </c>
@@ -18879,7 +18855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>27</v>
       </c>
@@ -18905,7 +18881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -18931,7 +18907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>27</v>
       </c>
@@ -18957,7 +18933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>27</v>
       </c>
@@ -18983,7 +18959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>27</v>
       </c>
@@ -19009,7 +18985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>27</v>
       </c>
@@ -19035,7 +19011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>27</v>
       </c>
@@ -19061,7 +19037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>27</v>
       </c>
@@ -19087,7 +19063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>28</v>
       </c>
@@ -19113,7 +19089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>28</v>
       </c>
@@ -19139,7 +19115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>28</v>
       </c>
@@ -19165,7 +19141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>28</v>
       </c>
@@ -19191,7 +19167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>28</v>
       </c>
@@ -19217,7 +19193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>28</v>
       </c>
@@ -19243,7 +19219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>28</v>
       </c>
@@ -19269,7 +19245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>28</v>
       </c>
@@ -19295,7 +19271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>28</v>
       </c>
@@ -19321,7 +19297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>28</v>
       </c>
@@ -19347,7 +19323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>28</v>
       </c>
@@ -19373,7 +19349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>28</v>
       </c>
@@ -19399,7 +19375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>29</v>
       </c>
@@ -19425,7 +19401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>29</v>
       </c>
@@ -19451,7 +19427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>29</v>
       </c>
@@ -19477,7 +19453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>29</v>
       </c>
@@ -19503,7 +19479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>29</v>
       </c>
@@ -19529,7 +19505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>29</v>
       </c>
@@ -19555,7 +19531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>29</v>
       </c>
@@ -19581,7 +19557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>29</v>
       </c>
@@ -19607,7 +19583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>29</v>
       </c>
@@ -19633,7 +19609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>29</v>
       </c>
@@ -19659,7 +19635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>29</v>
       </c>
@@ -19685,7 +19661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>29</v>
       </c>
@@ -19711,7 +19687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>39</v>
       </c>
@@ -19738,7 +19714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>39</v>
       </c>
@@ -19765,7 +19741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>39</v>
       </c>
@@ -19792,7 +19768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>39</v>
       </c>
@@ -19819,7 +19795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>39</v>
       </c>
@@ -19846,7 +19822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>39</v>
       </c>
@@ -19873,7 +19849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>39</v>
       </c>
@@ -19902,7 +19878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>39</v>
       </c>
@@ -19931,7 +19907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>39</v>
       </c>
@@ -19960,7 +19936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>39</v>
       </c>
@@ -19989,7 +19965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>39</v>
       </c>
@@ -20018,7 +19994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>39</v>
       </c>
@@ -20047,7 +20023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>40</v>
       </c>
@@ -20073,7 +20049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>40</v>
       </c>
@@ -20099,7 +20075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>40</v>
       </c>
@@ -20125,7 +20101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>40</v>
       </c>
@@ -20151,7 +20127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>40</v>
       </c>
@@ -20177,7 +20153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>40</v>
       </c>
@@ -20203,7 +20179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>40</v>
       </c>
@@ -20229,7 +20205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>40</v>
       </c>
@@ -20255,7 +20231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>40</v>
       </c>
@@ -20281,7 +20257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>40</v>
       </c>
@@ -20307,7 +20283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>40</v>
       </c>
@@ -20333,7 +20309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>40</v>
       </c>
@@ -20359,7 +20335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>41</v>
       </c>
@@ -20385,7 +20361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>41</v>
       </c>
@@ -20411,7 +20387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>41</v>
       </c>
@@ -20437,7 +20413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>41</v>
       </c>
@@ -20463,7 +20439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>41</v>
       </c>
@@ -20489,7 +20465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>41</v>
       </c>
@@ -20515,7 +20491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>41</v>
       </c>
@@ -20541,7 +20517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>41</v>
       </c>
@@ -20567,7 +20543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>41</v>
       </c>
@@ -20593,7 +20569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>41</v>
       </c>
@@ -20619,7 +20595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>41</v>
       </c>
@@ -20645,7 +20621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>41</v>
       </c>
@@ -20671,7 +20647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>73</v>
       </c>
@@ -20697,7 +20673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>73</v>
       </c>
@@ -20723,7 +20699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>73</v>
       </c>
@@ -20749,7 +20725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>73</v>
       </c>
@@ -20775,7 +20751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>73</v>
       </c>
@@ -20801,7 +20777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>73</v>
       </c>
@@ -20827,7 +20803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>73</v>
       </c>
@@ -20853,7 +20829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>73</v>
       </c>
@@ -20879,7 +20855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>73</v>
       </c>
@@ -20905,7 +20881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>73</v>
       </c>
@@ -20931,7 +20907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>73</v>
       </c>
@@ -20957,7 +20933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>73</v>
       </c>
@@ -20999,20 +20975,20 @@
       <selection pane="bottomRight" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="4"/>
-    <col min="7" max="7" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -21041,7 +21017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -21070,7 +21046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -21099,7 +21075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -21128,7 +21104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -21157,7 +21133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -21186,7 +21162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -21215,7 +21191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -21244,7 +21220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -21273,7 +21249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -21302,7 +21278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -21331,7 +21307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -21360,7 +21336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -21389,7 +21365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -21418,7 +21394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -21447,7 +21423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -21476,7 +21452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -21505,7 +21481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -21534,7 +21510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -21563,7 +21539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -21592,7 +21568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -21621,7 +21597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -21650,7 +21626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -21679,7 +21655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -21708,7 +21684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -21737,7 +21713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -21766,7 +21742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -21795,7 +21771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -21824,7 +21800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -21853,7 +21829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -21882,7 +21858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -21911,7 +21887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -21940,7 +21916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -21969,7 +21945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -21998,7 +21974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
@@ -22027,7 +22003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
@@ -22056,7 +22032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -22085,7 +22061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>19</v>
       </c>
@@ -22114,7 +22090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
@@ -22143,7 +22119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -22172,7 +22148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
@@ -22201,7 +22177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>19</v>
       </c>
@@ -22230,7 +22206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
@@ -22259,7 +22235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
@@ -22288,7 +22264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>19</v>
       </c>
@@ -22317,7 +22293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>19</v>
       </c>
@@ -22346,7 +22322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>19</v>
       </c>
@@ -22375,7 +22351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>19</v>
       </c>
@@ -22404,7 +22380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
@@ -22433,7 +22409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
@@ -22462,7 +22438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
@@ -22491,7 +22467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>20</v>
       </c>
@@ -22520,7 +22496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -22549,7 +22525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -22578,7 +22554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>20</v>
       </c>
@@ -22607,7 +22583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>20</v>
       </c>
@@ -22636,7 +22612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>20</v>
       </c>
@@ -22665,7 +22641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
@@ -22694,7 +22670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>20</v>
       </c>
@@ -22723,7 +22699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>20</v>
       </c>
@@ -22752,7 +22728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>20</v>
       </c>
@@ -22781,7 +22757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -22810,7 +22786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>30</v>
       </c>
@@ -22839,7 +22815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -22868,7 +22844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>30</v>
       </c>
@@ -22897,7 +22873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
@@ -22926,7 +22902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>30</v>
       </c>
@@ -22955,7 +22931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -22984,7 +22960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -23013,7 +22989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>30</v>
       </c>
@@ -23042,7 +23018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>30</v>
       </c>
@@ -23071,7 +23047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>30</v>
       </c>
@@ -23100,7 +23076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>30</v>
       </c>
@@ -23129,7 +23105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>21</v>
       </c>
@@ -23158,7 +23134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>21</v>
       </c>
@@ -23187,7 +23163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>21</v>
       </c>
@@ -23216,7 +23192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -23245,7 +23221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>21</v>
       </c>
@@ -23274,7 +23250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -23303,7 +23279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>21</v>
       </c>
@@ -23332,7 +23308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -23361,7 +23337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -23390,7 +23366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>21</v>
       </c>
@@ -23419,7 +23395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -23448,7 +23424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>21</v>
       </c>
@@ -23477,7 +23453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>22</v>
       </c>
@@ -23506,7 +23482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>22</v>
       </c>
@@ -23535,7 +23511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>22</v>
       </c>
@@ -23564,7 +23540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>22</v>
       </c>
@@ -23593,7 +23569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>22</v>
       </c>
@@ -23622,7 +23598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>22</v>
       </c>
@@ -23651,7 +23627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>22</v>
       </c>
@@ -23680,7 +23656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>22</v>
       </c>
@@ -23709,7 +23685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>22</v>
       </c>
@@ -23738,7 +23714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>22</v>
       </c>
@@ -23767,7 +23743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>22</v>
       </c>
@@ -23796,7 +23772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>22</v>
       </c>
@@ -23825,7 +23801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>23</v>
       </c>
@@ -23854,7 +23830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>23</v>
       </c>
@@ -23883,7 +23859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
@@ -23912,7 +23888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>23</v>
       </c>
@@ -23941,7 +23917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>23</v>
       </c>
@@ -23970,7 +23946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>23</v>
       </c>
@@ -23999,7 +23975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>23</v>
       </c>
@@ -24028,7 +24004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>23</v>
       </c>
@@ -24057,7 +24033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>23</v>
       </c>
@@ -24086,7 +24062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>23</v>
       </c>
@@ -24115,7 +24091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>23</v>
       </c>
@@ -24144,7 +24120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>23</v>
       </c>
@@ -24173,7 +24149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>24</v>
       </c>
@@ -24202,7 +24178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>24</v>
       </c>
@@ -24231,7 +24207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>24</v>
       </c>
@@ -24260,7 +24236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>24</v>
       </c>
@@ -24289,7 +24265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>24</v>
       </c>
@@ -24318,7 +24294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>24</v>
       </c>
@@ -24347,7 +24323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>24</v>
       </c>
@@ -24376,7 +24352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>24</v>
       </c>
@@ -24405,7 +24381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>24</v>
       </c>
@@ -24434,7 +24410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>24</v>
       </c>
@@ -24463,7 +24439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>24</v>
       </c>
@@ -24492,7 +24468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>24</v>
       </c>
@@ -24521,7 +24497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>25</v>
       </c>
@@ -24550,7 +24526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>25</v>
       </c>
@@ -24579,7 +24555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>25</v>
       </c>
@@ -24608,7 +24584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>25</v>
       </c>
@@ -24637,7 +24613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>25</v>
       </c>
@@ -24666,7 +24642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>25</v>
       </c>
@@ -24695,7 +24671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>25</v>
       </c>
@@ -24724,7 +24700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>25</v>
       </c>
@@ -24753,7 +24729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>25</v>
       </c>
@@ -24782,7 +24758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>25</v>
       </c>
@@ -24811,7 +24787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>25</v>
       </c>
@@ -24840,7 +24816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>25</v>
       </c>
@@ -24869,7 +24845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>26</v>
       </c>
@@ -24898,7 +24874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>26</v>
       </c>
@@ -24927,7 +24903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>26</v>
       </c>
@@ -24956,7 +24932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>26</v>
       </c>
@@ -24985,7 +24961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>26</v>
       </c>
@@ -25014,7 +24990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>26</v>
       </c>
@@ -25043,7 +25019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>26</v>
       </c>
@@ -25072,7 +25048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>26</v>
       </c>
@@ -25101,7 +25077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>26</v>
       </c>
@@ -25130,7 +25106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>26</v>
       </c>
@@ -25159,7 +25135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>26</v>
       </c>
@@ -25188,7 +25164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>26</v>
       </c>
@@ -25217,7 +25193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>27</v>
       </c>
@@ -25246,7 +25222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>27</v>
       </c>
@@ -25275,7 +25251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>27</v>
       </c>
@@ -25304,7 +25280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>27</v>
       </c>
@@ -25333,7 +25309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>27</v>
       </c>
@@ -25362,7 +25338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -25391,7 +25367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>27</v>
       </c>
@@ -25420,7 +25396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>27</v>
       </c>
@@ -25449,7 +25425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>27</v>
       </c>
@@ -25478,7 +25454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>27</v>
       </c>
@@ -25507,7 +25483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>27</v>
       </c>
@@ -25536,7 +25512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>27</v>
       </c>
@@ -25565,7 +25541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>28</v>
       </c>
@@ -25594,7 +25570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>28</v>
       </c>
@@ -25623,7 +25599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>28</v>
       </c>
@@ -25652,7 +25628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>28</v>
       </c>
@@ -25681,7 +25657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>28</v>
       </c>
@@ -25710,7 +25686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>28</v>
       </c>
@@ -25739,7 +25715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>28</v>
       </c>
@@ -25768,7 +25744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>28</v>
       </c>
@@ -25797,7 +25773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>28</v>
       </c>
@@ -25826,7 +25802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>28</v>
       </c>
@@ -25855,7 +25831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>28</v>
       </c>
@@ -25884,7 +25860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>28</v>
       </c>
@@ -25913,7 +25889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>29</v>
       </c>
@@ -25942,7 +25918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>29</v>
       </c>
@@ -25971,7 +25947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>29</v>
       </c>
@@ -26000,7 +25976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>29</v>
       </c>
@@ -26029,7 +26005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>29</v>
       </c>
@@ -26058,7 +26034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>29</v>
       </c>
@@ -26087,7 +26063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>29</v>
       </c>
@@ -26116,7 +26092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>29</v>
       </c>
@@ -26145,7 +26121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>29</v>
       </c>
@@ -26174,7 +26150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>29</v>
       </c>
@@ -26203,7 +26179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>29</v>
       </c>
@@ -26232,7 +26208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>29</v>
       </c>
@@ -26261,7 +26237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>39</v>
       </c>
@@ -26295,7 +26271,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>39</v>
       </c>
@@ -26329,7 +26305,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>39</v>
       </c>
@@ -26363,7 +26339,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>39</v>
       </c>
@@ -26397,7 +26373,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>39</v>
       </c>
@@ -26431,7 +26407,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>39</v>
       </c>
@@ -26465,7 +26441,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>39</v>
       </c>
@@ -26499,7 +26475,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>39</v>
       </c>
@@ -26533,7 +26509,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>39</v>
       </c>
@@ -26567,7 +26543,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>39</v>
       </c>
@@ -26601,7 +26577,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>39</v>
       </c>
@@ -26635,7 +26611,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>39</v>
       </c>
@@ -26669,7 +26645,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>40</v>
       </c>
@@ -26700,7 +26676,7 @@
         <v>T0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>40</v>
       </c>
@@ -26731,7 +26707,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>40</v>
       </c>
@@ -26762,7 +26738,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>40</v>
       </c>
@@ -26793,7 +26769,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>40</v>
       </c>
@@ -26824,7 +26800,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>40</v>
       </c>
@@ -26855,7 +26831,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>40</v>
       </c>
@@ -26886,7 +26862,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>40</v>
       </c>
@@ -26917,7 +26893,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>40</v>
       </c>
@@ -26948,7 +26924,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>40</v>
       </c>
@@ -26979,7 +26955,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>40</v>
       </c>
@@ -27010,7 +26986,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>40</v>
       </c>
@@ -27041,7 +27017,7 @@
         <v>T1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>41</v>
       </c>
@@ -27070,7 +27046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>41</v>
       </c>
@@ -27099,7 +27075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>41</v>
       </c>
@@ -27128,7 +27104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>41</v>
       </c>
@@ -27157,7 +27133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>41</v>
       </c>
@@ -27186,7 +27162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>41</v>
       </c>
@@ -27215,7 +27191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>41</v>
       </c>
@@ -27244,7 +27220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>41</v>
       </c>
@@ -27273,7 +27249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>41</v>
       </c>
@@ -27302,7 +27278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>41</v>
       </c>
@@ -27331,7 +27307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>41</v>
       </c>
@@ -27360,7 +27336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>41</v>
       </c>
@@ -27389,7 +27365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>73</v>
       </c>
@@ -27418,7 +27394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>73</v>
       </c>
@@ -27447,7 +27423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>73</v>
       </c>
@@ -27476,7 +27452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>73</v>
       </c>
@@ -27505,7 +27481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>73</v>
       </c>
@@ -27534,7 +27510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>73</v>
       </c>
@@ -27563,7 +27539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>73</v>
       </c>
@@ -27592,7 +27568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>73</v>
       </c>
@@ -27621,7 +27597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>73</v>
       </c>
@@ -27650,7 +27626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>73</v>
       </c>
@@ -27679,7 +27655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>73</v>
       </c>
@@ -27708,7 +27684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>73</v>
       </c>
@@ -27751,18 +27727,18 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -27788,7 +27764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -27815,7 +27791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -27842,7 +27818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -27869,7 +27845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -27896,7 +27872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -27923,7 +27899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -27950,7 +27926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -27977,7 +27953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -28004,7 +27980,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -28031,7 +28007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -28058,7 +28034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -28085,7 +28061,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -28112,7 +28088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -28138,7 +28114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -28164,7 +28140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -28190,7 +28166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -28217,7 +28193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -28244,7 +28220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -28271,7 +28247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>73</v>
       </c>
@@ -28315,23 +28291,23 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.73046875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -28372,7 +28348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -28413,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -28454,7 +28430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -28495,7 +28471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -28536,7 +28512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -28578,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -28620,7 +28596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -28661,7 +28637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -28702,7 +28678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -28743,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -28789,7 +28765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -28830,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -28871,7 +28847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -28912,7 +28888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -28953,7 +28929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -28994,7 +28970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -29038,7 +29014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -29079,7 +29055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -29120,7 +29096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>73</v>
       </c>
@@ -29168,9 +29144,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29344,26 +29323,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29387,9 +29355,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="87">
   <si>
     <t>Code</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>RH_max_pc</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T24</t>
   </si>
 </sst>
 </file>
@@ -14275,8 +14284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K224" sqref="K224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14340,7 +14349,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -14366,7 +14375,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -14392,7 +14401,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -14418,7 +14427,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14444,7 +14453,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -14470,7 +14479,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -14496,7 +14505,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -14522,7 +14531,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14548,7 +14557,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14574,7 +14583,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14600,7 +14609,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14626,7 +14635,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -14652,7 +14661,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14678,7 +14687,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -14704,7 +14713,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14730,7 +14739,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -14756,7 +14765,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14782,7 +14791,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14808,7 +14817,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14834,7 +14843,7 @@
         <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -14860,7 +14869,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -14886,7 +14895,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -14909,10 +14918,10 @@
         <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -14935,10 +14944,10 @@
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -14964,7 +14973,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -14987,10 +14996,10 @@
         <v>8</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -15013,10 +15022,10 @@
         <v>8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -15039,10 +15048,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15065,10 +15074,10 @@
         <v>10</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15091,10 +15100,10 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -15117,10 +15126,10 @@
         <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -15143,10 +15152,10 @@
         <v>8</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -15169,10 +15178,10 @@
         <v>8</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -15195,10 +15204,10 @@
         <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -15221,10 +15230,10 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -15247,10 +15256,10 @@
         <v>10</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -15276,7 +15285,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -15299,10 +15308,10 @@
         <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -15325,10 +15334,10 @@
         <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -15351,10 +15360,10 @@
         <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -15377,10 +15386,10 @@
         <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -15403,10 +15412,10 @@
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -15429,10 +15438,10 @@
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -15455,10 +15464,10 @@
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -15481,10 +15490,10 @@
         <v>8</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -15507,10 +15516,10 @@
         <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -15533,10 +15542,10 @@
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -15559,10 +15568,10 @@
         <v>7</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -15588,7 +15597,7 @@
         <v>9</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -15611,10 +15620,10 @@
         <v>8</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -15637,10 +15646,10 @@
         <v>8</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -15663,10 +15672,10 @@
         <v>8</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -15689,10 +15698,10 @@
         <v>7</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -15715,10 +15724,10 @@
         <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -15741,10 +15750,10 @@
         <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -15767,10 +15776,10 @@
         <v>8</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -15793,10 +15802,10 @@
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -15819,10 +15828,10 @@
         <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -15845,10 +15854,10 @@
         <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -15871,10 +15880,10 @@
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -15900,7 +15909,7 @@
         <v>9</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -15923,10 +15932,10 @@
         <v>8</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -15949,10 +15958,10 @@
         <v>8</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -15975,10 +15984,10 @@
         <v>8</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -16001,10 +16010,10 @@
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -16027,10 +16036,10 @@
         <v>7</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -16053,10 +16062,10 @@
         <v>8</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -16079,10 +16088,10 @@
         <v>8</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -16105,10 +16114,10 @@
         <v>8</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -16131,10 +16140,10 @@
         <v>8</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -16157,10 +16166,10 @@
         <v>7</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -16183,10 +16192,10 @@
         <v>7</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -16212,7 +16221,7 @@
         <v>9</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -16235,10 +16244,10 @@
         <v>8</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -16261,10 +16270,10 @@
         <v>8</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -16287,10 +16296,10 @@
         <v>8</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -16313,10 +16322,10 @@
         <v>7</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -16339,10 +16348,10 @@
         <v>7</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -16365,10 +16374,10 @@
         <v>8</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -16391,10 +16400,10 @@
         <v>8</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -16417,10 +16426,10 @@
         <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -16443,10 +16452,10 @@
         <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -16469,10 +16478,10 @@
         <v>7</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -16495,10 +16504,10 @@
         <v>7</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -16521,10 +16530,10 @@
         <v>8</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -16547,10 +16556,10 @@
         <v>8</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -16573,10 +16582,10 @@
         <v>8</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -16599,10 +16608,10 @@
         <v>8</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -16625,10 +16634,10 @@
         <v>7</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -16651,10 +16660,10 @@
         <v>7</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -16677,10 +16686,10 @@
         <v>8</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -16703,10 +16712,10 @@
         <v>8</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -16729,10 +16738,10 @@
         <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -16755,10 +16764,10 @@
         <v>8</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -16781,10 +16790,10 @@
         <v>7</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -16807,10 +16816,10 @@
         <v>7</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -16836,7 +16845,7 @@
         <v>9</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -16859,10 +16868,10 @@
         <v>8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -16885,10 +16894,10 @@
         <v>8</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -16911,10 +16920,10 @@
         <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -16937,10 +16946,10 @@
         <v>7</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -16963,10 +16972,10 @@
         <v>7</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -16989,10 +16998,10 @@
         <v>8</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -17015,10 +17024,10 @@
         <v>8</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -17041,10 +17050,10 @@
         <v>8</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -17067,10 +17076,10 @@
         <v>7</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -17093,10 +17102,10 @@
         <v>7</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -17119,10 +17128,10 @@
         <v>7</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -17148,7 +17157,7 @@
         <v>9</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -17171,10 +17180,10 @@
         <v>8</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -17197,10 +17206,10 @@
         <v>8</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -17223,10 +17232,10 @@
         <v>8</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -17249,10 +17258,10 @@
         <v>7</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -17275,10 +17284,10 @@
         <v>7</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -17301,10 +17310,10 @@
         <v>8</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -17327,10 +17336,10 @@
         <v>8</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -17353,10 +17362,10 @@
         <v>8</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -17379,10 +17388,10 @@
         <v>7</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -17405,10 +17414,10 @@
         <v>7</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -17431,10 +17440,10 @@
         <v>7</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -17460,7 +17469,7 @@
         <v>9</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -17483,10 +17492,10 @@
         <v>8</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -17509,10 +17518,10 @@
         <v>7</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -17535,10 +17544,10 @@
         <v>7</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -17561,10 +17570,10 @@
         <v>7</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -17587,10 +17596,10 @@
         <v>7</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -17613,10 +17622,10 @@
         <v>7</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -17639,10 +17648,10 @@
         <v>7</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -17665,10 +17674,10 @@
         <v>7</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -17691,10 +17700,10 @@
         <v>7</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -17717,10 +17726,10 @@
         <v>7</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -17743,10 +17752,10 @@
         <v>7</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -17772,7 +17781,7 @@
         <v>9</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -17798,7 +17807,7 @@
         <v>9</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -17824,7 +17833,7 @@
         <v>9</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -17850,7 +17859,7 @@
         <v>9</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -17876,7 +17885,7 @@
         <v>9</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -17902,7 +17911,7 @@
         <v>9</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -17928,7 +17937,7 @@
         <v>9</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -17954,7 +17963,7 @@
         <v>9</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -17980,7 +17989,7 @@
         <v>9</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -18006,7 +18015,7 @@
         <v>9</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -18032,7 +18041,7 @@
         <v>9</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -18058,7 +18067,7 @@
         <v>9</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -18081,10 +18090,10 @@
         <v>9</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -18107,10 +18116,10 @@
         <v>9</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -18133,10 +18142,10 @@
         <v>9</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -18159,10 +18168,10 @@
         <v>9</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -18185,10 +18194,10 @@
         <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -18211,10 +18220,10 @@
         <v>9</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -18237,10 +18246,10 @@
         <v>9</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -18263,10 +18272,10 @@
         <v>9</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -18289,10 +18298,10 @@
         <v>9</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -18315,10 +18324,10 @@
         <v>9</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -18341,10 +18350,10 @@
         <v>9</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -18367,10 +18376,10 @@
         <v>9</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -18396,7 +18405,7 @@
         <v>9</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -18422,7 +18431,7 @@
         <v>9</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -18448,7 +18457,7 @@
         <v>9</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -18474,7 +18483,7 @@
         <v>9</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -18500,7 +18509,7 @@
         <v>9</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -18526,7 +18535,7 @@
         <v>9</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -18552,7 +18561,7 @@
         <v>9</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -18578,7 +18587,7 @@
         <v>9</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -18604,7 +18613,7 @@
         <v>9</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -18630,7 +18639,7 @@
         <v>9</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -18656,7 +18665,7 @@
         <v>9</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -18682,7 +18691,7 @@
         <v>9</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -18705,10 +18714,10 @@
         <v>9</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -18731,10 +18740,10 @@
         <v>9</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -18757,10 +18766,10 @@
         <v>9</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -18783,10 +18792,10 @@
         <v>9</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -18809,10 +18818,10 @@
         <v>9</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -18835,10 +18844,10 @@
         <v>9</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -18861,10 +18870,10 @@
         <v>9</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -18887,10 +18896,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -18913,10 +18922,10 @@
         <v>9</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -18939,10 +18948,10 @@
         <v>9</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -18965,10 +18974,10 @@
         <v>9</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -18991,10 +19000,10 @@
         <v>9</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -19021,7 +19030,7 @@
         <v>T0</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -19045,10 +19054,10 @@
       </c>
       <c r="G183" s="3" t="str">
         <f t="shared" ref="G183:G193" si="0">G99</f>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -19072,10 +19081,10 @@
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -19099,10 +19108,10 @@
       </c>
       <c r="G185" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -19126,10 +19135,10 @@
       </c>
       <c r="G186" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -19153,10 +19162,10 @@
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -19182,10 +19191,10 @@
       </c>
       <c r="G188" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -19211,10 +19220,10 @@
       </c>
       <c r="G189" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -19240,10 +19249,10 @@
       </c>
       <c r="G190" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -19269,10 +19278,10 @@
       </c>
       <c r="G191" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -19298,10 +19307,10 @@
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -19327,10 +19336,10 @@
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -19356,7 +19365,7 @@
         <v>9</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -19379,10 +19388,10 @@
         <v>8</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -19405,10 +19414,10 @@
         <v>8</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -19431,10 +19440,10 @@
         <v>8</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -19457,10 +19466,10 @@
         <v>7</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -19483,10 +19492,10 @@
         <v>7</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -19509,10 +19518,10 @@
         <v>8</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -19535,10 +19544,10 @@
         <v>8</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -19561,10 +19570,10 @@
         <v>8</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -19587,10 +19596,10 @@
         <v>7</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -19613,10 +19622,10 @@
         <v>7</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -19639,10 +19648,10 @@
         <v>7</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -19668,7 +19677,7 @@
         <v>9</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -19691,10 +19700,10 @@
         <v>8</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -19717,10 +19726,10 @@
         <v>8</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -19743,10 +19752,10 @@
         <v>8</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -19769,10 +19778,10 @@
         <v>7</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -19795,10 +19804,10 @@
         <v>7</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -19821,10 +19830,10 @@
         <v>8</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -19847,10 +19856,10 @@
         <v>8</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -19873,10 +19882,10 @@
         <v>8</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -19899,10 +19908,10 @@
         <v>7</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -19925,10 +19934,10 @@
         <v>7</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -19951,10 +19960,10 @@
         <v>7</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -19980,7 +19989,7 @@
         <v>9</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -20003,10 +20012,10 @@
         <v>8</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -20029,10 +20038,10 @@
         <v>8</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -20055,10 +20064,10 @@
         <v>8</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -20081,10 +20090,10 @@
         <v>7</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -20107,10 +20116,10 @@
         <v>7</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -20133,10 +20142,10 @@
         <v>8</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -20159,10 +20168,10 @@
         <v>8</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -20185,10 +20194,10 @@
         <v>8</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -20211,10 +20220,10 @@
         <v>7</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -20237,10 +20246,10 @@
         <v>7</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -20263,10 +20272,10 @@
         <v>7</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -28454,15 +28463,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -28632,6 +28632,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -28639,14 +28648,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28660,6 +28661,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6996" uniqueCount="95">
   <si>
     <t>Code</t>
   </si>
@@ -292,6 +292,30 @@
   </si>
   <si>
     <t>T24</t>
+  </si>
+  <si>
+    <t>16|09</t>
+  </si>
+  <si>
+    <t>14|05</t>
+  </si>
+  <si>
+    <t>15|05</t>
+  </si>
+  <si>
+    <t>15|09</t>
+  </si>
+  <si>
+    <t>heat_starts</t>
+  </si>
+  <si>
+    <t>heat_ends</t>
+  </si>
+  <si>
+    <t>cool_starts</t>
+  </si>
+  <si>
+    <t>cool_ends</t>
   </si>
 </sst>
 </file>
@@ -14284,8 +14308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K224" sqref="K224"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20285,13 +20309,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F134" sqref="F134"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20304,10 +20328,14 @@
     <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
@@ -20335,8 +20363,20 @@
       <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -20364,8 +20404,20 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -20393,8 +20445,20 @@
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -20422,8 +20486,20 @@
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -20451,8 +20527,20 @@
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -20480,8 +20568,20 @@
       <c r="I6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -20509,8 +20609,20 @@
       <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -20538,8 +20650,20 @@
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -20567,8 +20691,20 @@
       <c r="I9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -20596,8 +20732,20 @@
       <c r="I10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -20625,8 +20773,20 @@
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -20654,8 +20814,20 @@
       <c r="I12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -20683,8 +20855,20 @@
       <c r="I13" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -20712,8 +20896,20 @@
       <c r="I14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -20741,8 +20937,20 @@
       <c r="I15" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -20770,8 +20978,20 @@
       <c r="I16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -20799,8 +21019,20 @@
       <c r="I17" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -20828,8 +21060,20 @@
       <c r="I18" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -20857,8 +21101,20 @@
       <c r="I19" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -20886,8 +21142,20 @@
       <c r="I20" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -20915,8 +21183,20 @@
       <c r="I21" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -20944,8 +21224,20 @@
       <c r="I22" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
@@ -20973,8 +21265,20 @@
       <c r="I23" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -21002,8 +21306,20 @@
       <c r="I24" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -21031,8 +21347,20 @@
       <c r="I25" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -21060,8 +21388,20 @@
       <c r="I26" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -21089,8 +21429,20 @@
       <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -21118,8 +21470,20 @@
       <c r="I28" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
@@ -21147,8 +21511,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
@@ -21176,8 +21552,20 @@
       <c r="I30" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -21205,8 +21593,20 @@
       <c r="I31" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
@@ -21234,8 +21634,20 @@
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -21263,8 +21675,20 @@
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
@@ -21292,8 +21716,20 @@
       <c r="I34" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
@@ -21321,8 +21757,20 @@
       <c r="I35" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>19</v>
       </c>
@@ -21350,8 +21798,20 @@
       <c r="I36" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
@@ -21379,8 +21839,20 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
@@ -21408,8 +21880,20 @@
       <c r="I38" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>20</v>
       </c>
@@ -21437,8 +21921,20 @@
       <c r="I39" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>20</v>
       </c>
@@ -21466,8 +21962,20 @@
       <c r="I40" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>20</v>
       </c>
@@ -21495,8 +22003,20 @@
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>20</v>
       </c>
@@ -21524,8 +22044,20 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>20</v>
       </c>
@@ -21553,8 +22085,20 @@
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
@@ -21582,8 +22126,20 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>20</v>
       </c>
@@ -21611,8 +22167,20 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>20</v>
       </c>
@@ -21640,8 +22208,20 @@
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>20</v>
       </c>
@@ -21669,8 +22249,20 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>20</v>
       </c>
@@ -21698,8 +22290,20 @@
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>20</v>
       </c>
@@ -21727,8 +22331,20 @@
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>21</v>
       </c>
@@ -21756,8 +22372,20 @@
       <c r="I50" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>21</v>
       </c>
@@ -21785,8 +22413,20 @@
       <c r="I51" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>21</v>
       </c>
@@ -21814,8 +22454,20 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>21</v>
       </c>
@@ -21843,8 +22495,20 @@
       <c r="I53" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
@@ -21872,8 +22536,20 @@
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>21</v>
       </c>
@@ -21901,8 +22577,20 @@
       <c r="I55" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -21930,8 +22618,20 @@
       <c r="I56" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>21</v>
       </c>
@@ -21959,8 +22659,20 @@
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
@@ -21988,8 +22700,20 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>21</v>
       </c>
@@ -22017,8 +22741,20 @@
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>21</v>
       </c>
@@ -22046,8 +22782,20 @@
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>21</v>
       </c>
@@ -22075,8 +22823,20 @@
       <c r="I61" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>31</v>
       </c>
@@ -22104,8 +22864,20 @@
       <c r="I62" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>31</v>
       </c>
@@ -22133,8 +22905,20 @@
       <c r="I63" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>31</v>
       </c>
@@ -22162,8 +22946,20 @@
       <c r="I64" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>31</v>
       </c>
@@ -22191,8 +22987,20 @@
       <c r="I65" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
@@ -22220,8 +23028,20 @@
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
@@ -22249,8 +23069,20 @@
       <c r="I67" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>31</v>
       </c>
@@ -22278,8 +23110,20 @@
       <c r="I68" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>31</v>
       </c>
@@ -22307,8 +23151,20 @@
       <c r="I69" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>31</v>
       </c>
@@ -22336,8 +23192,20 @@
       <c r="I70" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>31</v>
       </c>
@@ -22365,8 +23233,20 @@
       <c r="I71" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>31</v>
       </c>
@@ -22394,8 +23274,20 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>31</v>
       </c>
@@ -22423,8 +23315,20 @@
       <c r="I73" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>22</v>
       </c>
@@ -22452,8 +23356,20 @@
       <c r="I74" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>22</v>
       </c>
@@ -22481,8 +23397,20 @@
       <c r="I75" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
@@ -22510,8 +23438,20 @@
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>22</v>
       </c>
@@ -22539,8 +23479,20 @@
       <c r="I77" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>22</v>
       </c>
@@ -22568,8 +23520,20 @@
       <c r="I78" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>22</v>
       </c>
@@ -22597,8 +23561,20 @@
       <c r="I79" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>22</v>
       </c>
@@ -22626,8 +23602,20 @@
       <c r="I80" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>22</v>
       </c>
@@ -22655,8 +23643,20 @@
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>22</v>
       </c>
@@ -22684,8 +23684,20 @@
       <c r="I82" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>22</v>
       </c>
@@ -22713,8 +23725,20 @@
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>22</v>
       </c>
@@ -22742,8 +23766,20 @@
       <c r="I84" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>22</v>
       </c>
@@ -22771,8 +23807,20 @@
       <c r="I85" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>23</v>
       </c>
@@ -22800,8 +23848,20 @@
       <c r="I86" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>23</v>
       </c>
@@ -22829,8 +23889,20 @@
       <c r="I87" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>23</v>
       </c>
@@ -22858,8 +23930,20 @@
       <c r="I88" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>23</v>
       </c>
@@ -22887,8 +23971,20 @@
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>23</v>
       </c>
@@ -22916,8 +24012,20 @@
       <c r="I90" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>23</v>
       </c>
@@ -22945,8 +24053,20 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>23</v>
       </c>
@@ -22974,8 +24094,20 @@
       <c r="I92" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>23</v>
       </c>
@@ -23003,8 +24135,20 @@
       <c r="I93" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>23</v>
       </c>
@@ -23032,8 +24176,20 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>23</v>
       </c>
@@ -23061,8 +24217,20 @@
       <c r="I95" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>23</v>
       </c>
@@ -23090,8 +24258,20 @@
       <c r="I96" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>23</v>
       </c>
@@ -23119,8 +24299,20 @@
       <c r="I97" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>24</v>
       </c>
@@ -23148,8 +24340,20 @@
       <c r="I98" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>24</v>
       </c>
@@ -23177,8 +24381,20 @@
       <c r="I99" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>24</v>
       </c>
@@ -23206,8 +24422,20 @@
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>24</v>
       </c>
@@ -23235,8 +24463,20 @@
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>24</v>
       </c>
@@ -23264,8 +24504,20 @@
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>24</v>
       </c>
@@ -23293,8 +24545,20 @@
       <c r="I103" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>24</v>
       </c>
@@ -23322,8 +24586,20 @@
       <c r="I104" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>24</v>
       </c>
@@ -23351,8 +24627,20 @@
       <c r="I105" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>24</v>
       </c>
@@ -23380,8 +24668,20 @@
       <c r="I106" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>24</v>
       </c>
@@ -23409,8 +24709,20 @@
       <c r="I107" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>24</v>
       </c>
@@ -23438,8 +24750,20 @@
       <c r="I108" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>24</v>
       </c>
@@ -23467,8 +24791,20 @@
       <c r="I109" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>25</v>
       </c>
@@ -23496,8 +24832,20 @@
       <c r="I110" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>25</v>
       </c>
@@ -23525,8 +24873,20 @@
       <c r="I111" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>25</v>
       </c>
@@ -23554,8 +24914,20 @@
       <c r="I112" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>25</v>
       </c>
@@ -23583,8 +24955,20 @@
       <c r="I113" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>25</v>
       </c>
@@ -23612,8 +24996,20 @@
       <c r="I114" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>25</v>
       </c>
@@ -23641,8 +25037,20 @@
       <c r="I115" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>25</v>
       </c>
@@ -23670,8 +25078,20 @@
       <c r="I116" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>25</v>
       </c>
@@ -23699,8 +25119,20 @@
       <c r="I117" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>25</v>
       </c>
@@ -23728,8 +25160,20 @@
       <c r="I118" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>25</v>
       </c>
@@ -23757,8 +25201,20 @@
       <c r="I119" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>25</v>
       </c>
@@ -23786,8 +25242,20 @@
       <c r="I120" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>25</v>
       </c>
@@ -23815,8 +25283,20 @@
       <c r="I121" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>26</v>
       </c>
@@ -23844,8 +25324,20 @@
       <c r="I122" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>26</v>
       </c>
@@ -23873,8 +25365,20 @@
       <c r="I123" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>26</v>
       </c>
@@ -23902,8 +25406,20 @@
       <c r="I124" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>26</v>
       </c>
@@ -23931,8 +25447,20 @@
       <c r="I125" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>26</v>
       </c>
@@ -23960,8 +25488,20 @@
       <c r="I126" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>26</v>
       </c>
@@ -23989,8 +25529,20 @@
       <c r="I127" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>26</v>
       </c>
@@ -24018,8 +25570,20 @@
       <c r="I128" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>26</v>
       </c>
@@ -24047,8 +25611,20 @@
       <c r="I129" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>26</v>
       </c>
@@ -24076,8 +25652,20 @@
       <c r="I130" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>26</v>
       </c>
@@ -24105,8 +25693,20 @@
       <c r="I131" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>26</v>
       </c>
@@ -24134,8 +25734,20 @@
       <c r="I132" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>26</v>
       </c>
@@ -24163,8 +25775,20 @@
       <c r="I133" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>27</v>
       </c>
@@ -24192,8 +25816,20 @@
       <c r="I134" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>27</v>
       </c>
@@ -24221,8 +25857,20 @@
       <c r="I135" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>27</v>
       </c>
@@ -24250,8 +25898,20 @@
       <c r="I136" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>27</v>
       </c>
@@ -24279,8 +25939,20 @@
       <c r="I137" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>27</v>
       </c>
@@ -24308,8 +25980,20 @@
       <c r="I138" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>27</v>
       </c>
@@ -24337,8 +26021,20 @@
       <c r="I139" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>27</v>
       </c>
@@ -24366,8 +26062,20 @@
       <c r="I140" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>27</v>
       </c>
@@ -24395,8 +26103,20 @@
       <c r="I141" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>27</v>
       </c>
@@ -24424,8 +26144,20 @@
       <c r="I142" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>27</v>
       </c>
@@ -24453,8 +26185,20 @@
       <c r="I143" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>27</v>
       </c>
@@ -24482,8 +26226,20 @@
       <c r="I144" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>27</v>
       </c>
@@ -24511,8 +26267,20 @@
       <c r="I145" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>28</v>
       </c>
@@ -24540,8 +26308,20 @@
       <c r="I146" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>28</v>
       </c>
@@ -24569,8 +26349,20 @@
       <c r="I147" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>28</v>
       </c>
@@ -24598,8 +26390,20 @@
       <c r="I148" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>28</v>
       </c>
@@ -24627,8 +26431,20 @@
       <c r="I149" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>28</v>
       </c>
@@ -24656,8 +26472,20 @@
       <c r="I150" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>28</v>
       </c>
@@ -24685,8 +26513,20 @@
       <c r="I151" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>28</v>
       </c>
@@ -24714,8 +26554,20 @@
       <c r="I152" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>28</v>
       </c>
@@ -24743,8 +26595,20 @@
       <c r="I153" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>28</v>
       </c>
@@ -24772,8 +26636,20 @@
       <c r="I154" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>28</v>
       </c>
@@ -24801,8 +26677,20 @@
       <c r="I155" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>28</v>
       </c>
@@ -24830,8 +26718,20 @@
       <c r="I156" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>28</v>
       </c>
@@ -24859,8 +26759,20 @@
       <c r="I157" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>29</v>
       </c>
@@ -24888,8 +26800,20 @@
       <c r="I158" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>29</v>
       </c>
@@ -24917,8 +26841,20 @@
       <c r="I159" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>29</v>
       </c>
@@ -24946,8 +26882,20 @@
       <c r="I160" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>29</v>
       </c>
@@ -24975,8 +26923,20 @@
       <c r="I161" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>29</v>
       </c>
@@ -25004,8 +26964,20 @@
       <c r="I162" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>29</v>
       </c>
@@ -25033,8 +27005,20 @@
       <c r="I163" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>29</v>
       </c>
@@ -25062,8 +27046,20 @@
       <c r="I164" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>29</v>
       </c>
@@ -25091,8 +27087,20 @@
       <c r="I165" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>29</v>
       </c>
@@ -25120,8 +27128,20 @@
       <c r="I166" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>29</v>
       </c>
@@ -25149,8 +27169,20 @@
       <c r="I167" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>29</v>
       </c>
@@ -25178,8 +27210,20 @@
       <c r="I168" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>29</v>
       </c>
@@ -25207,8 +27251,20 @@
       <c r="I169" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>30</v>
       </c>
@@ -25236,8 +27292,20 @@
       <c r="I170" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>30</v>
       </c>
@@ -25265,8 +27333,20 @@
       <c r="I171" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>30</v>
       </c>
@@ -25294,8 +27374,20 @@
       <c r="I172" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>30</v>
       </c>
@@ -25323,8 +27415,20 @@
       <c r="I173" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>30</v>
       </c>
@@ -25352,8 +27456,20 @@
       <c r="I174" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>30</v>
       </c>
@@ -25381,8 +27497,20 @@
       <c r="I175" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>30</v>
       </c>
@@ -25410,8 +27538,20 @@
       <c r="I176" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>30</v>
       </c>
@@ -25439,8 +27579,20 @@
       <c r="I177" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>30</v>
       </c>
@@ -25468,8 +27620,20 @@
       <c r="I178" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>30</v>
       </c>
@@ -25497,8 +27661,20 @@
       <c r="I179" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>30</v>
       </c>
@@ -25526,8 +27702,20 @@
       <c r="I180" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>30</v>
       </c>
@@ -25555,8 +27743,20 @@
       <c r="I181" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>40</v>
       </c>
@@ -25589,8 +27789,20 @@
         <f>I86</f>
         <v>T1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>40</v>
       </c>
@@ -25623,8 +27835,20 @@
         <f t="shared" ref="I183:I193" si="4">I87</f>
         <v>T1</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>40</v>
       </c>
@@ -25657,8 +27881,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>40</v>
       </c>
@@ -25691,8 +27927,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>40</v>
       </c>
@@ -25725,8 +27973,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>40</v>
       </c>
@@ -25759,8 +28019,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>40</v>
       </c>
@@ -25793,8 +28065,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>40</v>
       </c>
@@ -25827,8 +28111,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>40</v>
       </c>
@@ -25861,8 +28157,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>40</v>
       </c>
@@ -25895,8 +28203,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>40</v>
       </c>
@@ -25929,8 +28249,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>40</v>
       </c>
@@ -25963,8 +28295,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>41</v>
       </c>
@@ -25994,8 +28338,20 @@
         <f>I50</f>
         <v>T0</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>41</v>
       </c>
@@ -26025,8 +28381,20 @@
         <f t="shared" ref="I195:I205" si="5">I51</f>
         <v>T1</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>41</v>
       </c>
@@ -26056,8 +28424,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>41</v>
       </c>
@@ -26087,8 +28467,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>41</v>
       </c>
@@ -26118,8 +28510,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>41</v>
       </c>
@@ -26149,8 +28553,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>41</v>
       </c>
@@ -26180,8 +28596,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>41</v>
       </c>
@@ -26211,8 +28639,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>41</v>
       </c>
@@ -26242,8 +28682,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>41</v>
       </c>
@@ -26273,8 +28725,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>41</v>
       </c>
@@ -26304,8 +28768,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>41</v>
       </c>
@@ -26335,8 +28811,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>42</v>
       </c>
@@ -26364,8 +28852,20 @@
       <c r="I206" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>42</v>
       </c>
@@ -26393,8 +28893,20 @@
       <c r="I207" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>42</v>
       </c>
@@ -26422,8 +28934,20 @@
       <c r="I208" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>42</v>
       </c>
@@ -26451,8 +28975,20 @@
       <c r="I209" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>42</v>
       </c>
@@ -26480,8 +29016,20 @@
       <c r="I210" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>42</v>
       </c>
@@ -26509,8 +29057,20 @@
       <c r="I211" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>42</v>
       </c>
@@ -26538,8 +29098,20 @@
       <c r="I212" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>42</v>
       </c>
@@ -26567,8 +29139,20 @@
       <c r="I213" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>42</v>
       </c>
@@ -26596,8 +29180,20 @@
       <c r="I214" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>42</v>
       </c>
@@ -26625,8 +29221,20 @@
       <c r="I215" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>42</v>
       </c>
@@ -26654,8 +29262,20 @@
       <c r="I216" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>42</v>
       </c>
@@ -26683,8 +29303,20 @@
       <c r="I217" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>74</v>
       </c>
@@ -26712,8 +29344,20 @@
       <c r="I218" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>74</v>
       </c>
@@ -26741,8 +29385,20 @@
       <c r="I219" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>74</v>
       </c>
@@ -26770,8 +29426,20 @@
       <c r="I220" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>74</v>
       </c>
@@ -26799,8 +29467,20 @@
       <c r="I221" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>74</v>
       </c>
@@ -26828,8 +29508,20 @@
       <c r="I222" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>74</v>
       </c>
@@ -26857,8 +29549,20 @@
       <c r="I223" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>74</v>
       </c>
@@ -26886,8 +29590,20 @@
       <c r="I224" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>74</v>
       </c>
@@ -26915,8 +29631,20 @@
       <c r="I225" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>74</v>
       </c>
@@ -26944,8 +29672,20 @@
       <c r="I226" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>74</v>
       </c>
@@ -26973,8 +29713,20 @@
       <c r="I227" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>74</v>
       </c>
@@ -27002,8 +29754,20 @@
       <c r="I228" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>74</v>
       </c>
@@ -27030,6 +29794,18 @@
       </c>
       <c r="I229" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -28463,6 +31239,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -28632,22 +31423,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28663,28 +31463,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="H183" s="3">
-        <f t="shared" ref="G183:H193" si="2">H87</f>
+        <f t="shared" ref="H183:H193" si="2">H87</f>
         <v>0.9</v>
       </c>
       <c r="I183" s="11">
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="3">
-        <f t="shared" ref="G194:H205" si="16">H182</f>
+        <f t="shared" ref="H194:H205" si="16">H182</f>
         <v>0.9</v>
       </c>
       <c r="I194" s="11">
@@ -14965,8 +14965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20968,11 +20968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F134" sqref="F134"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21188,7 +21188,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21536,7 +21536,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -21855,7 +21855,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -21884,7 +21884,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -22029,7 +22029,7 @@
         <v>9</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -22058,7 +22058,7 @@
         <v>6</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -22203,7 +22203,7 @@
         <v>9</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -22232,7 +22232,7 @@
         <v>6</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -22377,7 +22377,7 @@
         <v>9</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -22406,7 +22406,7 @@
         <v>6</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -22551,7 +22551,7 @@
         <v>9</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22580,7 +22580,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -22725,7 +22725,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -22754,7 +22754,7 @@
         <v>6</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22899,7 +22899,7 @@
         <v>9</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -22928,7 +22928,7 @@
         <v>6</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -23073,7 +23073,7 @@
         <v>9</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -23102,7 +23102,7 @@
         <v>6</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -23247,7 +23247,7 @@
         <v>9</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -23276,7 +23276,7 @@
         <v>6</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -23421,7 +23421,7 @@
         <v>9</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -23450,7 +23450,7 @@
         <v>6</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -23595,7 +23595,7 @@
         <v>9</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -23624,7 +23624,7 @@
         <v>6</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -23769,7 +23769,7 @@
         <v>9</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -23798,7 +23798,7 @@
         <v>6</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -23943,7 +23943,7 @@
         <v>9</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -23972,7 +23972,7 @@
         <v>6</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -24117,7 +24117,7 @@
         <v>9</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -24146,7 +24146,7 @@
         <v>6</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -24291,7 +24291,7 @@
         <v>9</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -24320,7 +24320,7 @@
         <v>6</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -24465,7 +24465,7 @@
         <v>9</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -24494,7 +24494,7 @@
         <v>6</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -24639,7 +24639,7 @@
         <v>9</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -24668,7 +24668,7 @@
         <v>6</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -24813,7 +24813,7 @@
         <v>9</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -24842,7 +24842,7 @@
         <v>6</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -24987,7 +24987,7 @@
         <v>9</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -25016,7 +25016,7 @@
         <v>6</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -25161,7 +25161,7 @@
         <v>9</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -25190,7 +25190,7 @@
         <v>6</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -25335,7 +25335,7 @@
         <v>9</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -25364,7 +25364,7 @@
         <v>6</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -25509,7 +25509,7 @@
         <v>9</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -25538,7 +25538,7 @@
         <v>6</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -26404,7 +26404,7 @@
       </c>
       <c r="I186" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -26438,7 +26438,7 @@
       </c>
       <c r="I187" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="I192" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -26642,7 +26642,7 @@
       </c>
       <c r="I193" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -26797,7 +26797,7 @@
       </c>
       <c r="I198" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -26828,7 +26828,7 @@
       </c>
       <c r="I199" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -26983,7 +26983,7 @@
       </c>
       <c r="I204" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -27014,7 +27014,7 @@
       </c>
       <c r="I205" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>T1</v>
+        <v>T2</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -27159,7 +27159,7 @@
         <v>9</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -27188,7 +27188,7 @@
         <v>6</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -27333,7 +27333,7 @@
         <v>9</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -27362,7 +27362,7 @@
         <v>6</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -27507,7 +27507,7 @@
         <v>9</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -27536,7 +27536,7 @@
         <v>6</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -27681,7 +27681,7 @@
         <v>9</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -27710,7 +27710,7 @@
         <v>6</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -29144,12 +29144,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29323,15 +29320,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29355,17 +29363,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6997" uniqueCount="96">
   <si>
     <t>Code</t>
   </si>
@@ -280,6 +280,39 @@
   </si>
   <si>
     <t>RH_max_pc</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>16|09</t>
+  </si>
+  <si>
+    <t>14|05</t>
+  </si>
+  <si>
+    <t>15|05</t>
+  </si>
+  <si>
+    <t>15|09</t>
+  </si>
+  <si>
+    <t>heat_starts</t>
+  </si>
+  <si>
+    <t>heat_ends</t>
+  </si>
+  <si>
+    <t>cool_starts</t>
+  </si>
+  <si>
+    <t>cool_ends</t>
   </si>
   <si>
     <t>Hs_ag</t>
@@ -1272,10 +1305,10 @@
   <dimension ref="A1:T229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G229"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,10 +1343,10 @@
         <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>71</v>
@@ -12057,18 +12090,18 @@
         <v>59</v>
       </c>
       <c r="E183" s="3">
-        <f t="shared" ref="E183:F183" si="1">E87</f>
+        <f t="shared" ref="E183" si="1">E87</f>
         <v>0.9</v>
       </c>
       <c r="F183" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F183:H193" si="2">F87</f>
         <v>0.9</v>
       </c>
       <c r="G183" s="14">
         <v>0</v>
       </c>
       <c r="H183" s="3">
-        <f t="shared" ref="H183:H193" si="2">H87</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="I183" s="11">
@@ -12124,11 +12157,11 @@
         <v>59</v>
       </c>
       <c r="E184" s="3">
-        <f t="shared" ref="E184:F184" si="5">E88</f>
+        <f t="shared" ref="E184" si="5">E88</f>
         <v>0.9</v>
       </c>
       <c r="F184" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G184" s="14">
@@ -12191,11 +12224,11 @@
         <v>59</v>
       </c>
       <c r="E185" s="3">
-        <f t="shared" ref="E185:F185" si="6">E89</f>
+        <f t="shared" ref="E185" si="6">E89</f>
         <v>0.9</v>
       </c>
       <c r="F185" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G185" s="14">
@@ -12258,11 +12291,11 @@
         <v>59</v>
       </c>
       <c r="E186" s="3">
-        <f t="shared" ref="E186:F186" si="7">E90</f>
+        <f t="shared" ref="E186" si="7">E90</f>
         <v>0.9</v>
       </c>
       <c r="F186" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G186" s="14">
@@ -12325,11 +12358,11 @@
         <v>59</v>
       </c>
       <c r="E187" s="3">
-        <f t="shared" ref="E187:F187" si="8">E91</f>
+        <f t="shared" ref="E187" si="8">E91</f>
         <v>0.9</v>
       </c>
       <c r="F187" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G187" s="14">
@@ -12392,11 +12425,11 @@
         <v>60</v>
       </c>
       <c r="E188" s="3">
-        <f t="shared" ref="E188:F188" si="9">E92</f>
+        <f t="shared" ref="E188" si="9">E92</f>
         <v>0.9</v>
       </c>
       <c r="F188" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G188" s="14">
@@ -12459,11 +12492,11 @@
         <v>60</v>
       </c>
       <c r="E189" s="3">
-        <f t="shared" ref="E189:F189" si="10">E93</f>
+        <f t="shared" ref="E189" si="10">E93</f>
         <v>0.9</v>
       </c>
       <c r="F189" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G189" s="14">
@@ -12526,11 +12559,11 @@
         <v>60</v>
       </c>
       <c r="E190" s="3">
-        <f t="shared" ref="E190:F190" si="11">E94</f>
+        <f t="shared" ref="E190" si="11">E94</f>
         <v>0.9</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G190" s="14">
@@ -12593,11 +12626,11 @@
         <v>60</v>
       </c>
       <c r="E191" s="3">
-        <f t="shared" ref="E191:F191" si="12">E95</f>
+        <f t="shared" ref="E191" si="12">E95</f>
         <v>0.9</v>
       </c>
       <c r="F191" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G191" s="14">
@@ -12660,11 +12693,11 @@
         <v>60</v>
       </c>
       <c r="E192" s="3">
-        <f t="shared" ref="E192:F192" si="13">E96</f>
+        <f t="shared" ref="E192" si="13">E96</f>
         <v>0.9</v>
       </c>
       <c r="F192" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G192" s="14">
@@ -12727,11 +12760,11 @@
         <v>60</v>
       </c>
       <c r="E193" s="3">
-        <f t="shared" ref="E193:F193" si="14">E97</f>
+        <f t="shared" ref="E193" si="14">E97</f>
         <v>0.9</v>
       </c>
       <c r="F193" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="G193" s="14">
@@ -12794,18 +12827,18 @@
         <v>59</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:F194" si="15">E182</f>
+        <f t="shared" ref="E194" si="15">E182</f>
         <v>0.9</v>
       </c>
       <c r="F194" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F194:H205" si="16">F182</f>
         <v>0.9</v>
       </c>
       <c r="G194" s="14">
         <v>0</v>
       </c>
       <c r="H194" s="3">
-        <f t="shared" ref="H194:H205" si="16">H182</f>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="I194" s="11">
@@ -12857,11 +12890,11 @@
         <v>59</v>
       </c>
       <c r="E195" s="3">
-        <f t="shared" ref="E195:F195" si="17">E183</f>
+        <f t="shared" ref="E195" si="17">E183</f>
         <v>0.9</v>
       </c>
       <c r="F195" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G195" s="14">
@@ -12920,11 +12953,11 @@
         <v>59</v>
       </c>
       <c r="E196" s="3">
-        <f t="shared" ref="E196:F196" si="18">E184</f>
+        <f t="shared" ref="E196" si="18">E184</f>
         <v>0.9</v>
       </c>
       <c r="F196" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G196" s="14">
@@ -12983,11 +13016,11 @@
         <v>59</v>
       </c>
       <c r="E197" s="3">
-        <f t="shared" ref="E197:F197" si="19">E185</f>
+        <f t="shared" ref="E197" si="19">E185</f>
         <v>0.9</v>
       </c>
       <c r="F197" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G197" s="14">
@@ -13046,11 +13079,11 @@
         <v>59</v>
       </c>
       <c r="E198" s="3">
-        <f t="shared" ref="E198:F198" si="20">E186</f>
+        <f t="shared" ref="E198" si="20">E186</f>
         <v>0.9</v>
       </c>
       <c r="F198" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G198" s="14">
@@ -13109,11 +13142,11 @@
         <v>59</v>
       </c>
       <c r="E199" s="3">
-        <f t="shared" ref="E199:F199" si="21">E187</f>
+        <f t="shared" ref="E199" si="21">E187</f>
         <v>0.9</v>
       </c>
       <c r="F199" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G199" s="14">
@@ -13172,11 +13205,11 @@
         <v>60</v>
       </c>
       <c r="E200" s="3">
-        <f t="shared" ref="E200:F200" si="22">E188</f>
+        <f t="shared" ref="E200" si="22">E188</f>
         <v>0.9</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G200" s="14">
@@ -13235,11 +13268,11 @@
         <v>60</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" ref="E201:F201" si="23">E189</f>
+        <f t="shared" ref="E201" si="23">E189</f>
         <v>0.9</v>
       </c>
       <c r="F201" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G201" s="14">
@@ -13298,11 +13331,11 @@
         <v>60</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" ref="E202:F202" si="24">E190</f>
+        <f t="shared" ref="E202" si="24">E190</f>
         <v>0.9</v>
       </c>
       <c r="F202" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G202" s="14">
@@ -13361,11 +13394,11 @@
         <v>60</v>
       </c>
       <c r="E203" s="3">
-        <f t="shared" ref="E203:F203" si="25">E191</f>
+        <f t="shared" ref="E203" si="25">E191</f>
         <v>0.9</v>
       </c>
       <c r="F203" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G203" s="14">
@@ -13424,11 +13457,11 @@
         <v>60</v>
       </c>
       <c r="E204" s="3">
-        <f t="shared" ref="E204:F204" si="26">E192</f>
+        <f t="shared" ref="E204" si="26">E192</f>
         <v>0.9</v>
       </c>
       <c r="F204" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G204" s="14">
@@ -13487,11 +13520,11 @@
         <v>60</v>
       </c>
       <c r="E205" s="3">
-        <f t="shared" ref="E205:F205" si="27">E193</f>
+        <f t="shared" ref="E205" si="27">E193</f>
         <v>0.9</v>
       </c>
       <c r="F205" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="G205" s="14">
@@ -14965,8 +14998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15030,7 +15063,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15056,7 +15089,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -15082,7 +15115,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -15108,7 +15141,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -15134,7 +15167,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -15160,7 +15193,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -15186,7 +15219,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -15212,7 +15245,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -15238,7 +15271,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -15264,7 +15297,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -15290,7 +15323,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -15316,7 +15349,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15342,7 +15375,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -15368,7 +15401,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -15394,7 +15427,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -15420,7 +15453,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -15446,7 +15479,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -15472,7 +15505,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -15498,7 +15531,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -15524,7 +15557,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -15550,7 +15583,7 @@
         <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -15576,7 +15609,7 @@
         <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -15599,10 +15632,10 @@
         <v>6</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -15625,10 +15658,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15654,7 +15687,7 @@
         <v>8</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15677,10 +15710,10 @@
         <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -15703,10 +15736,10 @@
         <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -15729,10 +15762,10 @@
         <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15755,10 +15788,10 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15781,10 +15814,10 @@
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -15807,10 +15840,10 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -15833,10 +15866,10 @@
         <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -15859,10 +15892,10 @@
         <v>7</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -15885,10 +15918,10 @@
         <v>7</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -15911,10 +15944,10 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -15937,10 +15970,10 @@
         <v>9</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -15966,7 +15999,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -15989,10 +16022,10 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16015,10 +16048,10 @@
         <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16041,10 +16074,10 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -16067,10 +16100,10 @@
         <v>6</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -16093,10 +16126,10 @@
         <v>6</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -16119,10 +16152,10 @@
         <v>7</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -16145,10 +16178,10 @@
         <v>7</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -16171,10 +16204,10 @@
         <v>7</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -16197,10 +16230,10 @@
         <v>7</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -16223,10 +16256,10 @@
         <v>6</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -16249,10 +16282,10 @@
         <v>6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -16278,7 +16311,7 @@
         <v>8</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16301,10 +16334,10 @@
         <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -16327,10 +16360,10 @@
         <v>7</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -16353,10 +16386,10 @@
         <v>7</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -16379,10 +16412,10 @@
         <v>6</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -16405,10 +16438,10 @@
         <v>6</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -16431,10 +16464,10 @@
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -16457,10 +16490,10 @@
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -16483,10 +16516,10 @@
         <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -16509,10 +16542,10 @@
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -16535,10 +16568,10 @@
         <v>6</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -16561,10 +16594,10 @@
         <v>6</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -16590,7 +16623,7 @@
         <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -16613,10 +16646,10 @@
         <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -16639,10 +16672,10 @@
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -16665,10 +16698,10 @@
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -16691,10 +16724,10 @@
         <v>6</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -16717,10 +16750,10 @@
         <v>6</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -16743,10 +16776,10 @@
         <v>7</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -16769,10 +16802,10 @@
         <v>7</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -16795,10 +16828,10 @@
         <v>7</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -16821,10 +16854,10 @@
         <v>7</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -16847,10 +16880,10 @@
         <v>6</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -16873,10 +16906,10 @@
         <v>6</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -16902,7 +16935,7 @@
         <v>8</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -16925,10 +16958,10 @@
         <v>7</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -16951,10 +16984,10 @@
         <v>7</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -16977,10 +17010,10 @@
         <v>7</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -17003,10 +17036,10 @@
         <v>6</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -17029,10 +17062,10 @@
         <v>6</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -17055,10 +17088,10 @@
         <v>7</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -17081,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -17107,10 +17140,10 @@
         <v>7</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -17133,10 +17166,10 @@
         <v>7</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -17159,10 +17192,10 @@
         <v>6</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -17185,10 +17218,10 @@
         <v>6</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -17211,10 +17244,10 @@
         <v>7</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -17237,10 +17270,10 @@
         <v>7</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -17263,10 +17296,10 @@
         <v>7</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -17289,10 +17322,10 @@
         <v>7</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -17315,10 +17348,10 @@
         <v>6</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -17341,10 +17374,10 @@
         <v>6</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -17367,10 +17400,10 @@
         <v>7</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -17393,10 +17426,10 @@
         <v>7</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -17419,10 +17452,10 @@
         <v>7</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -17445,10 +17478,10 @@
         <v>7</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -17471,10 +17504,10 @@
         <v>6</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -17497,10 +17530,10 @@
         <v>6</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -17526,7 +17559,7 @@
         <v>8</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -17549,10 +17582,10 @@
         <v>7</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -17575,10 +17608,10 @@
         <v>7</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -17601,10 +17634,10 @@
         <v>7</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -17627,10 +17660,10 @@
         <v>6</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -17653,10 +17686,10 @@
         <v>6</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -17679,10 +17712,10 @@
         <v>7</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -17705,10 +17738,10 @@
         <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -17731,10 +17764,10 @@
         <v>7</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -17757,10 +17790,10 @@
         <v>6</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -17783,10 +17816,10 @@
         <v>6</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -17809,10 +17842,10 @@
         <v>6</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -17838,7 +17871,7 @@
         <v>8</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -17861,10 +17894,10 @@
         <v>7</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -17887,10 +17920,10 @@
         <v>7</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -17913,10 +17946,10 @@
         <v>7</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -17939,10 +17972,10 @@
         <v>6</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -17965,10 +17998,10 @@
         <v>6</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -17991,10 +18024,10 @@
         <v>7</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -18017,10 +18050,10 @@
         <v>7</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -18043,10 +18076,10 @@
         <v>7</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -18069,10 +18102,10 @@
         <v>6</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -18095,10 +18128,10 @@
         <v>6</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -18121,10 +18154,10 @@
         <v>6</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -18150,7 +18183,7 @@
         <v>8</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -18173,10 +18206,10 @@
         <v>7</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -18199,10 +18232,10 @@
         <v>6</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -18225,10 +18258,10 @@
         <v>6</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -18251,10 +18284,10 @@
         <v>6</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -18277,10 +18310,10 @@
         <v>6</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -18303,10 +18336,10 @@
         <v>6</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -18329,10 +18362,10 @@
         <v>6</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -18355,10 +18388,10 @@
         <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -18381,10 +18414,10 @@
         <v>6</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -18407,10 +18440,10 @@
         <v>6</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -18433,10 +18466,10 @@
         <v>6</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -18462,7 +18495,7 @@
         <v>8</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -18488,7 +18521,7 @@
         <v>8</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -18514,7 +18547,7 @@
         <v>8</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -18540,7 +18573,7 @@
         <v>8</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -18566,7 +18599,7 @@
         <v>8</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -18592,7 +18625,7 @@
         <v>8</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -18618,7 +18651,7 @@
         <v>8</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -18644,7 +18677,7 @@
         <v>8</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -18670,7 +18703,7 @@
         <v>8</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -18696,7 +18729,7 @@
         <v>8</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -18722,7 +18755,7 @@
         <v>8</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -18748,7 +18781,7 @@
         <v>8</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -18771,10 +18804,10 @@
         <v>8</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -18797,10 +18830,10 @@
         <v>8</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -18823,10 +18856,10 @@
         <v>8</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -18849,10 +18882,10 @@
         <v>8</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -18875,10 +18908,10 @@
         <v>8</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -18901,10 +18934,10 @@
         <v>8</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -18927,10 +18960,10 @@
         <v>8</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -18953,10 +18986,10 @@
         <v>8</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -18979,10 +19012,10 @@
         <v>8</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -19005,10 +19038,10 @@
         <v>8</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -19031,10 +19064,10 @@
         <v>8</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -19057,10 +19090,10 @@
         <v>8</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -19086,7 +19119,7 @@
         <v>8</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -19112,7 +19145,7 @@
         <v>8</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -19138,7 +19171,7 @@
         <v>8</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -19164,7 +19197,7 @@
         <v>8</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -19190,7 +19223,7 @@
         <v>8</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -19216,7 +19249,7 @@
         <v>8</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -19242,7 +19275,7 @@
         <v>8</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -19268,7 +19301,7 @@
         <v>8</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -19294,7 +19327,7 @@
         <v>8</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -19320,7 +19353,7 @@
         <v>8</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -19346,7 +19379,7 @@
         <v>8</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -19372,7 +19405,7 @@
         <v>8</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -19395,10 +19428,10 @@
         <v>8</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -19421,10 +19454,10 @@
         <v>8</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -19447,10 +19480,10 @@
         <v>8</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -19473,10 +19506,10 @@
         <v>8</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -19499,10 +19532,10 @@
         <v>8</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -19525,10 +19558,10 @@
         <v>8</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -19551,10 +19584,10 @@
         <v>8</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -19577,10 +19610,10 @@
         <v>8</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -19603,10 +19636,10 @@
         <v>8</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -19629,10 +19662,10 @@
         <v>8</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -19655,10 +19688,10 @@
         <v>8</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -19681,10 +19714,10 @@
         <v>8</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -19711,7 +19744,7 @@
         <v>T0</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -19735,10 +19768,10 @@
       </c>
       <c r="G183" s="3" t="str">
         <f t="shared" ref="G183:G193" si="0">G99</f>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -19762,10 +19795,10 @@
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -19789,10 +19822,10 @@
       </c>
       <c r="G185" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -19816,10 +19849,10 @@
       </c>
       <c r="G186" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -19843,10 +19876,10 @@
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -19872,10 +19905,10 @@
       </c>
       <c r="G188" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -19901,10 +19934,10 @@
       </c>
       <c r="G189" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -19930,10 +19963,10 @@
       </c>
       <c r="G190" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -19959,10 +19992,10 @@
       </c>
       <c r="G191" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -19988,10 +20021,10 @@
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -20017,10 +20050,10 @@
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T3</v>
+        <v>T19</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -20046,7 +20079,7 @@
         <v>8</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -20069,10 +20102,10 @@
         <v>7</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -20095,10 +20128,10 @@
         <v>7</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -20121,10 +20154,10 @@
         <v>7</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -20147,10 +20180,10 @@
         <v>6</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -20173,10 +20206,10 @@
         <v>6</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -20199,10 +20232,10 @@
         <v>7</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -20225,10 +20258,10 @@
         <v>7</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -20251,10 +20284,10 @@
         <v>7</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -20277,10 +20310,10 @@
         <v>6</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -20303,10 +20336,10 @@
         <v>6</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -20329,10 +20362,10 @@
         <v>6</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -20358,7 +20391,7 @@
         <v>8</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -20381,10 +20414,10 @@
         <v>7</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -20407,10 +20440,10 @@
         <v>7</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -20433,10 +20466,10 @@
         <v>7</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -20459,10 +20492,10 @@
         <v>6</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -20485,10 +20518,10 @@
         <v>6</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -20511,10 +20544,10 @@
         <v>7</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -20537,10 +20570,10 @@
         <v>7</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -20563,10 +20596,10 @@
         <v>7</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -20589,10 +20622,10 @@
         <v>6</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -20615,10 +20648,10 @@
         <v>6</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -20641,10 +20674,10 @@
         <v>6</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -20670,7 +20703,7 @@
         <v>8</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -20693,10 +20726,10 @@
         <v>7</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -20719,10 +20752,10 @@
         <v>7</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -20745,10 +20778,10 @@
         <v>7</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -20771,10 +20804,10 @@
         <v>6</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -20797,10 +20830,10 @@
         <v>6</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -20823,10 +20856,10 @@
         <v>7</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -20849,10 +20882,10 @@
         <v>7</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -20875,10 +20908,10 @@
         <v>7</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -20901,10 +20934,10 @@
         <v>6</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -20927,10 +20960,10 @@
         <v>6</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -20953,10 +20986,10 @@
         <v>6</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -20966,13 +20999,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E233" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20985,10 +21018,14 @@
     <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -21016,8 +21053,20 @@
       <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -21045,8 +21094,20 @@
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -21074,8 +21135,20 @@
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -21103,8 +21176,20 @@
       <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -21132,8 +21217,20 @@
       <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -21161,8 +21258,20 @@
       <c r="I6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -21190,8 +21299,20 @@
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -21219,8 +21340,20 @@
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -21248,8 +21381,20 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -21277,8 +21422,20 @@
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -21306,8 +21463,20 @@
       <c r="I11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -21335,8 +21504,20 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -21364,8 +21545,20 @@
       <c r="I13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -21393,8 +21586,20 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -21422,8 +21627,20 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -21451,8 +21668,20 @@
       <c r="I16" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -21480,8 +21709,20 @@
       <c r="I17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -21509,8 +21750,20 @@
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -21538,8 +21791,20 @@
       <c r="I19" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -21567,8 +21832,20 @@
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -21596,8 +21873,20 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -21625,8 +21914,20 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -21654,8 +21955,20 @@
       <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -21683,8 +21996,20 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -21712,8 +22037,20 @@
       <c r="I25" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -21741,8 +22078,20 @@
       <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -21770,8 +22119,20 @@
       <c r="I27" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -21799,8 +22160,20 @@
       <c r="I28" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -21828,8 +22201,20 @@
       <c r="I29" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -21857,8 +22242,20 @@
       <c r="I30" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -21886,8 +22283,20 @@
       <c r="I31" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -21915,8 +22324,20 @@
       <c r="I32" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -21944,8 +22365,20 @@
       <c r="I33" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -21973,8 +22406,20 @@
       <c r="I34" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
@@ -22002,8 +22447,20 @@
       <c r="I35" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
@@ -22031,8 +22488,20 @@
       <c r="I36" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -22060,8 +22529,20 @@
       <c r="I37" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>19</v>
       </c>
@@ -22089,8 +22570,20 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
@@ -22118,8 +22611,20 @@
       <c r="I39" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -22147,8 +22652,20 @@
       <c r="I40" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
@@ -22176,8 +22693,20 @@
       <c r="I41" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>19</v>
       </c>
@@ -22205,8 +22734,20 @@
       <c r="I42" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
@@ -22234,8 +22775,20 @@
       <c r="I43" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
@@ -22263,8 +22816,20 @@
       <c r="I44" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>19</v>
       </c>
@@ -22292,8 +22857,20 @@
       <c r="I45" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>19</v>
       </c>
@@ -22321,8 +22898,20 @@
       <c r="I46" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>19</v>
       </c>
@@ -22350,8 +22939,20 @@
       <c r="I47" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>19</v>
       </c>
@@ -22379,8 +22980,20 @@
       <c r="I48" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
@@ -22408,8 +23021,20 @@
       <c r="I49" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
@@ -22437,8 +23062,20 @@
       <c r="I50" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
@@ -22466,8 +23103,20 @@
       <c r="I51" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>20</v>
       </c>
@@ -22495,8 +23144,20 @@
       <c r="I52" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -22524,8 +23185,20 @@
       <c r="I53" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
@@ -22553,8 +23226,20 @@
       <c r="I54" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>20</v>
       </c>
@@ -22582,8 +23267,20 @@
       <c r="I55" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>20</v>
       </c>
@@ -22611,8 +23308,20 @@
       <c r="I56" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>20</v>
       </c>
@@ -22640,8 +23349,20 @@
       <c r="I57" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
@@ -22669,8 +23390,20 @@
       <c r="I58" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>20</v>
       </c>
@@ -22698,8 +23431,20 @@
       <c r="I59" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>20</v>
       </c>
@@ -22727,8 +23472,20 @@
       <c r="I60" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>20</v>
       </c>
@@ -22756,8 +23513,20 @@
       <c r="I61" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -22785,8 +23554,20 @@
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>30</v>
       </c>
@@ -22814,8 +23595,20 @@
       <c r="I63" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -22843,8 +23636,20 @@
       <c r="I64" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>30</v>
       </c>
@@ -22872,8 +23677,20 @@
       <c r="I65" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
@@ -22901,8 +23718,20 @@
       <c r="I66" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>30</v>
       </c>
@@ -22930,8 +23759,20 @@
       <c r="I67" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -22959,8 +23800,20 @@
       <c r="I68" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -22988,8 +23841,20 @@
       <c r="I69" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>30</v>
       </c>
@@ -23017,8 +23882,20 @@
       <c r="I70" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>30</v>
       </c>
@@ -23046,8 +23923,20 @@
       <c r="I71" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>30</v>
       </c>
@@ -23075,8 +23964,20 @@
       <c r="I72" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>30</v>
       </c>
@@ -23104,8 +24005,20 @@
       <c r="I73" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>21</v>
       </c>
@@ -23133,8 +24046,20 @@
       <c r="I74" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>21</v>
       </c>
@@ -23162,8 +24087,20 @@
       <c r="I75" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>21</v>
       </c>
@@ -23191,8 +24128,20 @@
       <c r="I76" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -23220,8 +24169,20 @@
       <c r="I77" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>21</v>
       </c>
@@ -23249,8 +24210,20 @@
       <c r="I78" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -23278,8 +24251,20 @@
       <c r="I79" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>21</v>
       </c>
@@ -23307,8 +24292,20 @@
       <c r="I80" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -23336,8 +24333,20 @@
       <c r="I81" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -23365,8 +24374,20 @@
       <c r="I82" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>21</v>
       </c>
@@ -23394,8 +24415,20 @@
       <c r="I83" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -23423,8 +24456,20 @@
       <c r="I84" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>21</v>
       </c>
@@ -23452,8 +24497,20 @@
       <c r="I85" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>22</v>
       </c>
@@ -23481,8 +24538,20 @@
       <c r="I86" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>22</v>
       </c>
@@ -23510,8 +24579,20 @@
       <c r="I87" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>22</v>
       </c>
@@ -23539,8 +24620,20 @@
       <c r="I88" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>22</v>
       </c>
@@ -23568,8 +24661,20 @@
       <c r="I89" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>22</v>
       </c>
@@ -23597,8 +24702,20 @@
       <c r="I90" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>22</v>
       </c>
@@ -23626,8 +24743,20 @@
       <c r="I91" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>22</v>
       </c>
@@ -23655,8 +24784,20 @@
       <c r="I92" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>22</v>
       </c>
@@ -23684,8 +24825,20 @@
       <c r="I93" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>22</v>
       </c>
@@ -23713,8 +24866,20 @@
       <c r="I94" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>22</v>
       </c>
@@ -23742,8 +24907,20 @@
       <c r="I95" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>22</v>
       </c>
@@ -23771,8 +24948,20 @@
       <c r="I96" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>22</v>
       </c>
@@ -23800,8 +24989,20 @@
       <c r="I97" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>23</v>
       </c>
@@ -23829,8 +25030,20 @@
       <c r="I98" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>23</v>
       </c>
@@ -23858,8 +25071,20 @@
       <c r="I99" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
@@ -23887,8 +25112,20 @@
       <c r="I100" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>23</v>
       </c>
@@ -23916,8 +25153,20 @@
       <c r="I101" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>23</v>
       </c>
@@ -23945,8 +25194,20 @@
       <c r="I102" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>23</v>
       </c>
@@ -23974,8 +25235,20 @@
       <c r="I103" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>23</v>
       </c>
@@ -24003,8 +25276,20 @@
       <c r="I104" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>23</v>
       </c>
@@ -24032,8 +25317,20 @@
       <c r="I105" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>23</v>
       </c>
@@ -24061,8 +25358,20 @@
       <c r="I106" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>23</v>
       </c>
@@ -24090,8 +25399,20 @@
       <c r="I107" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>23</v>
       </c>
@@ -24119,8 +25440,20 @@
       <c r="I108" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>23</v>
       </c>
@@ -24148,8 +25481,20 @@
       <c r="I109" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>24</v>
       </c>
@@ -24177,8 +25522,20 @@
       <c r="I110" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>24</v>
       </c>
@@ -24206,8 +25563,20 @@
       <c r="I111" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>24</v>
       </c>
@@ -24235,8 +25604,20 @@
       <c r="I112" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>24</v>
       </c>
@@ -24264,8 +25645,20 @@
       <c r="I113" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>24</v>
       </c>
@@ -24293,8 +25686,20 @@
       <c r="I114" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>24</v>
       </c>
@@ -24322,8 +25727,20 @@
       <c r="I115" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>24</v>
       </c>
@@ -24351,8 +25768,20 @@
       <c r="I116" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>24</v>
       </c>
@@ -24380,8 +25809,20 @@
       <c r="I117" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>24</v>
       </c>
@@ -24409,8 +25850,20 @@
       <c r="I118" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>24</v>
       </c>
@@ -24438,8 +25891,20 @@
       <c r="I119" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>24</v>
       </c>
@@ -24467,8 +25932,20 @@
       <c r="I120" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>24</v>
       </c>
@@ -24496,8 +25973,20 @@
       <c r="I121" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>25</v>
       </c>
@@ -24525,8 +26014,20 @@
       <c r="I122" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>25</v>
       </c>
@@ -24554,8 +26055,20 @@
       <c r="I123" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>25</v>
       </c>
@@ -24583,8 +26096,20 @@
       <c r="I124" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>25</v>
       </c>
@@ -24612,8 +26137,20 @@
       <c r="I125" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>25</v>
       </c>
@@ -24641,8 +26178,20 @@
       <c r="I126" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>25</v>
       </c>
@@ -24670,8 +26219,20 @@
       <c r="I127" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>25</v>
       </c>
@@ -24699,8 +26260,20 @@
       <c r="I128" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>25</v>
       </c>
@@ -24728,8 +26301,20 @@
       <c r="I129" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>25</v>
       </c>
@@ -24757,8 +26342,20 @@
       <c r="I130" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>25</v>
       </c>
@@ -24786,8 +26383,20 @@
       <c r="I131" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>25</v>
       </c>
@@ -24815,8 +26424,20 @@
       <c r="I132" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>25</v>
       </c>
@@ -24844,8 +26465,20 @@
       <c r="I133" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>26</v>
       </c>
@@ -24873,8 +26506,20 @@
       <c r="I134" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>26</v>
       </c>
@@ -24902,8 +26547,20 @@
       <c r="I135" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>26</v>
       </c>
@@ -24931,8 +26588,20 @@
       <c r="I136" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>26</v>
       </c>
@@ -24960,8 +26629,20 @@
       <c r="I137" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>26</v>
       </c>
@@ -24989,8 +26670,20 @@
       <c r="I138" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>26</v>
       </c>
@@ -25018,8 +26711,20 @@
       <c r="I139" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>26</v>
       </c>
@@ -25047,8 +26752,20 @@
       <c r="I140" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>26</v>
       </c>
@@ -25076,8 +26793,20 @@
       <c r="I141" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>26</v>
       </c>
@@ -25105,8 +26834,20 @@
       <c r="I142" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>26</v>
       </c>
@@ -25134,8 +26875,20 @@
       <c r="I143" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>26</v>
       </c>
@@ -25163,8 +26916,20 @@
       <c r="I144" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>26</v>
       </c>
@@ -25192,8 +26957,20 @@
       <c r="I145" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>27</v>
       </c>
@@ -25221,8 +26998,20 @@
       <c r="I146" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>27</v>
       </c>
@@ -25250,8 +27039,20 @@
       <c r="I147" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>27</v>
       </c>
@@ -25279,8 +27080,20 @@
       <c r="I148" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>27</v>
       </c>
@@ -25308,8 +27121,20 @@
       <c r="I149" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>27</v>
       </c>
@@ -25337,8 +27162,20 @@
       <c r="I150" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -25366,8 +27203,20 @@
       <c r="I151" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>27</v>
       </c>
@@ -25395,8 +27244,20 @@
       <c r="I152" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>27</v>
       </c>
@@ -25424,8 +27285,20 @@
       <c r="I153" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>27</v>
       </c>
@@ -25453,8 +27326,20 @@
       <c r="I154" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>27</v>
       </c>
@@ -25482,8 +27367,20 @@
       <c r="I155" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>27</v>
       </c>
@@ -25511,8 +27408,20 @@
       <c r="I156" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>27</v>
       </c>
@@ -25540,8 +27449,20 @@
       <c r="I157" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>28</v>
       </c>
@@ -25569,8 +27490,20 @@
       <c r="I158" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>28</v>
       </c>
@@ -25598,8 +27531,20 @@
       <c r="I159" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>28</v>
       </c>
@@ -25627,8 +27572,20 @@
       <c r="I160" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>28</v>
       </c>
@@ -25656,8 +27613,20 @@
       <c r="I161" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>28</v>
       </c>
@@ -25685,8 +27654,20 @@
       <c r="I162" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>28</v>
       </c>
@@ -25714,8 +27695,20 @@
       <c r="I163" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>28</v>
       </c>
@@ -25743,8 +27736,20 @@
       <c r="I164" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>28</v>
       </c>
@@ -25772,8 +27777,20 @@
       <c r="I165" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>28</v>
       </c>
@@ -25801,8 +27818,20 @@
       <c r="I166" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>28</v>
       </c>
@@ -25830,8 +27859,20 @@
       <c r="I167" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>28</v>
       </c>
@@ -25859,8 +27900,20 @@
       <c r="I168" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>28</v>
       </c>
@@ -25888,8 +27941,20 @@
       <c r="I169" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>29</v>
       </c>
@@ -25917,8 +27982,20 @@
       <c r="I170" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>29</v>
       </c>
@@ -25946,8 +28023,20 @@
       <c r="I171" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>29</v>
       </c>
@@ -25975,8 +28064,20 @@
       <c r="I172" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>29</v>
       </c>
@@ -26004,8 +28105,20 @@
       <c r="I173" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>29</v>
       </c>
@@ -26033,8 +28146,20 @@
       <c r="I174" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>29</v>
       </c>
@@ -26062,8 +28187,20 @@
       <c r="I175" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>29</v>
       </c>
@@ -26091,8 +28228,20 @@
       <c r="I176" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>29</v>
       </c>
@@ -26120,8 +28269,20 @@
       <c r="I177" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>29</v>
       </c>
@@ -26149,8 +28310,20 @@
       <c r="I178" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>29</v>
       </c>
@@ -26178,8 +28351,20 @@
       <c r="I179" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>29</v>
       </c>
@@ -26207,8 +28392,20 @@
       <c r="I180" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>29</v>
       </c>
@@ -26236,8 +28433,20 @@
       <c r="I181" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>39</v>
       </c>
@@ -26270,8 +28479,20 @@
         <f>I86</f>
         <v>T1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>39</v>
       </c>
@@ -26304,8 +28525,20 @@
         <f t="shared" ref="I183:I193" si="4">I87</f>
         <v>T1</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>39</v>
       </c>
@@ -26338,8 +28571,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>39</v>
       </c>
@@ -26372,8 +28617,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>39</v>
       </c>
@@ -26406,8 +28663,20 @@
         <f t="shared" si="4"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>39</v>
       </c>
@@ -26440,8 +28709,20 @@
         <f t="shared" si="4"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>39</v>
       </c>
@@ -26474,8 +28755,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>39</v>
       </c>
@@ -26508,8 +28801,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>39</v>
       </c>
@@ -26542,8 +28847,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>39</v>
       </c>
@@ -26576,8 +28893,20 @@
         <f t="shared" si="4"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>39</v>
       </c>
@@ -26610,8 +28939,20 @@
         <f t="shared" si="4"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>39</v>
       </c>
@@ -26644,8 +28985,20 @@
         <f t="shared" si="4"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>40</v>
       </c>
@@ -26675,8 +29028,20 @@
         <f>I50</f>
         <v>T0</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>40</v>
       </c>
@@ -26706,8 +29071,20 @@
         <f t="shared" ref="I195:I205" si="5">I51</f>
         <v>T1</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M195" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>40</v>
       </c>
@@ -26737,8 +29114,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>40</v>
       </c>
@@ -26768,8 +29157,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>40</v>
       </c>
@@ -26799,8 +29200,20 @@
         <f t="shared" si="5"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>40</v>
       </c>
@@ -26830,8 +29243,20 @@
         <f t="shared" si="5"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>40</v>
       </c>
@@ -26861,8 +29286,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>40</v>
       </c>
@@ -26892,8 +29329,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>40</v>
       </c>
@@ -26923,8 +29372,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>40</v>
       </c>
@@ -26954,8 +29415,20 @@
         <f t="shared" si="5"/>
         <v>T1</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>40</v>
       </c>
@@ -26985,8 +29458,20 @@
         <f t="shared" si="5"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>40</v>
       </c>
@@ -27016,8 +29501,20 @@
         <f t="shared" si="5"/>
         <v>T2</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>41</v>
       </c>
@@ -27045,8 +29542,20 @@
       <c r="I206" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>41</v>
       </c>
@@ -27074,8 +29583,20 @@
       <c r="I207" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>41</v>
       </c>
@@ -27103,8 +29624,20 @@
       <c r="I208" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>41</v>
       </c>
@@ -27132,8 +29665,20 @@
       <c r="I209" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>41</v>
       </c>
@@ -27161,8 +29706,20 @@
       <c r="I210" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>41</v>
       </c>
@@ -27190,8 +29747,20 @@
       <c r="I211" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>41</v>
       </c>
@@ -27219,8 +29788,20 @@
       <c r="I212" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M212" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>41</v>
       </c>
@@ -27248,8 +29829,20 @@
       <c r="I213" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>41</v>
       </c>
@@ -27277,8 +29870,20 @@
       <c r="I214" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>41</v>
       </c>
@@ -27306,8 +29911,20 @@
       <c r="I215" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>41</v>
       </c>
@@ -27335,8 +29952,20 @@
       <c r="I216" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>41</v>
       </c>
@@ -27364,8 +29993,20 @@
       <c r="I217" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>73</v>
       </c>
@@ -27393,8 +30034,20 @@
       <c r="I218" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>73</v>
       </c>
@@ -27422,8 +30075,20 @@
       <c r="I219" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>73</v>
       </c>
@@ -27451,8 +30116,20 @@
       <c r="I220" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>73</v>
       </c>
@@ -27480,8 +30157,20 @@
       <c r="I221" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>73</v>
       </c>
@@ -27509,8 +30198,20 @@
       <c r="I222" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M222" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>73</v>
       </c>
@@ -27538,8 +30239,20 @@
       <c r="I223" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>73</v>
       </c>
@@ -27567,8 +30280,20 @@
       <c r="I224" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>73</v>
       </c>
@@ -27596,8 +30321,20 @@
       <c r="I225" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>73</v>
       </c>
@@ -27625,8 +30362,20 @@
       <c r="I226" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>73</v>
       </c>
@@ -27654,8 +30403,20 @@
       <c r="I227" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>73</v>
       </c>
@@ -27683,8 +30444,20 @@
       <c r="I228" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>73</v>
       </c>
@@ -27711,6 +30484,18 @@
       </c>
       <c r="I229" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -29144,12 +31929,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -29319,16 +32113,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -29344,7 +32137,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29360,12 +32153,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -394,13 +394,13 @@
     <t>Mobi_kgm2</t>
   </si>
   <si>
-    <t>T14</t>
+    <t>T16</t>
   </si>
   <si>
-    <t>T7</t>
+    <t>T12</t>
   </si>
   <si>
-    <t>T8</t>
+    <t>T13</t>
   </si>
 </sst>
 </file>
@@ -15107,7 +15107,7 @@
   <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19876,7 +19876,7 @@
       </c>
       <c r="G183" s="3" t="str">
         <f t="shared" ref="G183:G193" si="0">G99</f>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>120</v>
@@ -19903,7 +19903,7 @@
       </c>
       <c r="G184" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>120</v>
@@ -19930,7 +19930,7 @@
       </c>
       <c r="G185" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>120</v>
@@ -19957,7 +19957,7 @@
       </c>
       <c r="G186" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>120</v>
@@ -19984,7 +19984,7 @@
       </c>
       <c r="G187" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>120</v>
@@ -20013,7 +20013,7 @@
       </c>
       <c r="G188" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>120</v>
@@ -20042,7 +20042,7 @@
       </c>
       <c r="G189" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>120</v>
@@ -20071,7 +20071,7 @@
       </c>
       <c r="G190" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>120</v>
@@ -20100,7 +20100,7 @@
       </c>
       <c r="G191" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>120</v>
@@ -20129,7 +20129,7 @@
       </c>
       <c r="G192" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>120</v>
@@ -20158,7 +20158,7 @@
       </c>
       <c r="G193" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>T7</v>
+        <v>T12</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>120</v>
@@ -43043,6 +43043,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -43212,12 +43218,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -43228,6 +43228,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43245,22 +43261,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>

--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -334,9 +334,6 @@
     <t>T16</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>Concrete and Masonry 2010's - Minergie Standard</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1358,11 +1358,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,10 +1387,10 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>54</v>
@@ -1449,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="22">
         <v>1000</v>
@@ -1509,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>46</v>
@@ -1569,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>47</v>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>48</v>
@@ -1689,7 +1689,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>53</v>
@@ -1748,7 +1748,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>53</v>
@@ -1838,7 +1838,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2086,7 +2086,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2212,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2236,7 +2236,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>89</v>
@@ -3955,12 +3955,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4134,15 +4131,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4166,17 +4174,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2930" windowWidth="19340" windowHeight="16460" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
     <sheet name="AIR_CONDITIONING" sheetId="1" r:id="rId2"/>
     <sheet name="SUPPLY" sheetId="8" r:id="rId3"/>
     <sheet name="EMISSION_INTENSITY" sheetId="9" r:id="rId4"/>
+    <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
+    <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="107">
+  <si>
+    <t>Code</t>
+  </si>
   <si>
     <t>type_hs</t>
   </si>
@@ -62,6 +67,75 @@
     <t>T4</t>
   </si>
   <si>
+    <t>Ths_set_C</t>
+  </si>
+  <si>
+    <t>Ea_Wm2</t>
+  </si>
+  <si>
+    <t>El_Wm2</t>
+  </si>
+  <si>
+    <t>Epro_Wm2</t>
+  </si>
+  <si>
+    <t>Tcs_set_C</t>
+  </si>
+  <si>
+    <t>MULTI_RES</t>
+  </si>
+  <si>
+    <t>SINGLE_RES</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>RESTAURANT</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>GYM</t>
+  </si>
+  <si>
+    <t>SWIMMING</t>
+  </si>
+  <si>
+    <t>SERVERROOM</t>
+  </si>
+  <si>
+    <t>PARKING</t>
+  </si>
+  <si>
+    <t>COOLROOM</t>
+  </si>
+  <si>
+    <t>FOODSTORE</t>
+  </si>
+  <si>
+    <t>Ed_Wm2</t>
+  </si>
+  <si>
+    <t>Tcs_setb_C</t>
+  </si>
+  <si>
+    <t>Ths_setb_C</t>
+  </si>
+  <si>
     <t>type_win</t>
   </si>
   <si>
@@ -77,6 +151,15 @@
     <t>type_vent</t>
   </si>
   <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>MUSEUM</t>
+  </si>
+  <si>
+    <t>LIBRARY</t>
+  </si>
+  <si>
     <t>T6</t>
   </si>
   <si>
@@ -119,6 +202,9 @@
     <t>year_end</t>
   </si>
   <si>
+    <t>Qhpro_Wm2</t>
+  </si>
+  <si>
     <t>wwr_north</t>
   </si>
   <si>
@@ -137,10 +223,43 @@
     <t>type_el</t>
   </si>
   <si>
+    <t>Qcre_Wm2</t>
+  </si>
+  <si>
     <t>Ns</t>
   </si>
   <si>
     <t>Es</t>
+  </si>
+  <si>
+    <t>UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Qcpro_Wm2</t>
+  </si>
+  <si>
+    <t>Occ_m2pax</t>
+  </si>
+  <si>
+    <t>Vww_lpdpax</t>
+  </si>
+  <si>
+    <t>Vw_lpdpax</t>
+  </si>
+  <si>
+    <t>X_ghpax</t>
+  </si>
+  <si>
+    <t>Qs_Wpax</t>
+  </si>
+  <si>
+    <t>Ve_lpspax</t>
+  </si>
+  <si>
+    <t>RH_min_pc</t>
+  </si>
+  <si>
+    <t>RH_max_pc</t>
   </si>
   <si>
     <t>16|09</t>
@@ -572,7 +691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -702,6 +821,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -747,7 +879,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,7 +888,14 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -767,6 +906,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,108 +1276,186 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2019-08-09T09:30:43.03" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{4995A51A-970E-4858-A3E9-F23AAFC3B2D7}">
+    <text>do not find this in SIA</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2019-08-13T15:04:41.29" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{59FCE18A-D39A-4487-B53C-3197D510A233}" parentId="{4995A51A-970E-4858-A3E9-F23AAFC3B2D7}">
+    <text>keep the same as old CEA Databases
+!</text>
+  </threadedComment>
+  <threadedComment ref="F14" dT="2019-08-13T15:40:02.18" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{19AF7AA5-1871-49D1-8FCF-02DD9C759BA1}">
+    <text>do not change from old CEA database</text>
+  </threadedComment>
+  <threadedComment ref="G15" dT="2019-08-13T14:54:06.63" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{1E62239D-37F6-4696-B130-748547BDA1A6}">
+    <text>nothing in SIA</text>
+  </threadedComment>
+  <threadedComment ref="G15" dT="2019-08-14T15:42:57.84" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{16CCDA4D-D51F-44AA-95EC-8AE62BEBEB94}" parentId="{1E62239D-37F6-4696-B130-748547BDA1A6}">
+    <text>Keep same as old CEA database
+These are not used anyway for these building typologies</text>
+  </threadedComment>
+  <threadedComment ref="G16" dT="2019-08-13T14:52:59.52" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{CB14F6D7-71C4-4A0D-B956-D1AB18BB535B}">
+    <text>nothing in SIA 2024</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F1" dT="2019-08-08T12:20:45.51" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{2BD16210-01D2-42DE-9F57-124A6EE12ECA}">
+    <text>dont find in SIA</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2019-08-13T08:16:02.08" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{6906B04C-56FB-4FF5-BF02-6B67D8F3AD90}" parentId="{2BD16210-01D2-42DE-9F57-124A6EE12ECA}">
+    <text>kept same as old CEA database - no reference available to change these values</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2019-08-08T12:23:57.13" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{2ED044A9-C68D-45BD-B13C-0553F43D3768}">
+    <text>dont find in SIA</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2019-08-08T12:08:25.79" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{4188EAE4-5F6C-4CB7-96DC-907AA428BC99}">
+    <text>cannot find in SIA</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2019-08-13T12:13:58.38" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{F1EF6245-8799-47A6-BCFF-35017E08DD5E}" parentId="{4188EAE4-5F6C-4CB7-96DC-907AA428BC99}">
+    <text>no other source available - keep same as in old CEA database</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2019-08-08T12:08:53.23" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{31840D2C-BF6D-496C-92D3-7147ADE02D81}">
+    <text>no reference available - keep same as in old CEA database</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2019-08-08T15:02:30.20" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{BA522695-9F5A-4685-BC9C-BB455B175508}">
+    <text>hotelzimmer values used</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2019-08-08T15:03:11.08" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{AB79D271-718E-45F1-9D6A-2D1684E778DD}">
+    <text>einzel/gruppenburo values used</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2019-08-08T15:03:58.66" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{99BBF83B-3C08-41AC-84FA-45BAB926754C}">
+    <text>fachgeschaft</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2019-08-08T15:04:09.18" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{2E89370B-2C8B-441B-8524-4961F9AD1E21}">
+    <text>lebensmittelverkauf = supermarket</text>
+  </threadedComment>
+  <threadedComment ref="A9" dT="2019-08-08T15:05:24.19" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{10829547-C2A4-4E58-B632-CF7EDF7CE835}">
+    <text>grosse arbeit values are used</text>
+  </threadedComment>
+  <threadedComment ref="A10" dT="2019-08-08T15:08:09.77" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{139CF0AD-AE2C-4F6B-9B40-AE63022A2B59}">
+    <text>schulzimmer values</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2019-08-08T14:52:31.15" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{EB7016A0-8719-4E80-9845-07E465C0EED2}">
+    <text>do not know which one to take - 3 categories of rooms are available</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2019-08-13T12:21:38.00" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{A96F6928-49E1-45C2-8A9F-9831A5C098A7}" parentId="{EB7016A0-8719-4E80-9845-07E465C0EED2}">
+    <text>all values from Bettenzimmer SIA 2024 8.1</text>
+  </threadedComment>
+  <threadedComment ref="F17" dT="2019-08-13T08:16:17.03" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{74014532-D18F-4AA9-A13E-1879A8CF80D5}">
+    <text>same as industrial</text>
+  </threadedComment>
+  <threadedComment ref="A20" dT="2019-08-08T14:58:20.10" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{4A6E4AE9-26FD-441F-92BA-0F9C18F35B56}">
+    <text>Horsaal is taken for this</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="10.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="11.5703125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="10.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="S1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>0.82</v>
@@ -1242,10 +1466,10 @@
       <c r="G2" s="2">
         <v>0.82</v>
       </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
         <v>0</v>
       </c>
       <c r="J2" s="2">
@@ -1261,37 +1485,37 @@
         <v>0.16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>0.82</v>
@@ -1302,10 +1526,10 @@
       <c r="G3" s="2">
         <v>0.82</v>
       </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
         <v>0</v>
       </c>
       <c r="J3" s="2">
@@ -1321,37 +1545,37 @@
         <v>0.21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
+      <c r="B4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>0.82</v>
@@ -1362,10 +1586,10 @@
       <c r="G4" s="2">
         <v>0.82</v>
       </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -1381,37 +1605,37 @@
         <v>0.25</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="2">
         <v>0.82</v>
@@ -1422,10 +1646,10 @@
       <c r="G5" s="2">
         <v>0.82</v>
       </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -1441,37 +1665,37 @@
         <v>0.21</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="2">
         <v>0.82</v>
@@ -1482,10 +1706,10 @@
       <c r="G6" s="2">
         <v>0.82</v>
       </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -1501,36 +1725,36 @@
         <v>0.15</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="E7" s="2">
         <v>0.82</v>
@@ -1541,10 +1765,10 @@
       <c r="G7" s="2">
         <v>0.82</v>
       </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
         <v>0</v>
       </c>
       <c r="J7" s="2">
@@ -1560,22 +1784,22 @@
         <v>0.15</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1598,242 +1822,242 @@
       <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1850,133 +2074,133 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1988,313 +2212,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="13"/>
+    <col min="1" max="1" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14">
         <v>57</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="17" t="s">
+      <c r="C2" s="14">
+        <v>57</v>
+      </c>
+      <c r="D2" s="14">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="14">
+        <v>64</v>
+      </c>
+      <c r="H2" s="14">
+        <v>39</v>
+      </c>
+      <c r="I2" s="14">
+        <v>29</v>
+      </c>
+      <c r="J2" s="14">
+        <v>32</v>
+      </c>
+      <c r="K2" s="14">
+        <v>135</v>
+      </c>
+      <c r="L2" s="16">
+        <v>16</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14">
+        <v>34</v>
+      </c>
+      <c r="C3" s="14">
+        <v>34</v>
+      </c>
+      <c r="D3" s="14">
+        <v>32</v>
+      </c>
+      <c r="E3" s="14">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14">
+        <v>62</v>
+      </c>
+      <c r="G3" s="14">
+        <v>113</v>
+      </c>
+      <c r="H3" s="14">
+        <v>113</v>
+      </c>
+      <c r="I3" s="14">
+        <v>57</v>
+      </c>
+      <c r="J3" s="14">
+        <v>32</v>
+      </c>
+      <c r="K3" s="14">
+        <v>135</v>
+      </c>
+      <c r="L3" s="16">
+        <v>16</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B4" s="14">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14">
+        <v>34</v>
+      </c>
+      <c r="E4" s="14">
+        <v>21</v>
+      </c>
+      <c r="F4" s="14">
+        <v>123</v>
+      </c>
+      <c r="G4" s="14">
+        <v>110</v>
+      </c>
+      <c r="H4" s="14">
+        <v>113</v>
+      </c>
+      <c r="I4" s="14">
+        <v>113</v>
+      </c>
+      <c r="J4" s="14">
+        <v>32</v>
+      </c>
+      <c r="K4" s="14">
+        <v>135</v>
+      </c>
+      <c r="L4" s="16">
+        <v>16</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14">
         <v>57</v>
       </c>
-      <c r="C2" s="10">
-        <v>57</v>
-      </c>
-      <c r="D2" s="10">
-        <v>39</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="C5" s="14">
+        <v>71</v>
+      </c>
+      <c r="D5" s="14">
+        <v>34</v>
+      </c>
+      <c r="E5" s="14">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14">
+        <v>69</v>
+      </c>
+      <c r="G5" s="14">
+        <v>91</v>
+      </c>
+      <c r="H5" s="14">
+        <v>104</v>
+      </c>
+      <c r="I5" s="14">
+        <v>113</v>
+      </c>
+      <c r="J5" s="14">
         <v>32</v>
       </c>
-      <c r="F2" s="10">
-        <v>47</v>
-      </c>
-      <c r="G2" s="10">
-        <v>64</v>
-      </c>
-      <c r="H2" s="10">
-        <v>39</v>
-      </c>
-      <c r="I2" s="10">
-        <v>29</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="K5" s="14">
+        <v>135</v>
+      </c>
+      <c r="L5" s="16">
+        <v>16</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14">
+        <v>112</v>
+      </c>
+      <c r="C6" s="14">
+        <v>188</v>
+      </c>
+      <c r="D6" s="14">
+        <v>73</v>
+      </c>
+      <c r="E6" s="14">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14">
+        <v>85</v>
+      </c>
+      <c r="G6" s="14">
+        <v>75</v>
+      </c>
+      <c r="H6" s="14">
+        <v>180</v>
+      </c>
+      <c r="I6" s="14">
+        <v>78</v>
+      </c>
+      <c r="J6" s="14">
         <v>32</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K6" s="14">
         <v>135</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L6" s="16">
         <v>16</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10">
-        <v>34</v>
-      </c>
-      <c r="C3" s="10">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="M6" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="14">
+        <v>112</v>
+      </c>
+      <c r="C7" s="14">
+        <v>188</v>
+      </c>
+      <c r="D7" s="14">
+        <v>73</v>
+      </c>
+      <c r="E7" s="14">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14">
+        <v>85</v>
+      </c>
+      <c r="G7" s="14">
+        <v>75</v>
+      </c>
+      <c r="H7" s="14">
+        <v>180</v>
+      </c>
+      <c r="I7" s="14">
+        <v>78</v>
+      </c>
+      <c r="J7" s="14">
         <v>32</v>
       </c>
-      <c r="E3" s="10">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10">
-        <v>62</v>
-      </c>
-      <c r="G3" s="10">
-        <v>113</v>
-      </c>
-      <c r="H3" s="10">
-        <v>113</v>
-      </c>
-      <c r="I3" s="10">
-        <v>57</v>
-      </c>
-      <c r="J3" s="10">
-        <v>32</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="K7" s="14">
         <v>135</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L7" s="16">
         <v>16</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10">
-        <v>36</v>
-      </c>
-      <c r="C4" s="10">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10">
-        <v>123</v>
-      </c>
-      <c r="G4" s="10">
-        <v>110</v>
-      </c>
-      <c r="H4" s="10">
-        <v>113</v>
-      </c>
-      <c r="I4" s="10">
-        <v>113</v>
-      </c>
-      <c r="J4" s="10">
-        <v>32</v>
-      </c>
-      <c r="K4" s="10">
-        <v>135</v>
-      </c>
-      <c r="L4" s="12">
-        <v>16</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10">
-        <v>57</v>
-      </c>
-      <c r="C5" s="10">
-        <v>71</v>
-      </c>
-      <c r="D5" s="10">
-        <v>34</v>
-      </c>
-      <c r="E5" s="10">
-        <v>21</v>
-      </c>
-      <c r="F5" s="10">
-        <v>69</v>
-      </c>
-      <c r="G5" s="10">
-        <v>91</v>
-      </c>
-      <c r="H5" s="10">
-        <v>104</v>
-      </c>
-      <c r="I5" s="10">
-        <v>113</v>
-      </c>
-      <c r="J5" s="10">
-        <v>32</v>
-      </c>
-      <c r="K5" s="10">
-        <v>135</v>
-      </c>
-      <c r="L5" s="12">
-        <v>16</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>112</v>
-      </c>
-      <c r="C6" s="10">
-        <v>188</v>
-      </c>
-      <c r="D6" s="10">
-        <v>73</v>
-      </c>
-      <c r="E6" s="10">
-        <v>16</v>
-      </c>
-      <c r="F6" s="10">
-        <v>85</v>
-      </c>
-      <c r="G6" s="10">
-        <v>75</v>
-      </c>
-      <c r="H6" s="10">
-        <v>180</v>
-      </c>
-      <c r="I6" s="10">
-        <v>78</v>
-      </c>
-      <c r="J6" s="10">
-        <v>32</v>
-      </c>
-      <c r="K6" s="10">
-        <v>135</v>
-      </c>
-      <c r="L6" s="12">
-        <v>16</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10">
-        <v>112</v>
-      </c>
-      <c r="C7" s="10">
-        <v>188</v>
-      </c>
-      <c r="D7" s="10">
-        <v>73</v>
-      </c>
-      <c r="E7" s="10">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10">
-        <v>85</v>
-      </c>
-      <c r="G7" s="10">
-        <v>75</v>
-      </c>
-      <c r="H7" s="10">
-        <v>180</v>
-      </c>
-      <c r="I7" s="10">
-        <v>78</v>
-      </c>
-      <c r="J7" s="10">
-        <v>32</v>
-      </c>
-      <c r="K7" s="10">
-        <v>135</v>
-      </c>
-      <c r="L7" s="12">
-        <v>16</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>48</v>
+      <c r="M7" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2303,13 +2527,1437 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13">
+        <v>70</v>
+      </c>
+      <c r="D2" s="13">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>35</v>
+      </c>
+      <c r="J2" s="13">
+        <v>140</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11">
+        <v>80</v>
+      </c>
+      <c r="E3" s="11">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>40</v>
+      </c>
+      <c r="J3" s="13">
+        <v>160</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13">
+        <v>70</v>
+      </c>
+      <c r="D4" s="13">
+        <v>80</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>40</v>
+      </c>
+      <c r="J4" s="13">
+        <v>160</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13">
+        <v>70</v>
+      </c>
+      <c r="D5" s="13">
+        <v>80</v>
+      </c>
+      <c r="E5" s="13">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>3</v>
+      </c>
+      <c r="J5" s="13">
+        <v>60</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>70</v>
+      </c>
+      <c r="D6" s="13">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>9.3+24</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>30</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
+        <v>70</v>
+      </c>
+      <c r="D7" s="13">
+        <v>80</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <f>9.3+12</f>
+        <v>21.3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>30</v>
+      </c>
+      <c r="K7" s="11">
+        <v>10</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13">
+        <v>80</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>15</v>
+      </c>
+      <c r="J8" s="13">
+        <v>45</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13">
+        <v>90</v>
+      </c>
+      <c r="D9" s="13">
+        <v>170</v>
+      </c>
+      <c r="E9" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3</v>
+      </c>
+      <c r="J9" s="13">
+        <v>60</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>150</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13">
+        <v>70</v>
+      </c>
+      <c r="D10" s="13">
+        <v>80</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>14</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13">
+        <f>15*0.43+3*0.01+5*0.56</f>
+        <v>9.2800000000000011</v>
+      </c>
+      <c r="C11" s="13">
+        <v>70</v>
+      </c>
+      <c r="D11" s="13">
+        <v>80</v>
+      </c>
+      <c r="E11" s="13">
+        <f>0.43*4+0.01*7+0.56*20</f>
+        <v>12.990000000000002</v>
+      </c>
+      <c r="F11" s="13">
+        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
+        <v>10.998000000000001</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <f>0.43*60+0.01*0+0.56*0</f>
+        <v>25.8</v>
+      </c>
+      <c r="J11" s="13">
+        <f>I11*4</f>
+        <v>103.2</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>16</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>120</v>
+      </c>
+      <c r="D12" s="13">
+        <v>280</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>9.9</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>60</v>
+      </c>
+      <c r="J12" s="13">
+        <v>180</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>70</v>
+      </c>
+      <c r="D13" s="13">
+        <v>80</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>120</v>
+      </c>
+      <c r="J13" s="13">
+        <v>360</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>70</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>100</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>35</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>70</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>100</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13">
+        <f>C11</f>
+        <v>70</v>
+      </c>
+      <c r="D17" s="13">
+        <f>D11</f>
+        <v>80</v>
+      </c>
+      <c r="E17" s="13">
+        <v>20</v>
+      </c>
+      <c r="F17" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="G17" s="13">
+        <f>G9</f>
+        <v>16.5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13">
+        <v>60</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
+        <v>70</v>
+      </c>
+      <c r="D18" s="13">
+        <v>80</v>
+      </c>
+      <c r="E18" s="13">
+        <v>7</v>
+      </c>
+      <c r="F18" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>2</v>
+      </c>
+      <c r="J18" s="13">
+        <v>30</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="13">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13">
+        <v>70</v>
+      </c>
+      <c r="D19" s="13">
+        <v>80</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="13">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13">
+        <v>70</v>
+      </c>
+      <c r="D20" s="13">
+        <v>80</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4</v>
+      </c>
+      <c r="F20" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2</v>
+      </c>
+      <c r="J20" s="13">
+        <v>30</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G3" s="11">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="11">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="11">
+        <v>30</v>
+      </c>
+      <c r="H5" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G6" s="11">
+        <v>30</v>
+      </c>
+      <c r="H6" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G7" s="11">
+        <v>30</v>
+      </c>
+      <c r="H7" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <v>30</v>
+      </c>
+      <c r="H8" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11">
+        <f>10*15/3.6</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G9" s="11">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11">
+        <f>25/3.6</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="G10" s="11">
+        <v>30</v>
+      </c>
+      <c r="H10" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11">
+        <f>36*1000/3600</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="11">
+        <v>30</v>
+      </c>
+      <c r="H11" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11">
+        <f>9*10/3.6</f>
+        <v>25</v>
+      </c>
+      <c r="G12" s="11">
+        <v>30</v>
+      </c>
+      <c r="H12" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11">
+        <f>3.6*10/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="11">
+        <v>30</v>
+      </c>
+      <c r="H13" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11">
+        <v>36</v>
+      </c>
+      <c r="G14" s="11">
+        <v>30</v>
+      </c>
+      <c r="H14" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>30</v>
+      </c>
+      <c r="H15" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>30</v>
+      </c>
+      <c r="H16" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4">
+        <v>12</v>
+      </c>
+      <c r="F17" s="11">
+        <f>20*15/3.6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G17" s="11">
+        <v>30</v>
+      </c>
+      <c r="H17" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4">
+        <v>12</v>
+      </c>
+      <c r="F18" s="11">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <v>30</v>
+      </c>
+      <c r="H18" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="11">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="11">
+        <v>40</v>
+      </c>
+      <c r="H19" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4">
+        <v>12</v>
+      </c>
+      <c r="F20" s="11">
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G20" s="11">
+        <v>30</v>
+      </c>
+      <c r="H20" s="11">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F20" unlockedFormula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2483,15 +4131,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2515,17 +4174,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/construction_properties.xlsx
+++ b/cea/databases/CH/archetypes/construction_properties.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
-    <sheet name="AIR_CONDITIONING" sheetId="1" r:id="rId2"/>
-    <sheet name="SUPPLY" sheetId="8" r:id="rId3"/>
+    <sheet name="ENVELOPE_COMPONENTS" sheetId="3" r:id="rId1"/>
+    <sheet name="HVAC_COMPONENTS" sheetId="1" r:id="rId2"/>
+    <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId3"/>
     <sheet name="EMISSION_INTENSITY" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t>type_hs</t>
   </si>
@@ -71,54 +71,15 @@
     <t>type_roof</t>
   </si>
   <si>
-    <t>T5</t>
-  </si>
-  <si>
     <t>type_vent</t>
   </si>
   <si>
-    <t>T6</t>
-  </si>
-  <si>
     <t>type_cons</t>
   </si>
   <si>
     <t>type_leak</t>
   </si>
   <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>1921</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>year_start</t>
-  </si>
-  <si>
-    <t>year_end</t>
-  </si>
-  <si>
     <t>wwr_north</t>
   </si>
   <si>
@@ -212,12 +173,6 @@
     <t>Mobi_kgm2</t>
   </si>
   <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>Stone and Masonry &lt; 1920's</t>
   </si>
   <si>
@@ -234,6 +189,72 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>STD1</t>
+  </si>
+  <si>
+    <t>STD2</t>
+  </si>
+  <si>
+    <t>STD3</t>
+  </si>
+  <si>
+    <t>STD4</t>
+  </si>
+  <si>
+    <t>STD5</t>
+  </si>
+  <si>
+    <t>STD6</t>
+  </si>
+  <si>
+    <t>WALL2</t>
+  </si>
+  <si>
+    <t>WALL5</t>
+  </si>
+  <si>
+    <t>SHADE2</t>
+  </si>
+  <si>
+    <t>SHADE1</t>
+  </si>
+  <si>
+    <t>ROOF2</t>
+  </si>
+  <si>
+    <t>ROOF1</t>
+  </si>
+  <si>
+    <t>ROOF4</t>
+  </si>
+  <si>
+    <t>WIN4</t>
+  </si>
+  <si>
+    <t>WIN2</t>
+  </si>
+  <si>
+    <t>WIN1</t>
+  </si>
+  <si>
+    <t>LEAK3</t>
+  </si>
+  <si>
+    <t>LEAK2</t>
+  </si>
+  <si>
+    <t>LEAK1</t>
+  </si>
+  <si>
+    <t>CONS3</t>
+  </si>
+  <si>
+    <t>CONS2</t>
   </si>
 </sst>
 </file>
@@ -747,7 +768,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,9 +784,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,74 +1150,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
@@ -1208,632 +1227,608 @@
         <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="I2" s="2">
         <v>0.82</v>
       </c>
-      <c r="F2" s="2">
+      <c r="J2" s="2">
         <v>0.82</v>
       </c>
-      <c r="G2" s="2">
+      <c r="K2" s="2">
         <v>0.82</v>
       </c>
-      <c r="H2" s="9">
+      <c r="L2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="M2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="N2" s="2">
         <v>0.16</v>
       </c>
-      <c r="K2" s="2">
+      <c r="O2" s="2">
         <v>0.16</v>
       </c>
-      <c r="L2" s="2">
+      <c r="P2" s="2">
         <v>0.16</v>
       </c>
-      <c r="M2" s="2">
+      <c r="Q2" s="2">
         <v>0.16</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="I3" s="2">
         <v>0.82</v>
       </c>
-      <c r="F3" s="2">
+      <c r="J3" s="2">
         <v>0.82</v>
       </c>
-      <c r="G3" s="2">
+      <c r="K3" s="2">
         <v>0.82</v>
       </c>
-      <c r="H3" s="9">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="N3" s="2">
         <v>0.21</v>
       </c>
-      <c r="K3" s="2">
+      <c r="O3" s="2">
         <v>0.21</v>
       </c>
-      <c r="L3" s="2">
+      <c r="P3" s="2">
         <v>0.21</v>
       </c>
-      <c r="M3" s="2">
+      <c r="Q3" s="2">
         <v>0.21</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.82</v>
       </c>
-      <c r="F4" s="2">
+      <c r="J4" s="2">
         <v>0.82</v>
       </c>
-      <c r="G4" s="2">
+      <c r="K4" s="2">
         <v>0.82</v>
       </c>
-      <c r="H4" s="9">
+      <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="N4" s="2">
         <v>0.25</v>
       </c>
-      <c r="K4" s="2">
+      <c r="O4" s="2">
         <v>0.25</v>
       </c>
-      <c r="L4" s="2">
+      <c r="P4" s="2">
         <v>0.25</v>
       </c>
-      <c r="M4" s="2">
+      <c r="Q4" s="2">
         <v>0.25</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2">
+        <v>57</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.82</v>
       </c>
-      <c r="F5" s="2">
+      <c r="J5" s="2">
         <v>0.82</v>
       </c>
-      <c r="G5" s="2">
+      <c r="K5" s="2">
         <v>0.82</v>
       </c>
-      <c r="H5" s="9">
+      <c r="L5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="N5" s="2">
         <v>0.21</v>
       </c>
-      <c r="K5" s="2">
+      <c r="O5" s="2">
         <v>0.21</v>
       </c>
-      <c r="L5" s="2">
+      <c r="P5" s="2">
         <v>0.21</v>
       </c>
-      <c r="M5" s="2">
+      <c r="Q5" s="2">
         <v>0.21</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2">
+        <v>58</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.82</v>
       </c>
-      <c r="F6" s="2">
+      <c r="J6" s="2">
         <v>0.82</v>
       </c>
-      <c r="G6" s="2">
+      <c r="K6" s="2">
         <v>0.82</v>
       </c>
-      <c r="H6" s="9">
+      <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="N6" s="2">
         <v>0.15</v>
       </c>
-      <c r="K6" s="2">
+      <c r="O6" s="2">
         <v>0.15</v>
       </c>
-      <c r="L6" s="2">
+      <c r="P6" s="2">
         <v>0.15</v>
       </c>
-      <c r="M6" s="2">
+      <c r="Q6" s="2">
         <v>0.15</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.82</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>0.82</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>0.82</v>
       </c>
-      <c r="H7" s="9">
+      <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>0.15</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>0.15</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>0.15</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>0.15</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:D6 D2 C7:D7" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1844,139 +1839,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1986,315 +2001,335 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="12.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="13" cust